--- a/output_changed_stats.xlsx
+++ b/output_changed_stats.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="211">
   <si>
     <t>wdpaid</t>
   </si>
@@ -100,165 +100,189 @@
     <t>Ichkeul National Park</t>
   </si>
   <si>
+    <t>Significant Concern -&gt; Good with some concerns</t>
+  </si>
+  <si>
+    <t>wh_value</t>
+  </si>
+  <si>
+    <t>High Concern -&gt; Low Concern</t>
+  </si>
+  <si>
+    <t>2 -&gt; 1</t>
+  </si>
+  <si>
+    <t>Tsingy de Bemaraha Strict Nature Reserve</t>
+  </si>
+  <si>
+    <t>overall_threat</t>
+  </si>
+  <si>
+    <t>Low Threat -&gt; High Threat</t>
+  </si>
+  <si>
+    <t>current_threat</t>
+  </si>
+  <si>
+    <t>Kahuzi-Biega National Park</t>
+  </si>
+  <si>
+    <t>wh_trend</t>
+  </si>
+  <si>
+    <t>Hierapolis-Pamukkale</t>
+  </si>
+  <si>
+    <t>High Threat -&gt; Low Threat</t>
+  </si>
+  <si>
+    <t>nan -&gt; Stable</t>
+  </si>
+  <si>
+    <t>Cape Floral Region Protected Areas</t>
+  </si>
+  <si>
+    <t>Good with some concerns -&gt; Significant Concern</t>
+  </si>
+  <si>
+    <t>Stable -&gt; Deteriorating</t>
+  </si>
+  <si>
+    <t>East Rennell</t>
+  </si>
+  <si>
+    <t>Critical -&gt; Significant Concern</t>
+  </si>
+  <si>
+    <t>Deteriorating -&gt; Data Deficient</t>
+  </si>
+  <si>
+    <t>Lake Malawi National Park</t>
+  </si>
+  <si>
+    <t>Some Concern -&gt; Serious Concern</t>
+  </si>
+  <si>
+    <t>Data Deficient -&gt; Stable</t>
+  </si>
+  <si>
+    <t>nan -&gt; High Concern</t>
+  </si>
+  <si>
+    <t>nan -&gt; Deteriorating</t>
+  </si>
+  <si>
+    <t>Kinabalu Park</t>
+  </si>
+  <si>
+    <t>Papahānaumokuākea</t>
+  </si>
+  <si>
+    <t>Mount Sanqingshan National Park</t>
+  </si>
+  <si>
+    <t>El Pinacate and Gran Desierto de Altar Biosphere Reserve</t>
+  </si>
+  <si>
+    <t>Cerrado Protected Areas: Chapada dos Veadeiros and Emas National Parks</t>
+  </si>
+  <si>
+    <t>Göreme National Park and the Rock Sites of Cappadocia</t>
+  </si>
+  <si>
+    <t>Jeju Volcanic Island and Lava Tubes</t>
+  </si>
+  <si>
+    <t>Very Low Threat -&gt; Low Threat</t>
+  </si>
+  <si>
+    <t>nan -&gt; Good</t>
+  </si>
+  <si>
+    <t>Lake Turkana National Parks</t>
+  </si>
+  <si>
+    <t>Garamba National Park</t>
+  </si>
+  <si>
+    <t>Los Glaciares National Park</t>
+  </si>
+  <si>
+    <t>Low Threat -&gt; Data Deficient</t>
+  </si>
+  <si>
+    <t>Malpelo Fauna and Flora Sanctuary</t>
+  </si>
+  <si>
+    <t>Some Concern -&gt; Effective</t>
+  </si>
+  <si>
+    <t>Rainforests of the Atsinanana</t>
+  </si>
+  <si>
+    <t>Wadi Rum Protected Area</t>
+  </si>
+  <si>
+    <t>Low Concern -&gt; Good</t>
+  </si>
+  <si>
+    <t>Putorana Plateau</t>
+  </si>
+  <si>
+    <t>Monte San Giorgio</t>
+  </si>
+  <si>
+    <t>Highly Effective -&gt; Effective</t>
+  </si>
+  <si>
+    <t>Ogasawara Islands</t>
+  </si>
+  <si>
+    <t>Selous Game Reserve</t>
+  </si>
+  <si>
+    <t>Comoé National Park</t>
+  </si>
+  <si>
+    <t>Very High Threat -&gt; High Threat</t>
+  </si>
+  <si>
+    <t>Data Deficient -&gt; Low Threat</t>
+  </si>
+  <si>
+    <t>Serious Concern -&gt; Effective</t>
+  </si>
+  <si>
+    <t>Critical -&gt; High Concern</t>
+  </si>
+  <si>
+    <t>Mount Nimba Strict Nature Reserve</t>
+  </si>
+  <si>
+    <t>Socotra Archipelago</t>
+  </si>
+  <si>
+    <t>Simien National Park</t>
+  </si>
+  <si>
     <t>Data Deficient -&gt; Improving</t>
   </si>
   <si>
-    <t>2 -&gt; 1</t>
-  </si>
-  <si>
-    <t>Tsingy de Bemaraha Strict Nature Reserve</t>
-  </si>
-  <si>
-    <t>overall_threat</t>
-  </si>
-  <si>
-    <t>Low Threat -&gt; High Threat</t>
-  </si>
-  <si>
-    <t>current_threat</t>
-  </si>
-  <si>
-    <t>Kahuzi-Biega National Park</t>
-  </si>
-  <si>
-    <t>wh_trend</t>
-  </si>
-  <si>
-    <t>Cape Floral Region Protected Areas</t>
-  </si>
-  <si>
-    <t>Good with some concerns -&gt; Significant Concern</t>
-  </si>
-  <si>
-    <t>Stable -&gt; Deteriorating</t>
-  </si>
-  <si>
-    <t>East Rennell</t>
-  </si>
-  <si>
-    <t>Critical -&gt; Significant Concern</t>
-  </si>
-  <si>
-    <t>Deteriorating -&gt; Data Deficient</t>
-  </si>
-  <si>
-    <t>Lake Malawi National Park</t>
-  </si>
-  <si>
-    <t>Some Concern -&gt; Serious Concern</t>
-  </si>
-  <si>
-    <t>Data Deficient -&gt; Stable</t>
-  </si>
-  <si>
-    <t>nan -&gt; High Concern</t>
-  </si>
-  <si>
-    <t>nan -&gt; Deteriorating</t>
-  </si>
-  <si>
-    <t>Kinabalu Park</t>
-  </si>
-  <si>
-    <t>Papahānaumokuākea</t>
-  </si>
-  <si>
-    <t>Mount Sanqingshan National Park</t>
-  </si>
-  <si>
-    <t>El Pinacate and Gran Desierto de Altar Biosphere Reserve</t>
-  </si>
-  <si>
-    <t>Cerrado Protected Areas: Chapada dos Veadeiros and Emas National Parks</t>
-  </si>
-  <si>
-    <t>Jeju Volcanic Island and Lava Tubes</t>
-  </si>
-  <si>
-    <t>Very Low Threat -&gt; Low Threat</t>
-  </si>
-  <si>
-    <t>nan -&gt; Good</t>
-  </si>
-  <si>
-    <t>nan -&gt; Stable</t>
-  </si>
-  <si>
-    <t>Lake Turkana National Parks</t>
-  </si>
-  <si>
-    <t>Garamba National Park</t>
-  </si>
-  <si>
-    <t>Los Glaciares National Park</t>
-  </si>
-  <si>
-    <t>Low Threat -&gt; Data Deficient</t>
-  </si>
-  <si>
-    <t>Malpelo Fauna and Flora Sanctuary</t>
-  </si>
-  <si>
-    <t>Some Concern -&gt; Effective</t>
-  </si>
-  <si>
-    <t>Rainforests of the Atsinanana</t>
-  </si>
-  <si>
-    <t>Wadi Rum Protected Area</t>
-  </si>
-  <si>
-    <t>wh_value</t>
-  </si>
-  <si>
-    <t>Low Concern -&gt; Good</t>
-  </si>
-  <si>
-    <t>Putorana Plateau</t>
-  </si>
-  <si>
-    <t>Monte San Giorgio</t>
-  </si>
-  <si>
-    <t>Highly Effective -&gt; Effective</t>
-  </si>
-  <si>
-    <t>Ogasawara Islands</t>
-  </si>
-  <si>
-    <t>Selous Game Reserve</t>
-  </si>
-  <si>
-    <t>Comoé National Park</t>
-  </si>
-  <si>
-    <t>Very High Threat -&gt; High Threat</t>
-  </si>
-  <si>
-    <t>Data Deficient -&gt; Low Threat</t>
-  </si>
-  <si>
-    <t>Serious Concern -&gt; Effective</t>
-  </si>
-  <si>
-    <t>Critical -&gt; High Concern</t>
-  </si>
-  <si>
-    <t>Mount Nimba Strict Nature Reserve</t>
-  </si>
-  <si>
-    <t>Socotra Archipelago</t>
-  </si>
-  <si>
-    <t>Simien National Park</t>
-  </si>
-  <si>
     <t>Vallée de Mai Nature Reserve</t>
   </si>
   <si>
     <t>Virunga National Park</t>
   </si>
   <si>
+    <t>Phong Nha-Ke Bang National Park</t>
+  </si>
+  <si>
+    <t>Low Concern -&gt; High Concern</t>
+  </si>
+  <si>
+    <t>High Concern -&gt; Data Deficient</t>
+  </si>
+  <si>
     <t>Djoudj National Bird Sanctuary</t>
   </si>
   <si>
@@ -280,9 +304,6 @@
     <t>Natural and Cultural Heritage of the Ohrid region</t>
   </si>
   <si>
-    <t>High Concern -&gt; Low Concern</t>
-  </si>
-  <si>
     <t>Pitons, cirques and remparts of Reunion Island</t>
   </si>
   <si>
@@ -304,6 +325,9 @@
     <t>Surtsey</t>
   </si>
   <si>
+    <t>The Dolomites</t>
+  </si>
+  <si>
     <t>Škocjan Caves</t>
   </si>
   <si>
@@ -334,15 +358,9 @@
     <t>Great Smoky Mountains National Park</t>
   </si>
   <si>
-    <t>High Threat -&gt; Low Threat</t>
-  </si>
-  <si>
     <t>Ilulissat Icefjord</t>
   </si>
   <si>
-    <t>Low Concern -&gt; High Concern</t>
-  </si>
-  <si>
     <t>Caves of Aggtelek Karst and Slovak Karst</t>
   </si>
   <si>
@@ -370,6 +388,9 @@
     <t>Brazilian Atlantic Islands: Fernando de Noronha and Atol das Rocas Reserves</t>
   </si>
   <si>
+    <t>Monarch Butterfly Biosphere Reserve</t>
+  </si>
+  <si>
     <t>Tassili n'Ajjer</t>
   </si>
   <si>
@@ -391,9 +412,6 @@
     <t>Laurisilva of Madeira</t>
   </si>
   <si>
-    <t>High Concern -&gt; Data Deficient</t>
-  </si>
-  <si>
     <t>Tikal National Park</t>
   </si>
   <si>
@@ -406,6 +424,9 @@
     <t>Manú National Park</t>
   </si>
   <si>
+    <t>Río Plátano Biosphere Reserve</t>
+  </si>
+  <si>
     <t>Los Katíos National Park</t>
   </si>
   <si>
@@ -415,6 +436,9 @@
     <t>Very High Threat -&gt; Data Deficient</t>
   </si>
   <si>
+    <t>Central Amazon Conservation Complex</t>
+  </si>
+  <si>
     <t>Macquarie Island</t>
   </si>
   <si>
@@ -460,6 +484,9 @@
     <t>Srebarna Nature Reserve</t>
   </si>
   <si>
+    <t>Nanda Devi and Valley of Flowers National Parks</t>
+  </si>
+  <si>
     <t>Golden Mountains of Altai</t>
   </si>
   <si>
@@ -469,6 +496,12 @@
     <t>Coiba National Park and its Special Zone of Marine Protection</t>
   </si>
   <si>
+    <t>Isole Eolie (Aeolian Islands)</t>
+  </si>
+  <si>
+    <t>Kaziranga National Park</t>
+  </si>
+  <si>
     <t>Saryarka – Steppe and Lakes of Northern Kazakhstan</t>
   </si>
   <si>
@@ -484,12 +517,24 @@
     <t>1 -&gt; 3</t>
   </si>
   <si>
+    <t>Ujung Kulon National Park</t>
+  </si>
+  <si>
+    <t>Fraser Island</t>
+  </si>
+  <si>
     <t>Mount Hamiguitan Range Wildlife Sanctuary</t>
   </si>
   <si>
     <t>Nahanni National Park</t>
   </si>
   <si>
+    <t>Galápagos Islands</t>
+  </si>
+  <si>
+    <t>Plitvice Lakes National Park</t>
+  </si>
+  <si>
     <t>Cocos Island National Park</t>
   </si>
   <si>
@@ -586,13 +631,19 @@
     <t>Central Sikhote-Alin</t>
   </si>
   <si>
-    <t>Significant Concern -&gt; Good with some concerns</t>
-  </si>
-  <si>
     <t>Some Concern -&gt; Highly Effective</t>
   </si>
   <si>
+    <t>Mount Etna</t>
+  </si>
+  <si>
+    <t>nan -&gt; Very Low Threat</t>
+  </si>
+  <si>
     <t>Lord Howe Island Group</t>
+  </si>
+  <si>
+    <t>Area de Conservación Guanacaste</t>
   </si>
   <si>
     <t>Gros Morne National Park</t>
@@ -944,7 +995,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E285"/>
+  <dimension ref="A1:E322"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1164,10 +1215,10 @@
         <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="E13" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1181,10 +1232,10 @@
         <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="E14" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1201,7 +1252,7 @@
         <v>23</v>
       </c>
       <c r="E15" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -1212,7 +1263,7 @@
         <v>26653</v>
       </c>
       <c r="C16" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D16" t="s">
         <v>17</v>
@@ -1229,13 +1280,13 @@
         <v>26653</v>
       </c>
       <c r="C17" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D17" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E17" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1246,13 +1297,13 @@
         <v>26653</v>
       </c>
       <c r="C18" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D18" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E18" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1263,10 +1314,10 @@
         <v>4328</v>
       </c>
       <c r="C19" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D19" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E19" t="s">
         <v>11</v>
@@ -1277,16 +1328,16 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>902347</v>
+        <v>478640</v>
       </c>
       <c r="C20" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D20" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="E20" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1294,16 +1345,16 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>902347</v>
+        <v>478640</v>
       </c>
       <c r="C21" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D21" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="E21" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1311,16 +1362,16 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>902347</v>
+        <v>478640</v>
       </c>
       <c r="C22" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D22" t="s">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="E22" t="s">
-        <v>38</v>
+        <v>6</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1328,13 +1379,13 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>168242</v>
+        <v>478640</v>
       </c>
       <c r="C23" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D23" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="E23" t="s">
         <v>40</v>
@@ -1345,16 +1396,16 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>168242</v>
+        <v>902347</v>
       </c>
       <c r="C24" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D24" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="E24" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1362,16 +1413,16 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>10904</v>
+        <v>902347</v>
       </c>
       <c r="C25" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D25" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="E25" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1379,16 +1430,16 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>10904</v>
+        <v>902347</v>
       </c>
       <c r="C26" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D26" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="E26" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1396,16 +1447,16 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>10904</v>
+        <v>168242</v>
       </c>
       <c r="C27" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D27" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E27" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1413,16 +1464,16 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>10904</v>
+        <v>168242</v>
       </c>
       <c r="C28" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D28" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E28" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1433,13 +1484,13 @@
         <v>10904</v>
       </c>
       <c r="C29" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D29" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="E29" t="s">
-        <v>45</v>
+        <v>14</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1450,13 +1501,13 @@
         <v>10904</v>
       </c>
       <c r="C30" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D30" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="E30" t="s">
-        <v>46</v>
+        <v>14</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1464,16 +1515,16 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>220292</v>
+        <v>10904</v>
       </c>
       <c r="C31" t="s">
         <v>47</v>
       </c>
       <c r="D31" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="E31" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1481,16 +1532,16 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>220292</v>
+        <v>10904</v>
       </c>
       <c r="C32" t="s">
         <v>47</v>
       </c>
       <c r="D32" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="E32" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1498,16 +1549,16 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>220292</v>
+        <v>10904</v>
       </c>
       <c r="C33" t="s">
         <v>47</v>
       </c>
       <c r="D33" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="E33" t="s">
-        <v>26</v>
+        <v>50</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1515,16 +1566,16 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>555512001</v>
+        <v>10904</v>
       </c>
       <c r="C34" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D34" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="E34" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1532,16 +1583,16 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>555512001</v>
+        <v>220292</v>
       </c>
       <c r="C35" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="D35" t="s">
         <v>33</v>
       </c>
       <c r="E35" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1549,16 +1600,16 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>903136</v>
+        <v>220292</v>
       </c>
       <c r="C36" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D36" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1566,16 +1617,16 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>555556046</v>
+        <v>220292</v>
       </c>
       <c r="C37" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D37" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E37" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1583,16 +1634,16 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>555556046</v>
+        <v>555512001</v>
       </c>
       <c r="C38" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D38" t="s">
         <v>33</v>
       </c>
       <c r="E38" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1600,16 +1651,16 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>555556046</v>
+        <v>555512001</v>
       </c>
       <c r="C39" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D39" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="E39" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1617,16 +1668,16 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>900630</v>
+        <v>903136</v>
       </c>
       <c r="C40" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D40" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E40" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1634,16 +1685,16 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>903130</v>
+        <v>555556046</v>
       </c>
       <c r="C41" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D41" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E41" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1651,16 +1702,16 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>903130</v>
+        <v>555556046</v>
       </c>
       <c r="C42" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D42" t="s">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="E42" t="s">
-        <v>54</v>
+        <v>34</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1668,16 +1719,16 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>903130</v>
+        <v>555556046</v>
       </c>
       <c r="C43" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D43" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="E43" t="s">
-        <v>55</v>
+        <v>26</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1685,16 +1736,16 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>145586</v>
+        <v>900630</v>
       </c>
       <c r="C44" t="s">
         <v>56</v>
       </c>
       <c r="D44" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="E44" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1702,16 +1753,16 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>4327</v>
+        <v>478637</v>
       </c>
       <c r="C45" t="s">
         <v>57</v>
       </c>
       <c r="D45" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="E45" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1719,7 +1770,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>2570</v>
+        <v>903130</v>
       </c>
       <c r="C46" t="s">
         <v>58</v>
@@ -1736,16 +1787,16 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>2570</v>
+        <v>903130</v>
       </c>
       <c r="C47" t="s">
         <v>58</v>
       </c>
       <c r="D47" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="E47" t="s">
-        <v>26</v>
+        <v>60</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1753,16 +1804,16 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>902899</v>
+        <v>903130</v>
       </c>
       <c r="C48" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D48" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="E48" t="s">
-        <v>61</v>
+        <v>40</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1770,16 +1821,16 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>903062</v>
+        <v>145586</v>
       </c>
       <c r="C49" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D49" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="E49" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1787,16 +1838,16 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>555542337</v>
+        <v>4327</v>
       </c>
       <c r="C50" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D50" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="E50" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1804,16 +1855,16 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>555542337</v>
+        <v>2570</v>
       </c>
       <c r="C51" t="s">
         <v>63</v>
       </c>
       <c r="D51" t="s">
+        <v>13</v>
+      </c>
+      <c r="E51" t="s">
         <v>64</v>
-      </c>
-      <c r="E51" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1821,16 +1872,16 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>555542337</v>
+        <v>2570</v>
       </c>
       <c r="C52" t="s">
         <v>63</v>
       </c>
       <c r="D52" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="E52" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1838,16 +1889,16 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>555542337</v>
+        <v>902899</v>
       </c>
       <c r="C53" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D53" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="E53" t="s">
-        <v>44</v>
+        <v>66</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -1855,16 +1906,16 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>555512003</v>
+        <v>903062</v>
       </c>
       <c r="C54" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D54" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="E54" t="s">
-        <v>53</v>
+        <v>24</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -1872,16 +1923,16 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>900879</v>
+        <v>555542337</v>
       </c>
       <c r="C55" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D55" t="s">
         <v>21</v>
       </c>
       <c r="E55" t="s">
-        <v>68</v>
+        <v>26</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -1889,16 +1940,16 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>555542336</v>
+        <v>555542337</v>
       </c>
       <c r="C56" t="s">
+        <v>68</v>
+      </c>
+      <c r="D56" t="s">
+        <v>29</v>
+      </c>
+      <c r="E56" t="s">
         <v>69</v>
-      </c>
-      <c r="D56" t="s">
-        <v>35</v>
-      </c>
-      <c r="E56" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -1906,16 +1957,16 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>555542336</v>
+        <v>555542337</v>
       </c>
       <c r="C57" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D57" t="s">
-        <v>5</v>
+        <v>37</v>
       </c>
       <c r="E57" t="s">
-        <v>6</v>
+        <v>49</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -1923,16 +1974,16 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>555542336</v>
+        <v>555542337</v>
       </c>
       <c r="C58" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D58" t="s">
         <v>7</v>
       </c>
       <c r="E58" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -1940,16 +1991,16 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>5005</v>
+        <v>555512003</v>
       </c>
       <c r="C59" t="s">
         <v>70</v>
       </c>
       <c r="D59" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="E59" t="s">
-        <v>14</v>
+        <v>59</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -1957,16 +2008,16 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>5005</v>
+        <v>900879</v>
       </c>
       <c r="C60" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D60" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="E60" t="s">
-        <v>8</v>
+        <v>72</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -1974,16 +2025,16 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>5005</v>
+        <v>555542336</v>
       </c>
       <c r="C61" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="D61" t="s">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="E61" t="s">
-        <v>8</v>
+        <v>49</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -1991,16 +2042,16 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>9545</v>
+        <v>555542336</v>
       </c>
       <c r="C62" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D62" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="E62" t="s">
-        <v>40</v>
+        <v>6</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -2008,16 +2059,16 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>9545</v>
+        <v>555542336</v>
       </c>
       <c r="C63" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D63" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="E63" t="s">
-        <v>72</v>
+        <v>40</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -2025,16 +2076,16 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>9545</v>
+        <v>5005</v>
       </c>
       <c r="C64" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="D64" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="E64" t="s">
-        <v>72</v>
+        <v>14</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -2042,16 +2093,16 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>9545</v>
+        <v>5005</v>
       </c>
       <c r="C65" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="D65" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="E65" t="s">
-        <v>73</v>
+        <v>8</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -2059,16 +2110,16 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>9545</v>
+        <v>5005</v>
       </c>
       <c r="C66" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="D66" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="E66" t="s">
-        <v>74</v>
+        <v>8</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -2079,13 +2130,13 @@
         <v>9545</v>
       </c>
       <c r="C67" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="D67" t="s">
-        <v>64</v>
+        <v>17</v>
       </c>
       <c r="E67" t="s">
-        <v>75</v>
+        <v>45</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -2093,16 +2144,16 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>2574</v>
+        <v>9545</v>
       </c>
       <c r="C68" t="s">
+        <v>75</v>
+      </c>
+      <c r="D68" t="s">
+        <v>33</v>
+      </c>
+      <c r="E68" t="s">
         <v>76</v>
-      </c>
-      <c r="D68" t="s">
-        <v>21</v>
-      </c>
-      <c r="E68" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -2110,16 +2161,16 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>903138</v>
+        <v>9545</v>
       </c>
       <c r="C69" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D69" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="E69" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -2127,16 +2178,16 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>903138</v>
+        <v>9545</v>
       </c>
       <c r="C70" t="s">
+        <v>75</v>
+      </c>
+      <c r="D70" t="s">
+        <v>13</v>
+      </c>
+      <c r="E70" t="s">
         <v>77</v>
-      </c>
-      <c r="D70" t="s">
-        <v>21</v>
-      </c>
-      <c r="E70" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -2144,16 +2195,16 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>903138</v>
+        <v>9545</v>
       </c>
       <c r="C71" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D71" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="E71" t="s">
-        <v>45</v>
+        <v>78</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -2161,16 +2212,16 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>903138</v>
+        <v>9545</v>
       </c>
       <c r="C72" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D72" t="s">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="E72" t="s">
-        <v>46</v>
+        <v>79</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -2178,16 +2229,16 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>2006</v>
+        <v>2574</v>
       </c>
       <c r="C73" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D73" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="E73" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -2195,16 +2246,16 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>9628</v>
+        <v>903138</v>
       </c>
       <c r="C74" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D74" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="E74" t="s">
-        <v>44</v>
+        <v>76</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -2212,16 +2263,16 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>2017</v>
+        <v>903138</v>
       </c>
       <c r="C75" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D75" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="E75" t="s">
-        <v>14</v>
+        <v>48</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -2229,7 +2280,7 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>2578</v>
+        <v>903138</v>
       </c>
       <c r="C76" t="s">
         <v>81</v>
@@ -2238,7 +2289,7 @@
         <v>5</v>
       </c>
       <c r="E76" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -2246,7 +2297,7 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>2578</v>
+        <v>903138</v>
       </c>
       <c r="C77" t="s">
         <v>81</v>
@@ -2255,7 +2306,7 @@
         <v>7</v>
       </c>
       <c r="E77" t="s">
-        <v>82</v>
+        <v>51</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -2263,16 +2314,16 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>902480</v>
+        <v>2006</v>
       </c>
       <c r="C78" t="s">
+        <v>82</v>
+      </c>
+      <c r="D78" t="s">
+        <v>37</v>
+      </c>
+      <c r="E78" t="s">
         <v>83</v>
-      </c>
-      <c r="D78" t="s">
-        <v>17</v>
-      </c>
-      <c r="E78" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -2280,16 +2331,16 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>902480</v>
+        <v>9628</v>
       </c>
       <c r="C79" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D79" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="E79" t="s">
-        <v>72</v>
+        <v>49</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -2297,16 +2348,16 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>902480</v>
+        <v>2017</v>
       </c>
       <c r="C80" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D80" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E80" t="s">
-        <v>72</v>
+        <v>14</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -2314,16 +2365,16 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>902480</v>
+        <v>900883</v>
       </c>
       <c r="C81" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="D81" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E81" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -2331,16 +2382,16 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>902480</v>
+        <v>900883</v>
       </c>
       <c r="C82" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="D82" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="E82" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -2348,16 +2399,16 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>902480</v>
+        <v>900883</v>
       </c>
       <c r="C83" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="D83" t="s">
-        <v>64</v>
+        <v>35</v>
       </c>
       <c r="E83" t="s">
-        <v>75</v>
+        <v>34</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -2365,16 +2416,16 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>902480</v>
+        <v>900883</v>
       </c>
       <c r="C84" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="D84" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="E84" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -2382,16 +2433,16 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>555512002</v>
+        <v>900883</v>
       </c>
       <c r="C85" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D85" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="E85" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -2399,16 +2450,16 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>555512002</v>
+        <v>900883</v>
       </c>
       <c r="C86" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D86" t="s">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="E86" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -2416,16 +2467,16 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>555512002</v>
+        <v>900883</v>
       </c>
       <c r="C87" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D87" t="s">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="E87" t="s">
-        <v>86</v>
+        <v>43</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -2433,10 +2484,10 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>2015</v>
+        <v>900883</v>
       </c>
       <c r="C88" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D88" t="s">
         <v>5</v>
@@ -2450,16 +2501,16 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>2015</v>
+        <v>2578</v>
       </c>
       <c r="C89" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D89" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E89" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -2467,13 +2518,13 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>555512006</v>
+        <v>2578</v>
       </c>
       <c r="C90" t="s">
         <v>89</v>
       </c>
       <c r="D90" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="E90" t="s">
         <v>90</v>
@@ -2484,16 +2535,16 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>555512006</v>
+        <v>902480</v>
       </c>
       <c r="C91" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D91" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="E91" t="s">
-        <v>91</v>
+        <v>45</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -2501,16 +2552,16 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>555512006</v>
+        <v>902480</v>
       </c>
       <c r="C92" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D92" t="s">
         <v>33</v>
       </c>
       <c r="E92" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -2518,16 +2569,16 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>555512006</v>
+        <v>902480</v>
       </c>
       <c r="C93" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D93" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="E93" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -2535,16 +2586,16 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>555512006</v>
+        <v>902480</v>
       </c>
       <c r="C94" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D94" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="E94" t="s">
-        <v>92</v>
+        <v>20</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -2552,16 +2603,16 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>555512006</v>
+        <v>902480</v>
       </c>
       <c r="C95" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D95" t="s">
-        <v>64</v>
+        <v>21</v>
       </c>
       <c r="E95" t="s">
-        <v>93</v>
+        <v>22</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -2569,16 +2620,16 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>555512006</v>
+        <v>902480</v>
       </c>
       <c r="C96" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D96" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="E96" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -2586,16 +2637,16 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>555512006</v>
+        <v>902480</v>
       </c>
       <c r="C97" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D97" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="E97" t="s">
-        <v>24</v>
+        <v>49</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -2603,16 +2654,16 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>903139</v>
+        <v>555512002</v>
       </c>
       <c r="C98" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D98" t="s">
         <v>13</v>
       </c>
       <c r="E98" t="s">
-        <v>53</v>
+        <v>34</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -2620,16 +2671,16 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>903139</v>
+        <v>555512002</v>
       </c>
       <c r="C99" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D99" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="E99" t="s">
-        <v>68</v>
+        <v>93</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -2637,16 +2688,16 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>903139</v>
+        <v>555512002</v>
       </c>
       <c r="C100" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D100" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E100" t="s">
-        <v>54</v>
+        <v>94</v>
       </c>
     </row>
     <row r="101" spans="1:5">
@@ -2654,16 +2705,16 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>903139</v>
+        <v>2015</v>
       </c>
       <c r="C101" t="s">
         <v>95</v>
       </c>
       <c r="D101" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E101" t="s">
-        <v>82</v>
+        <v>30</v>
       </c>
     </row>
     <row r="102" spans="1:5">
@@ -2671,16 +2722,16 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>12209</v>
+        <v>2015</v>
       </c>
       <c r="C102" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D102" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="E102" t="s">
-        <v>97</v>
+        <v>49</v>
       </c>
     </row>
     <row r="103" spans="1:5">
@@ -2688,16 +2739,16 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>12209</v>
+        <v>555512006</v>
       </c>
       <c r="C103" t="s">
         <v>96</v>
       </c>
       <c r="D103" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="E103" t="s">
-        <v>32</v>
+        <v>97</v>
       </c>
     </row>
     <row r="104" spans="1:5">
@@ -2705,7 +2756,7 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>12209</v>
+        <v>555512006</v>
       </c>
       <c r="C104" t="s">
         <v>96</v>
@@ -2714,7 +2765,7 @@
         <v>33</v>
       </c>
       <c r="E104" t="s">
-        <v>32</v>
+        <v>98</v>
       </c>
     </row>
     <row r="105" spans="1:5">
@@ -2722,16 +2773,16 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>12209</v>
+        <v>555512006</v>
       </c>
       <c r="C105" t="s">
         <v>96</v>
       </c>
       <c r="D105" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="E105" t="s">
-        <v>14</v>
+        <v>98</v>
       </c>
     </row>
     <row r="106" spans="1:5">
@@ -2739,16 +2790,16 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>12209</v>
+        <v>555512006</v>
       </c>
       <c r="C106" t="s">
         <v>96</v>
       </c>
       <c r="D106" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="E106" t="s">
-        <v>26</v>
+        <v>98</v>
       </c>
     </row>
     <row r="107" spans="1:5">
@@ -2756,16 +2807,16 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>12209</v>
+        <v>555512006</v>
       </c>
       <c r="C107" t="s">
         <v>96</v>
       </c>
       <c r="D107" t="s">
-        <v>64</v>
+        <v>21</v>
       </c>
       <c r="E107" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="108" spans="1:5">
@@ -2773,16 +2824,16 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>12209</v>
+        <v>555512006</v>
       </c>
       <c r="C108" t="s">
         <v>96</v>
       </c>
       <c r="D108" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="E108" t="s">
-        <v>11</v>
+        <v>100</v>
       </c>
     </row>
     <row r="109" spans="1:5">
@@ -2790,16 +2841,16 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>555547988</v>
+        <v>555512006</v>
       </c>
       <c r="C109" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D109" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E109" t="s">
-        <v>44</v>
+        <v>101</v>
       </c>
     </row>
     <row r="110" spans="1:5">
@@ -2807,16 +2858,16 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>10901</v>
+        <v>555512006</v>
       </c>
       <c r="C110" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D110" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="E110" t="s">
-        <v>72</v>
+        <v>24</v>
       </c>
     </row>
     <row r="111" spans="1:5">
@@ -2824,16 +2875,16 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>10901</v>
+        <v>903139</v>
       </c>
       <c r="C111" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D111" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="E111" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
     </row>
     <row r="112" spans="1:5">
@@ -2841,16 +2892,16 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>10901</v>
+        <v>903139</v>
       </c>
       <c r="C112" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D112" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="E112" t="s">
-        <v>32</v>
+        <v>72</v>
       </c>
     </row>
     <row r="113" spans="1:5">
@@ -2858,16 +2909,16 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>555547991</v>
+        <v>903139</v>
       </c>
       <c r="C113" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D113" t="s">
-        <v>31</v>
+        <v>5</v>
       </c>
       <c r="E113" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
     </row>
     <row r="114" spans="1:5">
@@ -2875,16 +2926,16 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>555547991</v>
+        <v>903139</v>
       </c>
       <c r="C114" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D114" t="s">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="E114" t="s">
-        <v>53</v>
+        <v>90</v>
       </c>
     </row>
     <row r="115" spans="1:5">
@@ -2892,16 +2943,16 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>220291</v>
+        <v>478641</v>
       </c>
       <c r="C115" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D115" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E115" t="s">
-        <v>18</v>
+        <v>66</v>
       </c>
     </row>
     <row r="116" spans="1:5">
@@ -2909,16 +2960,16 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>220291</v>
+        <v>478641</v>
       </c>
       <c r="C116" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D116" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="E116" t="s">
-        <v>103</v>
+        <v>49</v>
       </c>
     </row>
     <row r="117" spans="1:5">
@@ -2926,16 +2977,16 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>220291</v>
+        <v>12209</v>
       </c>
       <c r="C117" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D117" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E117" t="s">
-        <v>26</v>
+        <v>105</v>
       </c>
     </row>
     <row r="118" spans="1:5">
@@ -2943,16 +2994,16 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>220291</v>
+        <v>12209</v>
       </c>
       <c r="C118" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D118" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="E118" t="s">
-        <v>104</v>
+        <v>34</v>
       </c>
     </row>
     <row r="119" spans="1:5">
@@ -2960,16 +3011,16 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>9632</v>
+        <v>12209</v>
       </c>
       <c r="C119" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D119" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="E119" t="s">
-        <v>106</v>
+        <v>34</v>
       </c>
     </row>
     <row r="120" spans="1:5">
@@ -2977,16 +3028,16 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>902373</v>
+        <v>12209</v>
       </c>
       <c r="C120" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D120" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="E120" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
     </row>
     <row r="121" spans="1:5">
@@ -2994,16 +3045,16 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>93292</v>
+        <v>12209</v>
       </c>
       <c r="C121" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="D121" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E121" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="122" spans="1:5">
@@ -3011,16 +3062,16 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>93292</v>
+        <v>12209</v>
       </c>
       <c r="C122" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="D122" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="E122" t="s">
-        <v>53</v>
+        <v>106</v>
       </c>
     </row>
     <row r="123" spans="1:5">
@@ -3028,16 +3079,16 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>26689</v>
+        <v>12209</v>
       </c>
       <c r="C123" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="D123" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="E123" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
     </row>
     <row r="124" spans="1:5">
@@ -3045,16 +3096,16 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>26689</v>
+        <v>555547988</v>
       </c>
       <c r="C124" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D124" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="E124" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
     </row>
     <row r="125" spans="1:5">
@@ -3062,16 +3113,16 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>26689</v>
+        <v>10901</v>
       </c>
       <c r="C125" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D125" t="s">
         <v>33</v>
       </c>
       <c r="E125" t="s">
-        <v>32</v>
+        <v>76</v>
       </c>
     </row>
     <row r="126" spans="1:5">
@@ -3079,16 +3130,16 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>26689</v>
+        <v>10901</v>
       </c>
       <c r="C126" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D126" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="E126" t="s">
-        <v>111</v>
+        <v>76</v>
       </c>
     </row>
     <row r="127" spans="1:5">
@@ -3096,16 +3147,16 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>26689</v>
+        <v>10901</v>
       </c>
       <c r="C127" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D127" t="s">
-        <v>64</v>
+        <v>13</v>
       </c>
       <c r="E127" t="s">
-        <v>112</v>
+        <v>34</v>
       </c>
     </row>
     <row r="128" spans="1:5">
@@ -3113,16 +3164,16 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>26689</v>
+        <v>555547991</v>
       </c>
       <c r="C128" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D128" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E128" t="s">
-        <v>38</v>
+        <v>59</v>
       </c>
     </row>
     <row r="129" spans="1:5">
@@ -3130,16 +3181,16 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>26689</v>
+        <v>555547991</v>
       </c>
       <c r="C129" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D129" t="s">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="E129" t="s">
-        <v>108</v>
+        <v>59</v>
       </c>
     </row>
     <row r="130" spans="1:5">
@@ -3147,16 +3198,16 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>26689</v>
+        <v>220291</v>
       </c>
       <c r="C130" t="s">
         <v>110</v>
       </c>
       <c r="D130" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E130" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
     </row>
     <row r="131" spans="1:5">
@@ -3164,16 +3215,16 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>17758</v>
+        <v>220291</v>
       </c>
       <c r="C131" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D131" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="E131" t="s">
-        <v>14</v>
+        <v>111</v>
       </c>
     </row>
     <row r="132" spans="1:5">
@@ -3181,16 +3232,16 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>17758</v>
+        <v>220291</v>
       </c>
       <c r="C132" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D132" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="E132" t="s">
-        <v>72</v>
+        <v>26</v>
       </c>
     </row>
     <row r="133" spans="1:5">
@@ -3198,16 +3249,16 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>17758</v>
+        <v>220291</v>
       </c>
       <c r="C133" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D133" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="E133" t="s">
-        <v>24</v>
+        <v>112</v>
       </c>
     </row>
     <row r="134" spans="1:5">
@@ -3215,16 +3266,16 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>902482</v>
+        <v>9632</v>
       </c>
       <c r="C134" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D134" t="s">
         <v>13</v>
       </c>
       <c r="E134" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
     </row>
     <row r="135" spans="1:5">
@@ -3232,7 +3283,7 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>902482</v>
+        <v>902373</v>
       </c>
       <c r="C135" t="s">
         <v>114</v>
@@ -3241,7 +3292,7 @@
         <v>5</v>
       </c>
       <c r="E135" t="s">
-        <v>8</v>
+        <v>87</v>
       </c>
     </row>
     <row r="136" spans="1:5">
@@ -3249,16 +3300,16 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>902482</v>
+        <v>93292</v>
       </c>
       <c r="C136" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D136" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E136" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="137" spans="1:5">
@@ -3266,16 +3317,16 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>68917</v>
+        <v>93292</v>
       </c>
       <c r="C137" t="s">
         <v>115</v>
       </c>
       <c r="D137" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="E137" t="s">
-        <v>116</v>
+        <v>59</v>
       </c>
     </row>
     <row r="138" spans="1:5">
@@ -3283,16 +3334,16 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>900631</v>
+        <v>26689</v>
       </c>
       <c r="C138" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D138" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="E138" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
     </row>
     <row r="139" spans="1:5">
@@ -3300,16 +3351,16 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>900631</v>
+        <v>26689</v>
       </c>
       <c r="C139" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D139" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="E139" t="s">
-        <v>106</v>
+        <v>34</v>
       </c>
     </row>
     <row r="140" spans="1:5">
@@ -3317,16 +3368,16 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>900631</v>
+        <v>26689</v>
       </c>
       <c r="C140" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D140" t="s">
         <v>35</v>
       </c>
       <c r="E140" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
     </row>
     <row r="141" spans="1:5">
@@ -3334,16 +3385,16 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>4999</v>
+        <v>26689</v>
       </c>
       <c r="C141" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D141" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="E141" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="142" spans="1:5">
@@ -3351,16 +3402,16 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>4999</v>
+        <v>26689</v>
       </c>
       <c r="C142" t="s">
+        <v>116</v>
+      </c>
+      <c r="D142" t="s">
+        <v>29</v>
+      </c>
+      <c r="E142" t="s">
         <v>118</v>
-      </c>
-      <c r="D142" t="s">
-        <v>33</v>
-      </c>
-      <c r="E142" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="143" spans="1:5">
@@ -3368,16 +3419,16 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>4999</v>
+        <v>26689</v>
       </c>
       <c r="C143" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D143" t="s">
-        <v>64</v>
+        <v>37</v>
       </c>
       <c r="E143" t="s">
-        <v>65</v>
+        <v>43</v>
       </c>
     </row>
     <row r="144" spans="1:5">
@@ -3385,16 +3436,16 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>900889</v>
+        <v>26689</v>
       </c>
       <c r="C144" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="D144" t="s">
-        <v>64</v>
+        <v>5</v>
       </c>
       <c r="E144" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
     </row>
     <row r="145" spans="1:5">
@@ -3402,16 +3453,16 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>68915</v>
+        <v>26689</v>
       </c>
       <c r="C145" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="D145" t="s">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="E145" t="s">
-        <v>122</v>
+        <v>43</v>
       </c>
     </row>
     <row r="146" spans="1:5">
@@ -3419,16 +3470,16 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>68915</v>
+        <v>17758</v>
       </c>
       <c r="C146" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D146" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="E146" t="s">
-        <v>53</v>
+        <v>14</v>
       </c>
     </row>
     <row r="147" spans="1:5">
@@ -3436,16 +3487,16 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>68915</v>
+        <v>17758</v>
       </c>
       <c r="C147" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D147" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="E147" t="s">
-        <v>123</v>
+        <v>76</v>
       </c>
     </row>
     <row r="148" spans="1:5">
@@ -3453,16 +3504,16 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>198300</v>
+        <v>17758</v>
       </c>
       <c r="C148" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="D148" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="E148" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
     </row>
     <row r="149" spans="1:5">
@@ -3470,16 +3521,16 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>198300</v>
+        <v>902482</v>
       </c>
       <c r="C149" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="D149" t="s">
         <v>13</v>
       </c>
       <c r="E149" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
     </row>
     <row r="150" spans="1:5">
@@ -3487,16 +3538,16 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>198300</v>
+        <v>902482</v>
       </c>
       <c r="C150" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="D150" t="s">
-        <v>64</v>
+        <v>5</v>
       </c>
       <c r="E150" t="s">
-        <v>108</v>
+        <v>8</v>
       </c>
     </row>
     <row r="151" spans="1:5">
@@ -3504,16 +3555,16 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>198300</v>
+        <v>902482</v>
       </c>
       <c r="C151" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="D151" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="E151" t="s">
-        <v>38</v>
+        <v>8</v>
       </c>
     </row>
     <row r="152" spans="1:5">
@@ -3521,16 +3572,16 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>198300</v>
+        <v>68917</v>
       </c>
       <c r="C152" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D152" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="E152" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="153" spans="1:5">
@@ -3538,16 +3589,16 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>197</v>
+        <v>900631</v>
       </c>
       <c r="C153" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D153" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="E153" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="154" spans="1:5">
@@ -3555,16 +3606,16 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>197</v>
+        <v>900631</v>
       </c>
       <c r="C154" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D154" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="E154" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
     </row>
     <row r="155" spans="1:5">
@@ -3572,16 +3623,16 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>197</v>
+        <v>900631</v>
       </c>
       <c r="C155" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D155" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="E155" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
     </row>
     <row r="156" spans="1:5">
@@ -3589,16 +3640,16 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>197</v>
+        <v>903135</v>
       </c>
       <c r="C156" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D156" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="E156" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
     </row>
     <row r="157" spans="1:5">
@@ -3606,16 +3657,16 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>197</v>
+        <v>903135</v>
       </c>
       <c r="C157" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D157" t="s">
-        <v>64</v>
+        <v>7</v>
       </c>
       <c r="E157" t="s">
-        <v>108</v>
+        <v>46</v>
       </c>
     </row>
     <row r="158" spans="1:5">
@@ -3623,16 +3674,16 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>197</v>
+        <v>4999</v>
       </c>
       <c r="C158" t="s">
+        <v>125</v>
+      </c>
+      <c r="D158" t="s">
+        <v>33</v>
+      </c>
+      <c r="E158" t="s">
         <v>126</v>
-      </c>
-      <c r="D158" t="s">
-        <v>5</v>
-      </c>
-      <c r="E158" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="159" spans="1:5">
@@ -3640,16 +3691,16 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>197</v>
+        <v>4999</v>
       </c>
       <c r="C159" t="s">
+        <v>125</v>
+      </c>
+      <c r="D159" t="s">
+        <v>35</v>
+      </c>
+      <c r="E159" t="s">
         <v>126</v>
-      </c>
-      <c r="D159" t="s">
-        <v>7</v>
-      </c>
-      <c r="E159" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="160" spans="1:5">
@@ -3657,16 +3708,16 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>168239</v>
+        <v>4999</v>
       </c>
       <c r="C160" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D160" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="E160" t="s">
-        <v>128</v>
+        <v>69</v>
       </c>
     </row>
     <row r="161" spans="1:5">
@@ -3674,16 +3725,16 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>17760</v>
+        <v>900889</v>
       </c>
       <c r="C161" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D161" t="s">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="E161" t="s">
-        <v>45</v>
+        <v>106</v>
       </c>
     </row>
     <row r="162" spans="1:5">
@@ -3691,16 +3742,16 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>17760</v>
+        <v>68915</v>
       </c>
       <c r="C162" t="s">
+        <v>128</v>
+      </c>
+      <c r="D162" t="s">
+        <v>35</v>
+      </c>
+      <c r="E162" t="s">
         <v>129</v>
-      </c>
-      <c r="D162" t="s">
-        <v>7</v>
-      </c>
-      <c r="E162" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="163" spans="1:5">
@@ -3708,16 +3759,16 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>61610</v>
+        <v>68915</v>
       </c>
       <c r="C163" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D163" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="E163" t="s">
-        <v>22</v>
+        <v>59</v>
       </c>
     </row>
     <row r="164" spans="1:5">
@@ -3725,16 +3776,16 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>61610</v>
+        <v>68915</v>
       </c>
       <c r="C164" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D164" t="s">
         <v>5</v>
       </c>
       <c r="E164" t="s">
-        <v>45</v>
+        <v>130</v>
       </c>
     </row>
     <row r="165" spans="1:5">
@@ -3742,16 +3793,16 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>61610</v>
+        <v>198300</v>
       </c>
       <c r="C165" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D165" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E165" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
     </row>
     <row r="166" spans="1:5">
@@ -3759,16 +3810,16 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>61612</v>
+        <v>198300</v>
       </c>
       <c r="C166" t="s">
         <v>131</v>
       </c>
       <c r="D166" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="E166" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
     </row>
     <row r="167" spans="1:5">
@@ -3776,16 +3827,16 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>61612</v>
+        <v>198300</v>
       </c>
       <c r="C167" t="s">
         <v>131</v>
       </c>
       <c r="D167" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="E167" t="s">
-        <v>14</v>
+        <v>87</v>
       </c>
     </row>
     <row r="168" spans="1:5">
@@ -3793,16 +3844,16 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>61612</v>
+        <v>198300</v>
       </c>
       <c r="C168" t="s">
         <v>131</v>
       </c>
       <c r="D168" t="s">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="E168" t="s">
-        <v>132</v>
+        <v>43</v>
       </c>
     </row>
     <row r="169" spans="1:5">
@@ -3810,7 +3861,7 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>61612</v>
+        <v>198300</v>
       </c>
       <c r="C169" t="s">
         <v>131</v>
@@ -3819,7 +3870,7 @@
         <v>5</v>
       </c>
       <c r="E169" t="s">
-        <v>125</v>
+        <v>88</v>
       </c>
     </row>
     <row r="170" spans="1:5">
@@ -3827,16 +3878,16 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>145579</v>
+        <v>197</v>
       </c>
       <c r="C170" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D170" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="E170" t="s">
-        <v>106</v>
+        <v>42</v>
       </c>
     </row>
     <row r="171" spans="1:5">
@@ -3844,16 +3895,16 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>145579</v>
+        <v>197</v>
       </c>
       <c r="C171" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D171" t="s">
         <v>33</v>
       </c>
       <c r="E171" t="s">
-        <v>106</v>
+        <v>34</v>
       </c>
     </row>
     <row r="172" spans="1:5">
@@ -3861,16 +3912,16 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>220297</v>
+        <v>197</v>
       </c>
       <c r="C172" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D172" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="E172" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
     </row>
     <row r="173" spans="1:5">
@@ -3878,16 +3929,16 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>198293</v>
+        <v>197</v>
       </c>
       <c r="C173" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D173" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="E173" t="s">
-        <v>72</v>
+        <v>34</v>
       </c>
     </row>
     <row r="174" spans="1:5">
@@ -3895,16 +3946,16 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>198293</v>
+        <v>197</v>
       </c>
       <c r="C174" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D174" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="E174" t="s">
-        <v>72</v>
+        <v>87</v>
       </c>
     </row>
     <row r="175" spans="1:5">
@@ -3912,16 +3963,16 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>900881</v>
+        <v>197</v>
       </c>
       <c r="C175" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D175" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="E175" t="s">
-        <v>43</v>
+        <v>130</v>
       </c>
     </row>
     <row r="176" spans="1:5">
@@ -3929,16 +3980,16 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>900881</v>
+        <v>197</v>
       </c>
       <c r="C176" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D176" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E176" t="s">
-        <v>8</v>
+        <v>46</v>
       </c>
     </row>
     <row r="177" spans="1:5">
@@ -3946,16 +3997,16 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>900881</v>
+        <v>168239</v>
       </c>
       <c r="C177" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D177" t="s">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="E177" t="s">
-        <v>8</v>
+        <v>134</v>
       </c>
     </row>
     <row r="178" spans="1:5">
@@ -3963,16 +4014,16 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>5000</v>
+        <v>17760</v>
       </c>
       <c r="C178" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D178" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="E178" t="s">
-        <v>26</v>
+        <v>50</v>
       </c>
     </row>
     <row r="179" spans="1:5">
@@ -3980,16 +4031,16 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>5000</v>
+        <v>17760</v>
       </c>
       <c r="C179" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D179" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="E179" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
     </row>
     <row r="180" spans="1:5">
@@ -3997,16 +4048,16 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>5000</v>
+        <v>5002</v>
       </c>
       <c r="C180" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D180" t="s">
         <v>5</v>
       </c>
       <c r="E180" t="s">
-        <v>45</v>
+        <v>8</v>
       </c>
     </row>
     <row r="181" spans="1:5">
@@ -4014,16 +4065,16 @@
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>5000</v>
+        <v>5002</v>
       </c>
       <c r="C181" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D181" t="s">
         <v>7</v>
       </c>
       <c r="E181" t="s">
-        <v>82</v>
+        <v>8</v>
       </c>
     </row>
     <row r="182" spans="1:5">
@@ -4031,16 +4082,16 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>61609</v>
+        <v>61610</v>
       </c>
       <c r="C182" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D182" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="E182" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
     </row>
     <row r="183" spans="1:5">
@@ -4048,16 +4099,16 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>61609</v>
+        <v>61610</v>
       </c>
       <c r="C183" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D183" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E183" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="184" spans="1:5">
@@ -4065,16 +4116,16 @@
         <v>182</v>
       </c>
       <c r="B184" t="n">
-        <v>555577556</v>
+        <v>61610</v>
       </c>
       <c r="C184" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D184" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E184" t="s">
-        <v>140</v>
+        <v>40</v>
       </c>
     </row>
     <row r="185" spans="1:5">
@@ -4082,16 +4133,16 @@
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>26654</v>
+        <v>61612</v>
       </c>
       <c r="C185" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D185" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E185" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
     </row>
     <row r="186" spans="1:5">
@@ -4099,16 +4150,16 @@
         <v>184</v>
       </c>
       <c r="B186" t="n">
-        <v>900880</v>
+        <v>61612</v>
       </c>
       <c r="C186" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="D186" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="E186" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
     </row>
     <row r="187" spans="1:5">
@@ -4116,16 +4167,16 @@
         <v>185</v>
       </c>
       <c r="B187" t="n">
-        <v>67725</v>
+        <v>61612</v>
       </c>
       <c r="C187" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="D187" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="E187" t="s">
-        <v>38</v>
+        <v>139</v>
       </c>
     </row>
     <row r="188" spans="1:5">
@@ -4133,16 +4184,16 @@
         <v>186</v>
       </c>
       <c r="B188" t="n">
-        <v>902483</v>
+        <v>61612</v>
       </c>
       <c r="C188" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="D188" t="s">
-        <v>31</v>
+        <v>5</v>
       </c>
       <c r="E188" t="s">
-        <v>106</v>
+        <v>88</v>
       </c>
     </row>
     <row r="189" spans="1:5">
@@ -4150,16 +4201,16 @@
         <v>187</v>
       </c>
       <c r="B189" t="n">
-        <v>902483</v>
+        <v>220296</v>
       </c>
       <c r="C189" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="D189" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="E189" t="s">
-        <v>106</v>
+        <v>26</v>
       </c>
     </row>
     <row r="190" spans="1:5">
@@ -4167,16 +4218,16 @@
         <v>188</v>
       </c>
       <c r="B190" t="n">
-        <v>93291</v>
+        <v>145579</v>
       </c>
       <c r="C190" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="D190" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="E190" t="s">
-        <v>88</v>
+        <v>39</v>
       </c>
     </row>
     <row r="191" spans="1:5">
@@ -4184,16 +4235,16 @@
         <v>189</v>
       </c>
       <c r="B191" t="n">
-        <v>93291</v>
+        <v>145579</v>
       </c>
       <c r="C191" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="D191" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="E191" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
     </row>
     <row r="192" spans="1:5">
@@ -4201,16 +4252,16 @@
         <v>190</v>
       </c>
       <c r="B192" t="n">
-        <v>555577557</v>
+        <v>220297</v>
       </c>
       <c r="C192" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="D192" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="E192" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
     </row>
     <row r="193" spans="1:5">
@@ -4218,16 +4269,16 @@
         <v>191</v>
       </c>
       <c r="B193" t="n">
-        <v>9612</v>
+        <v>198293</v>
       </c>
       <c r="C193" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="D193" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E193" t="s">
-        <v>32</v>
+        <v>76</v>
       </c>
     </row>
     <row r="194" spans="1:5">
@@ -4235,16 +4286,16 @@
         <v>192</v>
       </c>
       <c r="B194" t="n">
-        <v>9612</v>
+        <v>198293</v>
       </c>
       <c r="C194" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="D194" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E194" t="s">
-        <v>32</v>
+        <v>76</v>
       </c>
     </row>
     <row r="195" spans="1:5">
@@ -4252,16 +4303,16 @@
         <v>193</v>
       </c>
       <c r="B195" t="n">
-        <v>9612</v>
+        <v>900881</v>
       </c>
       <c r="C195" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="D195" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="E195" t="s">
-        <v>119</v>
+        <v>48</v>
       </c>
     </row>
     <row r="196" spans="1:5">
@@ -4269,16 +4320,16 @@
         <v>194</v>
       </c>
       <c r="B196" t="n">
-        <v>9612</v>
+        <v>900881</v>
       </c>
       <c r="C196" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="D196" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="E196" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
     </row>
     <row r="197" spans="1:5">
@@ -4286,16 +4337,16 @@
         <v>195</v>
       </c>
       <c r="B197" t="n">
-        <v>168241</v>
+        <v>900881</v>
       </c>
       <c r="C197" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="D197" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E197" t="s">
-        <v>123</v>
+        <v>8</v>
       </c>
     </row>
     <row r="198" spans="1:5">
@@ -4303,16 +4354,16 @@
         <v>196</v>
       </c>
       <c r="B198" t="n">
-        <v>168241</v>
+        <v>5000</v>
       </c>
       <c r="C198" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D198" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="E198" t="s">
-        <v>149</v>
+        <v>26</v>
       </c>
     </row>
     <row r="199" spans="1:5">
@@ -4320,16 +4371,16 @@
         <v>197</v>
       </c>
       <c r="B199" t="n">
-        <v>902479</v>
+        <v>5000</v>
       </c>
       <c r="C199" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="D199" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="E199" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
     </row>
     <row r="200" spans="1:5">
@@ -4337,16 +4388,16 @@
         <v>198</v>
       </c>
       <c r="B200" t="n">
-        <v>902479</v>
+        <v>5000</v>
       </c>
       <c r="C200" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="D200" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="E200" t="s">
-        <v>14</v>
+        <v>50</v>
       </c>
     </row>
     <row r="201" spans="1:5">
@@ -4354,16 +4405,16 @@
         <v>199</v>
       </c>
       <c r="B201" t="n">
-        <v>903137</v>
+        <v>5000</v>
       </c>
       <c r="C201" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="D201" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="E201" t="s">
-        <v>32</v>
+        <v>90</v>
       </c>
     </row>
     <row r="202" spans="1:5">
@@ -4371,16 +4422,16 @@
         <v>200</v>
       </c>
       <c r="B202" t="n">
-        <v>903137</v>
+        <v>61609</v>
       </c>
       <c r="C202" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="D202" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="E202" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
     </row>
     <row r="203" spans="1:5">
@@ -4388,16 +4439,16 @@
         <v>201</v>
       </c>
       <c r="B203" t="n">
-        <v>903137</v>
+        <v>61609</v>
       </c>
       <c r="C203" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="D203" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="E203" t="s">
-        <v>152</v>
+        <v>40</v>
       </c>
     </row>
     <row r="204" spans="1:5">
@@ -4405,16 +4456,16 @@
         <v>202</v>
       </c>
       <c r="B204" t="n">
-        <v>198299</v>
+        <v>555577556</v>
       </c>
       <c r="C204" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="D204" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="E204" t="s">
-        <v>106</v>
+        <v>148</v>
       </c>
     </row>
     <row r="205" spans="1:5">
@@ -4422,16 +4473,16 @@
         <v>203</v>
       </c>
       <c r="B205" t="n">
-        <v>198297</v>
+        <v>26654</v>
       </c>
       <c r="C205" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="D205" t="s">
-        <v>5</v>
+        <v>37</v>
       </c>
       <c r="E205" t="s">
-        <v>10</v>
+        <v>49</v>
       </c>
     </row>
     <row r="206" spans="1:5">
@@ -4439,16 +4490,16 @@
         <v>204</v>
       </c>
       <c r="B206" t="n">
-        <v>198297</v>
+        <v>900880</v>
       </c>
       <c r="C206" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="D206" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="E206" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
     </row>
     <row r="207" spans="1:5">
@@ -4456,16 +4507,16 @@
         <v>205</v>
       </c>
       <c r="B207" t="n">
-        <v>198297</v>
+        <v>67725</v>
       </c>
       <c r="C207" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D207" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="E207" t="s">
-        <v>155</v>
+        <v>43</v>
       </c>
     </row>
     <row r="208" spans="1:5">
@@ -4473,16 +4524,16 @@
         <v>206</v>
       </c>
       <c r="B208" t="n">
-        <v>555577558</v>
+        <v>902483</v>
       </c>
       <c r="C208" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="D208" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E208" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
     </row>
     <row r="209" spans="1:5">
@@ -4490,16 +4541,16 @@
         <v>207</v>
       </c>
       <c r="B209" t="n">
-        <v>2005</v>
+        <v>902483</v>
       </c>
       <c r="C209" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="D209" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="E209" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
     </row>
     <row r="210" spans="1:5">
@@ -4507,16 +4558,16 @@
         <v>208</v>
       </c>
       <c r="B210" t="n">
-        <v>2005</v>
+        <v>93291</v>
       </c>
       <c r="C210" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D210" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="E210" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="211" spans="1:5">
@@ -4524,16 +4575,16 @@
         <v>209</v>
       </c>
       <c r="B211" t="n">
-        <v>145582</v>
+        <v>93291</v>
       </c>
       <c r="C211" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="D211" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="E211" t="s">
-        <v>119</v>
+        <v>83</v>
       </c>
     </row>
     <row r="212" spans="1:5">
@@ -4541,16 +4592,16 @@
         <v>210</v>
       </c>
       <c r="B212" t="n">
-        <v>145582</v>
+        <v>555577557</v>
       </c>
       <c r="C212" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D212" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E212" t="s">
-        <v>11</v>
+        <v>49</v>
       </c>
     </row>
     <row r="213" spans="1:5">
@@ -4558,16 +4609,16 @@
         <v>211</v>
       </c>
       <c r="B213" t="n">
-        <v>145582</v>
+        <v>9612</v>
       </c>
       <c r="C213" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="D213" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="E213" t="s">
-        <v>159</v>
+        <v>34</v>
       </c>
     </row>
     <row r="214" spans="1:5">
@@ -4575,16 +4626,16 @@
         <v>212</v>
       </c>
       <c r="B214" t="n">
-        <v>145582</v>
+        <v>9612</v>
       </c>
       <c r="C214" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="D214" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="E214" t="s">
-        <v>160</v>
+        <v>34</v>
       </c>
     </row>
     <row r="215" spans="1:5">
@@ -4592,16 +4643,16 @@
         <v>213</v>
       </c>
       <c r="B215" t="n">
-        <v>145582</v>
+        <v>9612</v>
       </c>
       <c r="C215" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="D215" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="E215" t="s">
-        <v>155</v>
+        <v>126</v>
       </c>
     </row>
     <row r="216" spans="1:5">
@@ -4609,16 +4660,16 @@
         <v>214</v>
       </c>
       <c r="B216" t="n">
-        <v>900628</v>
+        <v>9612</v>
       </c>
       <c r="C216" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="D216" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="E216" t="s">
-        <v>106</v>
+        <v>26</v>
       </c>
     </row>
     <row r="217" spans="1:5">
@@ -4626,16 +4677,16 @@
         <v>215</v>
       </c>
       <c r="B217" t="n">
-        <v>900628</v>
+        <v>16793</v>
       </c>
       <c r="C217" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="D217" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E217" t="s">
-        <v>128</v>
+        <v>39</v>
       </c>
     </row>
     <row r="218" spans="1:5">
@@ -4643,16 +4694,16 @@
         <v>216</v>
       </c>
       <c r="B218" t="n">
-        <v>900628</v>
+        <v>168241</v>
       </c>
       <c r="C218" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="D218" t="s">
         <v>5</v>
       </c>
       <c r="E218" t="s">
-        <v>93</v>
+        <v>130</v>
       </c>
     </row>
     <row r="219" spans="1:5">
@@ -4660,16 +4711,16 @@
         <v>217</v>
       </c>
       <c r="B219" t="n">
-        <v>900628</v>
+        <v>168241</v>
       </c>
       <c r="C219" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="D219" t="s">
         <v>7</v>
       </c>
       <c r="E219" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="220" spans="1:5">
@@ -4677,16 +4728,16 @@
         <v>218</v>
       </c>
       <c r="B220" t="n">
-        <v>900628</v>
+        <v>902479</v>
       </c>
       <c r="C220" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D220" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="E220" t="s">
-        <v>155</v>
+        <v>14</v>
       </c>
     </row>
     <row r="221" spans="1:5">
@@ -4694,16 +4745,16 @@
         <v>219</v>
       </c>
       <c r="B221" t="n">
-        <v>9623</v>
+        <v>902479</v>
       </c>
       <c r="C221" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D221" t="s">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="E221" t="s">
-        <v>159</v>
+        <v>14</v>
       </c>
     </row>
     <row r="222" spans="1:5">
@@ -4711,16 +4762,16 @@
         <v>220</v>
       </c>
       <c r="B222" t="n">
-        <v>9623</v>
+        <v>900008</v>
       </c>
       <c r="C222" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D222" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="E222" t="s">
-        <v>163</v>
+        <v>59</v>
       </c>
     </row>
     <row r="223" spans="1:5">
@@ -4728,16 +4779,16 @@
         <v>221</v>
       </c>
       <c r="B223" t="n">
-        <v>9623</v>
+        <v>900008</v>
       </c>
       <c r="C223" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D223" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="E223" t="s">
-        <v>155</v>
+        <v>59</v>
       </c>
     </row>
     <row r="224" spans="1:5">
@@ -4745,16 +4796,16 @@
         <v>222</v>
       </c>
       <c r="B224" t="n">
-        <v>2554</v>
+        <v>10744</v>
       </c>
       <c r="C224" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="D224" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="E224" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
     </row>
     <row r="225" spans="1:5">
@@ -4762,16 +4813,16 @@
         <v>223</v>
       </c>
       <c r="B225" t="n">
-        <v>2554</v>
+        <v>10744</v>
       </c>
       <c r="C225" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="D225" t="s">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="E225" t="s">
-        <v>125</v>
+        <v>30</v>
       </c>
     </row>
     <row r="226" spans="1:5">
@@ -4779,16 +4830,16 @@
         <v>224</v>
       </c>
       <c r="B226" t="n">
-        <v>2554</v>
+        <v>903137</v>
       </c>
       <c r="C226" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D226" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="E226" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="227" spans="1:5">
@@ -4796,16 +4847,16 @@
         <v>225</v>
       </c>
       <c r="B227" t="n">
-        <v>555577559</v>
+        <v>903137</v>
       </c>
       <c r="C227" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="D227" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E227" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="228" spans="1:5">
@@ -4813,16 +4864,16 @@
         <v>226</v>
       </c>
       <c r="B228" t="n">
-        <v>18337</v>
+        <v>903137</v>
       </c>
       <c r="C228" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="D228" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E228" t="s">
-        <v>44</v>
+        <v>163</v>
       </c>
     </row>
     <row r="229" spans="1:5">
@@ -4830,16 +4881,16 @@
         <v>227</v>
       </c>
       <c r="B229" t="n">
-        <v>555547990</v>
+        <v>198299</v>
       </c>
       <c r="C229" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="D229" t="s">
         <v>13</v>
       </c>
       <c r="E229" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
     </row>
     <row r="230" spans="1:5">
@@ -4847,16 +4898,16 @@
         <v>228</v>
       </c>
       <c r="B230" t="n">
-        <v>68916</v>
+        <v>198297</v>
       </c>
       <c r="C230" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="D230" t="s">
-        <v>31</v>
+        <v>5</v>
       </c>
       <c r="E230" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
     </row>
     <row r="231" spans="1:5">
@@ -4864,16 +4915,16 @@
         <v>229</v>
       </c>
       <c r="B231" t="n">
-        <v>68916</v>
+        <v>198297</v>
       </c>
       <c r="C231" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="D231" t="s">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="E231" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
     </row>
     <row r="232" spans="1:5">
@@ -4881,16 +4932,16 @@
         <v>230</v>
       </c>
       <c r="B232" t="n">
-        <v>900632</v>
+        <v>198297</v>
       </c>
       <c r="C232" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="D232" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="E232" t="s">
-        <v>59</v>
+        <v>166</v>
       </c>
     </row>
     <row r="233" spans="1:5">
@@ -4898,16 +4949,16 @@
         <v>231</v>
       </c>
       <c r="B233" t="n">
-        <v>900633</v>
+        <v>67726</v>
       </c>
       <c r="C233" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D233" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="E233" t="s">
-        <v>53</v>
+        <v>28</v>
       </c>
     </row>
     <row r="234" spans="1:5">
@@ -4915,16 +4966,16 @@
         <v>232</v>
       </c>
       <c r="B234" t="n">
-        <v>900633</v>
+        <v>67726</v>
       </c>
       <c r="C234" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D234" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="E234" t="s">
-        <v>171</v>
+        <v>30</v>
       </c>
     </row>
     <row r="235" spans="1:5">
@@ -4932,16 +4983,16 @@
         <v>233</v>
       </c>
       <c r="B235" t="n">
-        <v>900633</v>
+        <v>67730</v>
       </c>
       <c r="C235" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D235" t="s">
         <v>13</v>
       </c>
       <c r="E235" t="s">
-        <v>53</v>
+        <v>14</v>
       </c>
     </row>
     <row r="236" spans="1:5">
@@ -4949,16 +5000,16 @@
         <v>234</v>
       </c>
       <c r="B236" t="n">
-        <v>900633</v>
+        <v>555577558</v>
       </c>
       <c r="C236" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D236" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="E236" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
     </row>
     <row r="237" spans="1:5">
@@ -4966,16 +5017,16 @@
         <v>235</v>
       </c>
       <c r="B237" t="n">
-        <v>900633</v>
+        <v>2005</v>
       </c>
       <c r="C237" t="s">
         <v>170</v>
       </c>
       <c r="D237" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="E237" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
     </row>
     <row r="238" spans="1:5">
@@ -4983,16 +5034,16 @@
         <v>236</v>
       </c>
       <c r="B238" t="n">
-        <v>900633</v>
+        <v>2005</v>
       </c>
       <c r="C238" t="s">
         <v>170</v>
       </c>
       <c r="D238" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="E238" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
     </row>
     <row r="239" spans="1:5">
@@ -5000,16 +5051,16 @@
         <v>237</v>
       </c>
       <c r="B239" t="n">
-        <v>2571</v>
+        <v>191</v>
       </c>
       <c r="C239" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D239" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="E239" t="s">
-        <v>14</v>
+        <v>76</v>
       </c>
     </row>
     <row r="240" spans="1:5">
@@ -5017,16 +5068,16 @@
         <v>238</v>
       </c>
       <c r="B240" t="n">
-        <v>2571</v>
+        <v>2016</v>
       </c>
       <c r="C240" t="s">
         <v>172</v>
       </c>
       <c r="D240" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E240" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
     </row>
     <row r="241" spans="1:5">
@@ -5034,16 +5085,16 @@
         <v>239</v>
       </c>
       <c r="B241" t="n">
-        <v>2572</v>
+        <v>2016</v>
       </c>
       <c r="C241" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D241" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="E241" t="s">
-        <v>68</v>
+        <v>34</v>
       </c>
     </row>
     <row r="242" spans="1:5">
@@ -5051,16 +5102,16 @@
         <v>240</v>
       </c>
       <c r="B242" t="n">
-        <v>2572</v>
+        <v>2016</v>
       </c>
       <c r="C242" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D242" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="E242" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
     </row>
     <row r="243" spans="1:5">
@@ -5068,16 +5119,16 @@
         <v>241</v>
       </c>
       <c r="B243" t="n">
-        <v>2004</v>
+        <v>2016</v>
       </c>
       <c r="C243" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D243" t="s">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="E243" t="s">
-        <v>122</v>
+        <v>43</v>
       </c>
     </row>
     <row r="244" spans="1:5">
@@ -5085,16 +5136,16 @@
         <v>242</v>
       </c>
       <c r="B244" t="n">
-        <v>2004</v>
+        <v>145582</v>
       </c>
       <c r="C244" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D244" t="s">
-        <v>64</v>
+        <v>13</v>
       </c>
       <c r="E244" t="s">
-        <v>65</v>
+        <v>126</v>
       </c>
     </row>
     <row r="245" spans="1:5">
@@ -5102,16 +5153,16 @@
         <v>243</v>
       </c>
       <c r="B245" t="n">
-        <v>2004</v>
+        <v>145582</v>
       </c>
       <c r="C245" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D245" t="s">
-        <v>5</v>
+        <v>37</v>
       </c>
       <c r="E245" t="s">
-        <v>65</v>
+        <v>11</v>
       </c>
     </row>
     <row r="246" spans="1:5">
@@ -5119,16 +5170,16 @@
         <v>244</v>
       </c>
       <c r="B246" t="n">
-        <v>10746</v>
+        <v>145582</v>
       </c>
       <c r="C246" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D246" t="s">
-        <v>64</v>
+        <v>5</v>
       </c>
       <c r="E246" t="s">
-        <v>88</v>
+        <v>174</v>
       </c>
     </row>
     <row r="247" spans="1:5">
@@ -5136,16 +5187,16 @@
         <v>245</v>
       </c>
       <c r="B247" t="n">
-        <v>10746</v>
+        <v>145582</v>
       </c>
       <c r="C247" t="s">
+        <v>173</v>
+      </c>
+      <c r="D247" t="s">
+        <v>7</v>
+      </c>
+      <c r="E247" t="s">
         <v>175</v>
-      </c>
-      <c r="D247" t="s">
-        <v>35</v>
-      </c>
-      <c r="E247" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="248" spans="1:5">
@@ -5153,16 +5204,16 @@
         <v>246</v>
       </c>
       <c r="B248" t="n">
-        <v>10746</v>
+        <v>145582</v>
       </c>
       <c r="C248" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D248" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="E248" t="s">
-        <v>125</v>
+        <v>166</v>
       </c>
     </row>
     <row r="249" spans="1:5">
@@ -5170,16 +5221,16 @@
         <v>247</v>
       </c>
       <c r="B249" t="n">
-        <v>2013</v>
+        <v>900628</v>
       </c>
       <c r="C249" t="s">
         <v>176</v>
       </c>
       <c r="D249" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="E249" t="s">
-        <v>106</v>
+        <v>39</v>
       </c>
     </row>
     <row r="250" spans="1:5">
@@ -5187,16 +5238,16 @@
         <v>248</v>
       </c>
       <c r="B250" t="n">
-        <v>2013</v>
+        <v>900628</v>
       </c>
       <c r="C250" t="s">
         <v>176</v>
       </c>
       <c r="D250" t="s">
-        <v>5</v>
+        <v>37</v>
       </c>
       <c r="E250" t="s">
-        <v>177</v>
+        <v>134</v>
       </c>
     </row>
     <row r="251" spans="1:5">
@@ -5204,16 +5255,16 @@
         <v>249</v>
       </c>
       <c r="B251" t="n">
-        <v>2013</v>
+        <v>900628</v>
       </c>
       <c r="C251" t="s">
         <v>176</v>
       </c>
       <c r="D251" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E251" t="s">
-        <v>28</v>
+        <v>100</v>
       </c>
     </row>
     <row r="252" spans="1:5">
@@ -5221,16 +5272,16 @@
         <v>250</v>
       </c>
       <c r="B252" t="n">
-        <v>198294</v>
+        <v>900628</v>
       </c>
       <c r="C252" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D252" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="E252" t="s">
-        <v>53</v>
+        <v>175</v>
       </c>
     </row>
     <row r="253" spans="1:5">
@@ -5238,16 +5289,16 @@
         <v>251</v>
       </c>
       <c r="B253" t="n">
-        <v>12896</v>
+        <v>900628</v>
       </c>
       <c r="C253" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="D253" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E253" t="s">
-        <v>26</v>
+        <v>166</v>
       </c>
     </row>
     <row r="254" spans="1:5">
@@ -5255,16 +5306,16 @@
         <v>252</v>
       </c>
       <c r="B254" t="n">
-        <v>10902</v>
+        <v>9623</v>
       </c>
       <c r="C254" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D254" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="E254" t="s">
-        <v>37</v>
+        <v>174</v>
       </c>
     </row>
     <row r="255" spans="1:5">
@@ -5272,16 +5323,16 @@
         <v>253</v>
       </c>
       <c r="B255" t="n">
-        <v>10902</v>
+        <v>9623</v>
       </c>
       <c r="C255" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D255" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="E255" t="s">
-        <v>32</v>
+        <v>178</v>
       </c>
     </row>
     <row r="256" spans="1:5">
@@ -5289,16 +5340,16 @@
         <v>254</v>
       </c>
       <c r="B256" t="n">
-        <v>10902</v>
+        <v>9623</v>
       </c>
       <c r="C256" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D256" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="E256" t="s">
-        <v>32</v>
+        <v>166</v>
       </c>
     </row>
     <row r="257" spans="1:5">
@@ -5306,16 +5357,16 @@
         <v>255</v>
       </c>
       <c r="B257" t="n">
-        <v>10902</v>
+        <v>2554</v>
       </c>
       <c r="C257" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D257" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="E257" t="s">
-        <v>111</v>
+        <v>14</v>
       </c>
     </row>
     <row r="258" spans="1:5">
@@ -5323,16 +5374,16 @@
         <v>256</v>
       </c>
       <c r="B258" t="n">
-        <v>10902</v>
+        <v>2554</v>
       </c>
       <c r="C258" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D258" t="s">
-        <v>64</v>
+        <v>5</v>
       </c>
       <c r="E258" t="s">
-        <v>108</v>
+        <v>88</v>
       </c>
     </row>
     <row r="259" spans="1:5">
@@ -5340,16 +5391,16 @@
         <v>257</v>
       </c>
       <c r="B259" t="n">
-        <v>10902</v>
+        <v>2554</v>
       </c>
       <c r="C259" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D259" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="E259" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
     </row>
     <row r="260" spans="1:5">
@@ -5357,16 +5408,16 @@
         <v>258</v>
       </c>
       <c r="B260" t="n">
-        <v>2577</v>
+        <v>555577559</v>
       </c>
       <c r="C260" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D260" t="s">
-        <v>64</v>
+        <v>35</v>
       </c>
       <c r="E260" t="s">
-        <v>108</v>
+        <v>34</v>
       </c>
     </row>
     <row r="261" spans="1:5">
@@ -5374,16 +5425,16 @@
         <v>259</v>
       </c>
       <c r="B261" t="n">
-        <v>67733</v>
+        <v>18337</v>
       </c>
       <c r="C261" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D261" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="E261" t="s">
-        <v>26</v>
+        <v>49</v>
       </c>
     </row>
     <row r="262" spans="1:5">
@@ -5391,16 +5442,16 @@
         <v>260</v>
       </c>
       <c r="B262" t="n">
-        <v>198295</v>
+        <v>555547990</v>
       </c>
       <c r="C262" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D262" t="s">
-        <v>64</v>
+        <v>13</v>
       </c>
       <c r="E262" t="s">
-        <v>65</v>
+        <v>34</v>
       </c>
     </row>
     <row r="263" spans="1:5">
@@ -5408,16 +5459,16 @@
         <v>261</v>
       </c>
       <c r="B263" t="n">
-        <v>198291</v>
+        <v>68916</v>
       </c>
       <c r="C263" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D263" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="E263" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="264" spans="1:5">
@@ -5425,16 +5476,16 @@
         <v>262</v>
       </c>
       <c r="B264" t="n">
-        <v>198291</v>
+        <v>68916</v>
       </c>
       <c r="C264" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D264" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="E264" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="265" spans="1:5">
@@ -5442,16 +5493,16 @@
         <v>263</v>
       </c>
       <c r="B265" t="n">
-        <v>198291</v>
+        <v>900632</v>
       </c>
       <c r="C265" t="s">
         <v>184</v>
       </c>
       <c r="D265" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="E265" t="s">
-        <v>32</v>
+        <v>64</v>
       </c>
     </row>
     <row r="266" spans="1:5">
@@ -5459,16 +5510,16 @@
         <v>264</v>
       </c>
       <c r="B266" t="n">
-        <v>198291</v>
+        <v>900633</v>
       </c>
       <c r="C266" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D266" t="s">
-        <v>64</v>
+        <v>33</v>
       </c>
       <c r="E266" t="s">
-        <v>108</v>
+        <v>59</v>
       </c>
     </row>
     <row r="267" spans="1:5">
@@ -5476,16 +5527,16 @@
         <v>265</v>
       </c>
       <c r="B267" t="n">
-        <v>198291</v>
+        <v>900633</v>
       </c>
       <c r="C267" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D267" t="s">
         <v>35</v>
       </c>
       <c r="E267" t="s">
-        <v>38</v>
+        <v>186</v>
       </c>
     </row>
     <row r="268" spans="1:5">
@@ -5493,16 +5544,16 @@
         <v>266</v>
       </c>
       <c r="B268" t="n">
-        <v>93295</v>
+        <v>900633</v>
       </c>
       <c r="C268" t="s">
         <v>185</v>
       </c>
       <c r="D268" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="E268" t="s">
-        <v>6</v>
+        <v>59</v>
       </c>
     </row>
     <row r="269" spans="1:5">
@@ -5510,16 +5561,16 @@
         <v>267</v>
       </c>
       <c r="B269" t="n">
-        <v>93295</v>
+        <v>900633</v>
       </c>
       <c r="C269" t="s">
         <v>185</v>
       </c>
       <c r="D269" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="E269" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
     </row>
     <row r="270" spans="1:5">
@@ -5527,16 +5578,16 @@
         <v>268</v>
       </c>
       <c r="B270" t="n">
-        <v>67728</v>
+        <v>900633</v>
       </c>
       <c r="C270" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D270" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="E270" t="s">
-        <v>119</v>
+        <v>10</v>
       </c>
     </row>
     <row r="271" spans="1:5">
@@ -5544,16 +5595,16 @@
         <v>269</v>
       </c>
       <c r="B271" t="n">
-        <v>67728</v>
+        <v>900633</v>
       </c>
       <c r="C271" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D271" t="s">
-        <v>64</v>
+        <v>7</v>
       </c>
       <c r="E271" t="s">
-        <v>123</v>
+        <v>49</v>
       </c>
     </row>
     <row r="272" spans="1:5">
@@ -5561,16 +5612,16 @@
         <v>270</v>
       </c>
       <c r="B272" t="n">
-        <v>67728</v>
+        <v>2571</v>
       </c>
       <c r="C272" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D272" t="s">
         <v>35</v>
       </c>
       <c r="E272" t="s">
-        <v>149</v>
+        <v>14</v>
       </c>
     </row>
     <row r="273" spans="1:5">
@@ -5578,16 +5629,16 @@
         <v>271</v>
       </c>
       <c r="B273" t="n">
-        <v>67728</v>
+        <v>2571</v>
       </c>
       <c r="C273" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D273" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="E273" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
     </row>
     <row r="274" spans="1:5">
@@ -5595,16 +5646,16 @@
         <v>272</v>
       </c>
       <c r="B274" t="n">
-        <v>67728</v>
+        <v>2572</v>
       </c>
       <c r="C274" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="D274" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="E274" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
     </row>
     <row r="275" spans="1:5">
@@ -5612,16 +5663,16 @@
         <v>273</v>
       </c>
       <c r="B275" t="n">
-        <v>12207</v>
+        <v>2572</v>
       </c>
       <c r="C275" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D275" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E275" t="s">
-        <v>188</v>
+        <v>43</v>
       </c>
     </row>
     <row r="276" spans="1:5">
@@ -5629,16 +5680,16 @@
         <v>274</v>
       </c>
       <c r="B276" t="n">
-        <v>900629</v>
+        <v>2004</v>
       </c>
       <c r="C276" t="s">
         <v>189</v>
       </c>
       <c r="D276" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E276" t="s">
-        <v>190</v>
+        <v>129</v>
       </c>
     </row>
     <row r="277" spans="1:5">
@@ -5646,16 +5697,16 @@
         <v>275</v>
       </c>
       <c r="B277" t="n">
-        <v>900629</v>
+        <v>2004</v>
       </c>
       <c r="C277" t="s">
         <v>189</v>
       </c>
       <c r="D277" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E277" t="s">
-        <v>106</v>
+        <v>69</v>
       </c>
     </row>
     <row r="278" spans="1:5">
@@ -5663,16 +5714,16 @@
         <v>276</v>
       </c>
       <c r="B278" t="n">
-        <v>900629</v>
+        <v>2004</v>
       </c>
       <c r="C278" t="s">
         <v>189</v>
       </c>
       <c r="D278" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="E278" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="279" spans="1:5">
@@ -5680,16 +5731,16 @@
         <v>277</v>
       </c>
       <c r="B279" t="n">
-        <v>900629</v>
+        <v>10746</v>
       </c>
       <c r="C279" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D279" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="E279" t="s">
-        <v>191</v>
+        <v>30</v>
       </c>
     </row>
     <row r="280" spans="1:5">
@@ -5697,16 +5748,16 @@
         <v>278</v>
       </c>
       <c r="B280" t="n">
-        <v>900629</v>
+        <v>10746</v>
       </c>
       <c r="C280" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D280" t="s">
-        <v>64</v>
+        <v>37</v>
       </c>
       <c r="E280" t="s">
-        <v>88</v>
+        <v>49</v>
       </c>
     </row>
     <row r="281" spans="1:5">
@@ -5714,16 +5765,16 @@
         <v>279</v>
       </c>
       <c r="B281" t="n">
-        <v>900629</v>
+        <v>10746</v>
       </c>
       <c r="C281" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D281" t="s">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="E281" t="s">
-        <v>188</v>
+        <v>88</v>
       </c>
     </row>
     <row r="282" spans="1:5">
@@ -5731,16 +5782,16 @@
         <v>280</v>
       </c>
       <c r="B282" t="n">
-        <v>5001</v>
+        <v>2013</v>
       </c>
       <c r="C282" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D282" t="s">
         <v>13</v>
       </c>
       <c r="E282" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
     </row>
     <row r="283" spans="1:5">
@@ -5748,16 +5799,16 @@
         <v>281</v>
       </c>
       <c r="B283" t="n">
-        <v>5001</v>
+        <v>2013</v>
       </c>
       <c r="C283" t="s">
+        <v>191</v>
+      </c>
+      <c r="D283" t="s">
+        <v>5</v>
+      </c>
+      <c r="E283" t="s">
         <v>192</v>
-      </c>
-      <c r="D283" t="s">
-        <v>35</v>
-      </c>
-      <c r="E283" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="284" spans="1:5">
@@ -5765,16 +5816,16 @@
         <v>282</v>
       </c>
       <c r="B284" t="n">
-        <v>17759</v>
+        <v>2013</v>
       </c>
       <c r="C284" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D284" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="E284" t="s">
-        <v>26</v>
+        <v>83</v>
       </c>
     </row>
     <row r="285" spans="1:5">
@@ -5782,16 +5833,645 @@
         <v>283</v>
       </c>
       <c r="B285" t="n">
-        <v>17759</v>
+        <v>198294</v>
       </c>
       <c r="C285" t="s">
         <v>193</v>
       </c>
       <c r="D285" t="s">
+        <v>13</v>
+      </c>
+      <c r="E285" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="286" spans="1:5">
+      <c r="A286" s="1" t="n">
+        <v>284</v>
+      </c>
+      <c r="B286" t="n">
+        <v>12896</v>
+      </c>
+      <c r="C286" t="s">
+        <v>194</v>
+      </c>
+      <c r="D286" t="s">
+        <v>21</v>
+      </c>
+      <c r="E286" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="287" spans="1:5">
+      <c r="A287" s="1" t="n">
+        <v>285</v>
+      </c>
+      <c r="B287" t="n">
+        <v>10902</v>
+      </c>
+      <c r="C287" t="s">
+        <v>195</v>
+      </c>
+      <c r="D287" t="s">
+        <v>17</v>
+      </c>
+      <c r="E287" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="288" spans="1:5">
+      <c r="A288" s="1" t="n">
+        <v>286</v>
+      </c>
+      <c r="B288" t="n">
+        <v>10902</v>
+      </c>
+      <c r="C288" t="s">
+        <v>195</v>
+      </c>
+      <c r="D288" t="s">
+        <v>33</v>
+      </c>
+      <c r="E288" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="289" spans="1:5">
+      <c r="A289" s="1" t="n">
+        <v>287</v>
+      </c>
+      <c r="B289" t="n">
+        <v>10902</v>
+      </c>
+      <c r="C289" t="s">
+        <v>195</v>
+      </c>
+      <c r="D289" t="s">
+        <v>13</v>
+      </c>
+      <c r="E289" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="290" spans="1:5">
+      <c r="A290" s="1" t="n">
+        <v>288</v>
+      </c>
+      <c r="B290" t="n">
+        <v>10902</v>
+      </c>
+      <c r="C290" t="s">
+        <v>195</v>
+      </c>
+      <c r="D290" t="s">
+        <v>21</v>
+      </c>
+      <c r="E290" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="291" spans="1:5">
+      <c r="A291" s="1" t="n">
+        <v>289</v>
+      </c>
+      <c r="B291" t="n">
+        <v>10902</v>
+      </c>
+      <c r="C291" t="s">
+        <v>195</v>
+      </c>
+      <c r="D291" t="s">
+        <v>29</v>
+      </c>
+      <c r="E291" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="292" spans="1:5">
+      <c r="A292" s="1" t="n">
+        <v>290</v>
+      </c>
+      <c r="B292" t="n">
+        <v>10902</v>
+      </c>
+      <c r="C292" t="s">
+        <v>195</v>
+      </c>
+      <c r="D292" t="s">
+        <v>37</v>
+      </c>
+      <c r="E292" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="293" spans="1:5">
+      <c r="A293" s="1" t="n">
+        <v>291</v>
+      </c>
+      <c r="B293" t="n">
+        <v>2577</v>
+      </c>
+      <c r="C293" t="s">
+        <v>196</v>
+      </c>
+      <c r="D293" t="s">
+        <v>29</v>
+      </c>
+      <c r="E293" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="294" spans="1:5">
+      <c r="A294" s="1" t="n">
+        <v>292</v>
+      </c>
+      <c r="B294" t="n">
+        <v>67733</v>
+      </c>
+      <c r="C294" t="s">
+        <v>197</v>
+      </c>
+      <c r="D294" t="s">
+        <v>21</v>
+      </c>
+      <c r="E294" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="295" spans="1:5">
+      <c r="A295" s="1" t="n">
+        <v>293</v>
+      </c>
+      <c r="B295" t="n">
+        <v>198295</v>
+      </c>
+      <c r="C295" t="s">
+        <v>198</v>
+      </c>
+      <c r="D295" t="s">
+        <v>29</v>
+      </c>
+      <c r="E295" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="296" spans="1:5">
+      <c r="A296" s="1" t="n">
+        <v>294</v>
+      </c>
+      <c r="B296" t="n">
+        <v>198291</v>
+      </c>
+      <c r="C296" t="s">
+        <v>199</v>
+      </c>
+      <c r="D296" t="s">
+        <v>17</v>
+      </c>
+      <c r="E296" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="297" spans="1:5">
+      <c r="A297" s="1" t="n">
+        <v>295</v>
+      </c>
+      <c r="B297" t="n">
+        <v>198291</v>
+      </c>
+      <c r="C297" t="s">
+        <v>199</v>
+      </c>
+      <c r="D297" t="s">
+        <v>33</v>
+      </c>
+      <c r="E297" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="298" spans="1:5">
+      <c r="A298" s="1" t="n">
+        <v>296</v>
+      </c>
+      <c r="B298" t="n">
+        <v>198291</v>
+      </c>
+      <c r="C298" t="s">
+        <v>199</v>
+      </c>
+      <c r="D298" t="s">
+        <v>35</v>
+      </c>
+      <c r="E298" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="299" spans="1:5">
+      <c r="A299" s="1" t="n">
+        <v>297</v>
+      </c>
+      <c r="B299" t="n">
+        <v>198291</v>
+      </c>
+      <c r="C299" t="s">
+        <v>199</v>
+      </c>
+      <c r="D299" t="s">
+        <v>29</v>
+      </c>
+      <c r="E299" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="300" spans="1:5">
+      <c r="A300" s="1" t="n">
+        <v>298</v>
+      </c>
+      <c r="B300" t="n">
+        <v>198291</v>
+      </c>
+      <c r="C300" t="s">
+        <v>199</v>
+      </c>
+      <c r="D300" t="s">
+        <v>37</v>
+      </c>
+      <c r="E300" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="301" spans="1:5">
+      <c r="A301" s="1" t="n">
+        <v>299</v>
+      </c>
+      <c r="B301" t="n">
+        <v>93295</v>
+      </c>
+      <c r="C301" t="s">
+        <v>200</v>
+      </c>
+      <c r="D301" t="s">
+        <v>5</v>
+      </c>
+      <c r="E301" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="302" spans="1:5">
+      <c r="A302" s="1" t="n">
+        <v>300</v>
+      </c>
+      <c r="B302" t="n">
+        <v>93295</v>
+      </c>
+      <c r="C302" t="s">
+        <v>200</v>
+      </c>
+      <c r="D302" t="s">
         <v>7</v>
       </c>
-      <c r="E285" t="s">
-        <v>44</v>
+      <c r="E302" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="303" spans="1:5">
+      <c r="A303" s="1" t="n">
+        <v>301</v>
+      </c>
+      <c r="B303" t="n">
+        <v>67728</v>
+      </c>
+      <c r="C303" t="s">
+        <v>201</v>
+      </c>
+      <c r="D303" t="s">
+        <v>13</v>
+      </c>
+      <c r="E303" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="304" spans="1:5">
+      <c r="A304" s="1" t="n">
+        <v>302</v>
+      </c>
+      <c r="B304" t="n">
+        <v>67728</v>
+      </c>
+      <c r="C304" t="s">
+        <v>201</v>
+      </c>
+      <c r="D304" t="s">
+        <v>29</v>
+      </c>
+      <c r="E304" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="305" spans="1:5">
+      <c r="A305" s="1" t="n">
+        <v>303</v>
+      </c>
+      <c r="B305" t="n">
+        <v>67728</v>
+      </c>
+      <c r="C305" t="s">
+        <v>201</v>
+      </c>
+      <c r="D305" t="s">
+        <v>37</v>
+      </c>
+      <c r="E305" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="306" spans="1:5">
+      <c r="A306" s="1" t="n">
+        <v>304</v>
+      </c>
+      <c r="B306" t="n">
+        <v>67728</v>
+      </c>
+      <c r="C306" t="s">
+        <v>201</v>
+      </c>
+      <c r="D306" t="s">
+        <v>5</v>
+      </c>
+      <c r="E306" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="307" spans="1:5">
+      <c r="A307" s="1" t="n">
+        <v>305</v>
+      </c>
+      <c r="B307" t="n">
+        <v>67728</v>
+      </c>
+      <c r="C307" t="s">
+        <v>201</v>
+      </c>
+      <c r="D307" t="s">
+        <v>7</v>
+      </c>
+      <c r="E307" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="308" spans="1:5">
+      <c r="A308" s="1" t="n">
+        <v>306</v>
+      </c>
+      <c r="B308" t="n">
+        <v>12207</v>
+      </c>
+      <c r="C308" t="s">
+        <v>202</v>
+      </c>
+      <c r="D308" t="s">
+        <v>37</v>
+      </c>
+      <c r="E308" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="309" spans="1:5">
+      <c r="A309" s="1" t="n">
+        <v>307</v>
+      </c>
+      <c r="B309" t="n">
+        <v>900629</v>
+      </c>
+      <c r="C309" t="s">
+        <v>204</v>
+      </c>
+      <c r="D309" t="s">
+        <v>17</v>
+      </c>
+      <c r="E309" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="310" spans="1:5">
+      <c r="A310" s="1" t="n">
+        <v>308</v>
+      </c>
+      <c r="B310" t="n">
+        <v>900629</v>
+      </c>
+      <c r="C310" t="s">
+        <v>204</v>
+      </c>
+      <c r="D310" t="s">
+        <v>33</v>
+      </c>
+      <c r="E310" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="311" spans="1:5">
+      <c r="A311" s="1" t="n">
+        <v>309</v>
+      </c>
+      <c r="B311" t="n">
+        <v>900629</v>
+      </c>
+      <c r="C311" t="s">
+        <v>204</v>
+      </c>
+      <c r="D311" t="s">
+        <v>35</v>
+      </c>
+      <c r="E311" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="312" spans="1:5">
+      <c r="A312" s="1" t="n">
+        <v>310</v>
+      </c>
+      <c r="B312" t="n">
+        <v>900629</v>
+      </c>
+      <c r="C312" t="s">
+        <v>204</v>
+      </c>
+      <c r="D312" t="s">
+        <v>21</v>
+      </c>
+      <c r="E312" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="313" spans="1:5">
+      <c r="A313" s="1" t="n">
+        <v>311</v>
+      </c>
+      <c r="B313" t="n">
+        <v>900629</v>
+      </c>
+      <c r="C313" t="s">
+        <v>204</v>
+      </c>
+      <c r="D313" t="s">
+        <v>29</v>
+      </c>
+      <c r="E313" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="314" spans="1:5">
+      <c r="A314" s="1" t="n">
+        <v>312</v>
+      </c>
+      <c r="B314" t="n">
+        <v>900629</v>
+      </c>
+      <c r="C314" t="s">
+        <v>204</v>
+      </c>
+      <c r="D314" t="s">
+        <v>37</v>
+      </c>
+      <c r="E314" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="315" spans="1:5">
+      <c r="A315" s="1" t="n">
+        <v>313</v>
+      </c>
+      <c r="B315" t="n">
+        <v>555556047</v>
+      </c>
+      <c r="C315" t="s">
+        <v>206</v>
+      </c>
+      <c r="D315" t="s">
+        <v>13</v>
+      </c>
+      <c r="E315" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="316" spans="1:5">
+      <c r="A316" s="1" t="n">
+        <v>314</v>
+      </c>
+      <c r="B316" t="n">
+        <v>555556047</v>
+      </c>
+      <c r="C316" t="s">
+        <v>206</v>
+      </c>
+      <c r="D316" t="s">
+        <v>5</v>
+      </c>
+      <c r="E316" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="317" spans="1:5">
+      <c r="A317" s="1" t="n">
+        <v>315</v>
+      </c>
+      <c r="B317" t="n">
+        <v>555556047</v>
+      </c>
+      <c r="C317" t="s">
+        <v>206</v>
+      </c>
+      <c r="D317" t="s">
+        <v>7</v>
+      </c>
+      <c r="E317" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="318" spans="1:5">
+      <c r="A318" s="1" t="n">
+        <v>316</v>
+      </c>
+      <c r="B318" t="n">
+        <v>5001</v>
+      </c>
+      <c r="C318" t="s">
+        <v>208</v>
+      </c>
+      <c r="D318" t="s">
+        <v>13</v>
+      </c>
+      <c r="E318" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="319" spans="1:5">
+      <c r="A319" s="1" t="n">
+        <v>317</v>
+      </c>
+      <c r="B319" t="n">
+        <v>5001</v>
+      </c>
+      <c r="C319" t="s">
+        <v>208</v>
+      </c>
+      <c r="D319" t="s">
+        <v>37</v>
+      </c>
+      <c r="E319" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="320" spans="1:5">
+      <c r="A320" s="1" t="n">
+        <v>318</v>
+      </c>
+      <c r="B320" t="n">
+        <v>198296</v>
+      </c>
+      <c r="C320" t="s">
+        <v>209</v>
+      </c>
+      <c r="D320" t="s">
+        <v>21</v>
+      </c>
+      <c r="E320" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="321" spans="1:5">
+      <c r="A321" s="1" t="n">
+        <v>319</v>
+      </c>
+      <c r="B321" t="n">
+        <v>17759</v>
+      </c>
+      <c r="C321" t="s">
+        <v>210</v>
+      </c>
+      <c r="D321" t="s">
+        <v>21</v>
+      </c>
+      <c r="E321" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="322" spans="1:5">
+      <c r="A322" s="1" t="n">
+        <v>320</v>
+      </c>
+      <c r="B322" t="n">
+        <v>17759</v>
+      </c>
+      <c r="C322" t="s">
+        <v>210</v>
+      </c>
+      <c r="D322" t="s">
+        <v>7</v>
+      </c>
+      <c r="E322" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>

--- a/output_changed_stats.xlsx
+++ b/output_changed_stats.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="212">
   <si>
     <t>wdpaid</t>
   </si>
@@ -190,6 +190,15 @@
     <t>Göreme National Park and the Rock Sites of Cappadocia</t>
   </si>
   <si>
+    <t>Joggins Fossil Cliffs</t>
+  </si>
+  <si>
+    <t>Good -&gt; Data Deficient</t>
+  </si>
+  <si>
+    <t>Stable -&gt; Data Deficient</t>
+  </si>
+  <si>
     <t>Jeju Volcanic Island and Lava Tubes</t>
   </si>
   <si>
@@ -295,9 +304,6 @@
     <t>Phoenix Islands Protected Area</t>
   </si>
   <si>
-    <t>Good -&gt; Data Deficient</t>
-  </si>
-  <si>
     <t>Improving -&gt; Data Deficient</t>
   </si>
   <si>
@@ -488,9 +494,6 @@
   </si>
   <si>
     <t>Golden Mountains of Altai</t>
-  </si>
-  <si>
-    <t>Stable -&gt; Data Deficient</t>
   </si>
   <si>
     <t>Coiba National Park and its Special Zone of Marine Protection</t>
@@ -995,7 +998,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E322"/>
+  <dimension ref="A1:E324"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1770,13 +1773,13 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>903130</v>
+        <v>903133</v>
       </c>
       <c r="C46" t="s">
         <v>58</v>
       </c>
       <c r="D46" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="E46" t="s">
         <v>59</v>
@@ -1787,13 +1790,13 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>903130</v>
+        <v>903133</v>
       </c>
       <c r="C47" t="s">
         <v>58</v>
       </c>
       <c r="D47" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E47" t="s">
         <v>60</v>
@@ -1807,13 +1810,13 @@
         <v>903130</v>
       </c>
       <c r="C48" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="D48" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="E48" t="s">
-        <v>40</v>
+        <v>62</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1821,16 +1824,16 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>145586</v>
+        <v>903130</v>
       </c>
       <c r="C49" t="s">
         <v>61</v>
       </c>
       <c r="D49" t="s">
-        <v>37</v>
+        <v>5</v>
       </c>
       <c r="E49" t="s">
-        <v>11</v>
+        <v>63</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1838,16 +1841,16 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>4327</v>
+        <v>903130</v>
       </c>
       <c r="C50" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D50" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="E50" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1855,16 +1858,16 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>2570</v>
+        <v>145586</v>
       </c>
       <c r="C51" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D51" t="s">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="E51" t="s">
-        <v>64</v>
+        <v>11</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1872,16 +1875,16 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>2570</v>
+        <v>4327</v>
       </c>
       <c r="C52" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D52" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="E52" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1889,16 +1892,16 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>902899</v>
+        <v>2570</v>
       </c>
       <c r="C53" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D53" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="E53" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -1906,16 +1909,16 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>903062</v>
+        <v>2570</v>
       </c>
       <c r="C54" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D54" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E54" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -1923,7 +1926,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>555542337</v>
+        <v>902899</v>
       </c>
       <c r="C55" t="s">
         <v>68</v>
@@ -1932,7 +1935,7 @@
         <v>21</v>
       </c>
       <c r="E55" t="s">
-        <v>26</v>
+        <v>69</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -1940,16 +1943,16 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>555542337</v>
+        <v>903062</v>
       </c>
       <c r="C56" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D56" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="E56" t="s">
-        <v>69</v>
+        <v>24</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -1960,13 +1963,13 @@
         <v>555542337</v>
       </c>
       <c r="C57" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="D57" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="E57" t="s">
-        <v>49</v>
+        <v>26</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -1977,13 +1980,13 @@
         <v>555542337</v>
       </c>
       <c r="C58" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="D58" t="s">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="E58" t="s">
-        <v>49</v>
+        <v>72</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -1991,16 +1994,16 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>555512003</v>
+        <v>555542337</v>
       </c>
       <c r="C59" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D59" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="E59" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -2008,16 +2011,16 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>900879</v>
+        <v>555542337</v>
       </c>
       <c r="C60" t="s">
         <v>71</v>
       </c>
       <c r="D60" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="E60" t="s">
-        <v>72</v>
+        <v>49</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -2025,16 +2028,16 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>555542336</v>
+        <v>555512003</v>
       </c>
       <c r="C61" t="s">
         <v>73</v>
       </c>
       <c r="D61" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="E61" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -2042,16 +2045,16 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>555542336</v>
+        <v>900879</v>
       </c>
       <c r="C62" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D62" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="E62" t="s">
-        <v>6</v>
+        <v>75</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -2062,13 +2065,13 @@
         <v>555542336</v>
       </c>
       <c r="C63" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="D63" t="s">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="E63" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -2076,16 +2079,16 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>5005</v>
+        <v>555542336</v>
       </c>
       <c r="C64" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D64" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="E64" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -2093,16 +2096,16 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>5005</v>
+        <v>555542336</v>
       </c>
       <c r="C65" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D65" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E65" t="s">
-        <v>8</v>
+        <v>40</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -2113,13 +2116,13 @@
         <v>5005</v>
       </c>
       <c r="C66" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="D66" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="E66" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -2127,16 +2130,16 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>9545</v>
+        <v>5005</v>
       </c>
       <c r="C67" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D67" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="E67" t="s">
-        <v>45</v>
+        <v>8</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -2144,16 +2147,16 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>9545</v>
+        <v>5005</v>
       </c>
       <c r="C68" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D68" t="s">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="E68" t="s">
-        <v>76</v>
+        <v>8</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -2164,13 +2167,13 @@
         <v>9545</v>
       </c>
       <c r="C69" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="D69" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="E69" t="s">
-        <v>76</v>
+        <v>45</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -2181,13 +2184,13 @@
         <v>9545</v>
       </c>
       <c r="C70" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="D70" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="E70" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -2198,13 +2201,13 @@
         <v>9545</v>
       </c>
       <c r="C71" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="D71" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="E71" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -2215,13 +2218,13 @@
         <v>9545</v>
       </c>
       <c r="C72" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="D72" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="E72" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -2229,16 +2232,16 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>2574</v>
+        <v>9545</v>
       </c>
       <c r="C73" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D73" t="s">
         <v>21</v>
       </c>
       <c r="E73" t="s">
-        <v>22</v>
+        <v>81</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -2246,16 +2249,16 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>903138</v>
+        <v>9545</v>
       </c>
       <c r="C74" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D74" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="E74" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -2263,16 +2266,16 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>903138</v>
+        <v>2574</v>
       </c>
       <c r="C75" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D75" t="s">
         <v>21</v>
       </c>
       <c r="E75" t="s">
-        <v>48</v>
+        <v>22</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -2283,13 +2286,13 @@
         <v>903138</v>
       </c>
       <c r="C76" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="D76" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="E76" t="s">
-        <v>50</v>
+        <v>79</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -2300,13 +2303,13 @@
         <v>903138</v>
       </c>
       <c r="C77" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="D77" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="E77" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -2314,16 +2317,16 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>2006</v>
+        <v>903138</v>
       </c>
       <c r="C78" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D78" t="s">
-        <v>37</v>
+        <v>5</v>
       </c>
       <c r="E78" t="s">
-        <v>83</v>
+        <v>50</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -2331,16 +2334,16 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>9628</v>
+        <v>903138</v>
       </c>
       <c r="C79" t="s">
         <v>84</v>
       </c>
       <c r="D79" t="s">
-        <v>37</v>
+        <v>7</v>
       </c>
       <c r="E79" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -2348,16 +2351,16 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>2017</v>
+        <v>2006</v>
       </c>
       <c r="C80" t="s">
         <v>85</v>
       </c>
       <c r="D80" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E80" t="s">
-        <v>14</v>
+        <v>86</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -2365,16 +2368,16 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>900883</v>
+        <v>9628</v>
       </c>
       <c r="C81" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D81" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="E81" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -2382,16 +2385,16 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>900883</v>
+        <v>2017</v>
       </c>
       <c r="C82" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D82" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E82" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -2402,13 +2405,13 @@
         <v>900883</v>
       </c>
       <c r="C83" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="D83" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="E83" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -2419,10 +2422,10 @@
         <v>900883</v>
       </c>
       <c r="C84" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="D84" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="E84" t="s">
         <v>34</v>
@@ -2436,13 +2439,13 @@
         <v>900883</v>
       </c>
       <c r="C85" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="D85" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="E85" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -2453,13 +2456,13 @@
         <v>900883</v>
       </c>
       <c r="C86" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="D86" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="E86" t="s">
-        <v>87</v>
+        <v>34</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -2470,13 +2473,13 @@
         <v>900883</v>
       </c>
       <c r="C87" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="D87" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="E87" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -2487,13 +2490,13 @@
         <v>900883</v>
       </c>
       <c r="C88" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="D88" t="s">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="E88" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -2501,16 +2504,16 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>2578</v>
+        <v>900883</v>
       </c>
       <c r="C89" t="s">
         <v>89</v>
       </c>
       <c r="D89" t="s">
-        <v>5</v>
+        <v>37</v>
       </c>
       <c r="E89" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -2518,16 +2521,16 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>2578</v>
+        <v>900883</v>
       </c>
       <c r="C90" t="s">
         <v>89</v>
       </c>
       <c r="D90" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E90" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -2535,16 +2538,16 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>902480</v>
+        <v>2578</v>
       </c>
       <c r="C91" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D91" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="E91" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -2552,16 +2555,16 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>902480</v>
+        <v>2578</v>
       </c>
       <c r="C92" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D92" t="s">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="E92" t="s">
-        <v>76</v>
+        <v>93</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -2572,13 +2575,13 @@
         <v>902480</v>
       </c>
       <c r="C93" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="D93" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="E93" t="s">
-        <v>76</v>
+        <v>45</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -2589,13 +2592,13 @@
         <v>902480</v>
       </c>
       <c r="C94" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="D94" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="E94" t="s">
-        <v>20</v>
+        <v>79</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -2606,13 +2609,13 @@
         <v>902480</v>
       </c>
       <c r="C95" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="D95" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="E95" t="s">
-        <v>22</v>
+        <v>79</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -2623,13 +2626,13 @@
         <v>902480</v>
       </c>
       <c r="C96" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="D96" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="E96" t="s">
-        <v>79</v>
+        <v>20</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -2640,13 +2643,13 @@
         <v>902480</v>
       </c>
       <c r="C97" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="D97" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="E97" t="s">
-        <v>49</v>
+        <v>22</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -2654,16 +2657,16 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>555512002</v>
+        <v>902480</v>
       </c>
       <c r="C98" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D98" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="E98" t="s">
-        <v>34</v>
+        <v>82</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -2671,16 +2674,16 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>555512002</v>
+        <v>902480</v>
       </c>
       <c r="C99" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D99" t="s">
-        <v>5</v>
+        <v>37</v>
       </c>
       <c r="E99" t="s">
-        <v>93</v>
+        <v>49</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -2691,13 +2694,13 @@
         <v>555512002</v>
       </c>
       <c r="C100" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="D100" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="E100" t="s">
-        <v>94</v>
+        <v>34</v>
       </c>
     </row>
     <row r="101" spans="1:5">
@@ -2705,7 +2708,7 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>2015</v>
+        <v>555512002</v>
       </c>
       <c r="C101" t="s">
         <v>95</v>
@@ -2714,7 +2717,7 @@
         <v>5</v>
       </c>
       <c r="E101" t="s">
-        <v>30</v>
+        <v>59</v>
       </c>
     </row>
     <row r="102" spans="1:5">
@@ -2722,7 +2725,7 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>2015</v>
+        <v>555512002</v>
       </c>
       <c r="C102" t="s">
         <v>95</v>
@@ -2731,7 +2734,7 @@
         <v>7</v>
       </c>
       <c r="E102" t="s">
-        <v>49</v>
+        <v>96</v>
       </c>
     </row>
     <row r="103" spans="1:5">
@@ -2739,16 +2742,16 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>555512006</v>
+        <v>2015</v>
       </c>
       <c r="C103" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D103" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="E103" t="s">
-        <v>97</v>
+        <v>30</v>
       </c>
     </row>
     <row r="104" spans="1:5">
@@ -2756,16 +2759,16 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>555512006</v>
+        <v>2015</v>
       </c>
       <c r="C104" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D104" t="s">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="E104" t="s">
-        <v>98</v>
+        <v>49</v>
       </c>
     </row>
     <row r="105" spans="1:5">
@@ -2776,13 +2779,13 @@
         <v>555512006</v>
       </c>
       <c r="C105" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D105" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="E105" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="106" spans="1:5">
@@ -2793,13 +2796,13 @@
         <v>555512006</v>
       </c>
       <c r="C106" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D106" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="E106" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="107" spans="1:5">
@@ -2810,13 +2813,13 @@
         <v>555512006</v>
       </c>
       <c r="C107" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D107" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="E107" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="108" spans="1:5">
@@ -2827,10 +2830,10 @@
         <v>555512006</v>
       </c>
       <c r="C108" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D108" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="E108" t="s">
         <v>100</v>
@@ -2844,10 +2847,10 @@
         <v>555512006</v>
       </c>
       <c r="C109" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D109" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="E109" t="s">
         <v>101</v>
@@ -2861,13 +2864,13 @@
         <v>555512006</v>
       </c>
       <c r="C110" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D110" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="E110" t="s">
-        <v>24</v>
+        <v>102</v>
       </c>
     </row>
     <row r="111" spans="1:5">
@@ -2875,16 +2878,16 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>903139</v>
+        <v>555512006</v>
       </c>
       <c r="C111" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D111" t="s">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="E111" t="s">
-        <v>59</v>
+        <v>103</v>
       </c>
     </row>
     <row r="112" spans="1:5">
@@ -2892,16 +2895,16 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>903139</v>
+        <v>555512006</v>
       </c>
       <c r="C112" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D112" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E112" t="s">
-        <v>72</v>
+        <v>24</v>
       </c>
     </row>
     <row r="113" spans="1:5">
@@ -2912,13 +2915,13 @@
         <v>903139</v>
       </c>
       <c r="C113" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D113" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="E113" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="114" spans="1:5">
@@ -2929,13 +2932,13 @@
         <v>903139</v>
       </c>
       <c r="C114" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D114" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="E114" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
     </row>
     <row r="115" spans="1:5">
@@ -2943,16 +2946,16 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>478641</v>
+        <v>903139</v>
       </c>
       <c r="C115" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D115" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="E115" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="116" spans="1:5">
@@ -2960,16 +2963,16 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>478641</v>
+        <v>903139</v>
       </c>
       <c r="C116" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D116" t="s">
         <v>7</v>
       </c>
       <c r="E116" t="s">
-        <v>49</v>
+        <v>93</v>
       </c>
     </row>
     <row r="117" spans="1:5">
@@ -2977,16 +2980,16 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>12209</v>
+        <v>478641</v>
       </c>
       <c r="C117" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D117" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E117" t="s">
-        <v>105</v>
+        <v>69</v>
       </c>
     </row>
     <row r="118" spans="1:5">
@@ -2994,16 +2997,16 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>12209</v>
+        <v>478641</v>
       </c>
       <c r="C118" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D118" t="s">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="E118" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
     </row>
     <row r="119" spans="1:5">
@@ -3014,13 +3017,13 @@
         <v>12209</v>
       </c>
       <c r="C119" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D119" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="E119" t="s">
-        <v>34</v>
+        <v>107</v>
       </c>
     </row>
     <row r="120" spans="1:5">
@@ -3031,13 +3034,13 @@
         <v>12209</v>
       </c>
       <c r="C120" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D120" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="E120" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
     </row>
     <row r="121" spans="1:5">
@@ -3048,13 +3051,13 @@
         <v>12209</v>
       </c>
       <c r="C121" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D121" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="E121" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
     </row>
     <row r="122" spans="1:5">
@@ -3065,13 +3068,13 @@
         <v>12209</v>
       </c>
       <c r="C122" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D122" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="E122" t="s">
-        <v>106</v>
+        <v>14</v>
       </c>
     </row>
     <row r="123" spans="1:5">
@@ -3082,13 +3085,13 @@
         <v>12209</v>
       </c>
       <c r="C123" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D123" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="E123" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
     </row>
     <row r="124" spans="1:5">
@@ -3096,16 +3099,16 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>555547988</v>
+        <v>12209</v>
       </c>
       <c r="C124" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D124" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="E124" t="s">
-        <v>49</v>
+        <v>108</v>
       </c>
     </row>
     <row r="125" spans="1:5">
@@ -3113,16 +3116,16 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>10901</v>
+        <v>12209</v>
       </c>
       <c r="C125" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D125" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="E125" t="s">
-        <v>76</v>
+        <v>11</v>
       </c>
     </row>
     <row r="126" spans="1:5">
@@ -3130,16 +3133,16 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>10901</v>
+        <v>555547988</v>
       </c>
       <c r="C126" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D126" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E126" t="s">
-        <v>76</v>
+        <v>49</v>
       </c>
     </row>
     <row r="127" spans="1:5">
@@ -3150,13 +3153,13 @@
         <v>10901</v>
       </c>
       <c r="C127" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D127" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="E127" t="s">
-        <v>34</v>
+        <v>79</v>
       </c>
     </row>
     <row r="128" spans="1:5">
@@ -3164,16 +3167,16 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>555547991</v>
+        <v>10901</v>
       </c>
       <c r="C128" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D128" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E128" t="s">
-        <v>59</v>
+        <v>79</v>
       </c>
     </row>
     <row r="129" spans="1:5">
@@ -3181,16 +3184,16 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>555547991</v>
+        <v>10901</v>
       </c>
       <c r="C129" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D129" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="E129" t="s">
-        <v>59</v>
+        <v>34</v>
       </c>
     </row>
     <row r="130" spans="1:5">
@@ -3198,16 +3201,16 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>220291</v>
+        <v>555547991</v>
       </c>
       <c r="C130" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D130" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="E130" t="s">
-        <v>18</v>
+        <v>62</v>
       </c>
     </row>
     <row r="131" spans="1:5">
@@ -3215,16 +3218,16 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>220291</v>
+        <v>555547991</v>
       </c>
       <c r="C131" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D131" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="E131" t="s">
-        <v>111</v>
+        <v>62</v>
       </c>
     </row>
     <row r="132" spans="1:5">
@@ -3235,13 +3238,13 @@
         <v>220291</v>
       </c>
       <c r="C132" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D132" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E132" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="133" spans="1:5">
@@ -3252,13 +3255,13 @@
         <v>220291</v>
       </c>
       <c r="C133" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D133" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="E133" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="134" spans="1:5">
@@ -3266,16 +3269,16 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>9632</v>
+        <v>220291</v>
       </c>
       <c r="C134" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D134" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="E134" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
     </row>
     <row r="135" spans="1:5">
@@ -3283,16 +3286,16 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>902373</v>
+        <v>220291</v>
       </c>
       <c r="C135" t="s">
+        <v>112</v>
+      </c>
+      <c r="D135" t="s">
+        <v>7</v>
+      </c>
+      <c r="E135" t="s">
         <v>114</v>
-      </c>
-      <c r="D135" t="s">
-        <v>5</v>
-      </c>
-      <c r="E135" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="136" spans="1:5">
@@ -3300,16 +3303,16 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>93292</v>
+        <v>9632</v>
       </c>
       <c r="C136" t="s">
         <v>115</v>
       </c>
       <c r="D136" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E136" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
     </row>
     <row r="137" spans="1:5">
@@ -3317,16 +3320,16 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>93292</v>
+        <v>902373</v>
       </c>
       <c r="C137" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D137" t="s">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="E137" t="s">
-        <v>59</v>
+        <v>90</v>
       </c>
     </row>
     <row r="138" spans="1:5">
@@ -3334,16 +3337,16 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>26689</v>
+        <v>93292</v>
       </c>
       <c r="C138" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D138" t="s">
         <v>17</v>
       </c>
       <c r="E138" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
     </row>
     <row r="139" spans="1:5">
@@ -3351,16 +3354,16 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>26689</v>
+        <v>93292</v>
       </c>
       <c r="C139" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D139" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E139" t="s">
-        <v>34</v>
+        <v>62</v>
       </c>
     </row>
     <row r="140" spans="1:5">
@@ -3371,13 +3374,13 @@
         <v>26689</v>
       </c>
       <c r="C140" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D140" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="E140" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
     </row>
     <row r="141" spans="1:5">
@@ -3388,13 +3391,13 @@
         <v>26689</v>
       </c>
       <c r="C141" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D141" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="E141" t="s">
-        <v>117</v>
+        <v>34</v>
       </c>
     </row>
     <row r="142" spans="1:5">
@@ -3405,13 +3408,13 @@
         <v>26689</v>
       </c>
       <c r="C142" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D142" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="E142" t="s">
-        <v>118</v>
+        <v>34</v>
       </c>
     </row>
     <row r="143" spans="1:5">
@@ -3422,13 +3425,13 @@
         <v>26689</v>
       </c>
       <c r="C143" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D143" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="E143" t="s">
-        <v>43</v>
+        <v>119</v>
       </c>
     </row>
     <row r="144" spans="1:5">
@@ -3439,13 +3442,13 @@
         <v>26689</v>
       </c>
       <c r="C144" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D144" t="s">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="E144" t="s">
-        <v>87</v>
+        <v>120</v>
       </c>
     </row>
     <row r="145" spans="1:5">
@@ -3456,10 +3459,10 @@
         <v>26689</v>
       </c>
       <c r="C145" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D145" t="s">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="E145" t="s">
         <v>43</v>
@@ -3470,16 +3473,16 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>17758</v>
+        <v>26689</v>
       </c>
       <c r="C146" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D146" t="s">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="E146" t="s">
-        <v>14</v>
+        <v>90</v>
       </c>
     </row>
     <row r="147" spans="1:5">
@@ -3487,16 +3490,16 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>17758</v>
+        <v>26689</v>
       </c>
       <c r="C147" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D147" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="E147" t="s">
-        <v>76</v>
+        <v>43</v>
       </c>
     </row>
     <row r="148" spans="1:5">
@@ -3507,13 +3510,13 @@
         <v>17758</v>
       </c>
       <c r="C148" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D148" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="E148" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
     </row>
     <row r="149" spans="1:5">
@@ -3521,16 +3524,16 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>902482</v>
+        <v>17758</v>
       </c>
       <c r="C149" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D149" t="s">
         <v>13</v>
       </c>
       <c r="E149" t="s">
-        <v>20</v>
+        <v>79</v>
       </c>
     </row>
     <row r="150" spans="1:5">
@@ -3538,16 +3541,16 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>902482</v>
+        <v>17758</v>
       </c>
       <c r="C150" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D150" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="E150" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
     </row>
     <row r="151" spans="1:5">
@@ -3558,13 +3561,13 @@
         <v>902482</v>
       </c>
       <c r="C151" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D151" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="E151" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
     </row>
     <row r="152" spans="1:5">
@@ -3572,16 +3575,16 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>68917</v>
+        <v>902482</v>
       </c>
       <c r="C152" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D152" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="E152" t="s">
-        <v>122</v>
+        <v>8</v>
       </c>
     </row>
     <row r="153" spans="1:5">
@@ -3589,16 +3592,16 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>900631</v>
+        <v>902482</v>
       </c>
       <c r="C153" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D153" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="E153" t="s">
-        <v>34</v>
+        <v>8</v>
       </c>
     </row>
     <row r="154" spans="1:5">
@@ -3606,16 +3609,16 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>900631</v>
+        <v>68917</v>
       </c>
       <c r="C154" t="s">
         <v>123</v>
       </c>
       <c r="D154" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E154" t="s">
-        <v>39</v>
+        <v>124</v>
       </c>
     </row>
     <row r="155" spans="1:5">
@@ -3626,13 +3629,13 @@
         <v>900631</v>
       </c>
       <c r="C155" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D155" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E155" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
     </row>
     <row r="156" spans="1:5">
@@ -3640,16 +3643,16 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>903135</v>
+        <v>900631</v>
       </c>
       <c r="C156" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D156" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="E156" t="s">
-        <v>15</v>
+        <v>39</v>
       </c>
     </row>
     <row r="157" spans="1:5">
@@ -3657,16 +3660,16 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>903135</v>
+        <v>900631</v>
       </c>
       <c r="C157" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D157" t="s">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="E157" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="158" spans="1:5">
@@ -3674,16 +3677,16 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>4999</v>
+        <v>903135</v>
       </c>
       <c r="C158" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D158" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="E158" t="s">
-        <v>126</v>
+        <v>15</v>
       </c>
     </row>
     <row r="159" spans="1:5">
@@ -3691,16 +3694,16 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>4999</v>
+        <v>903135</v>
       </c>
       <c r="C159" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D159" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="E159" t="s">
-        <v>126</v>
+        <v>46</v>
       </c>
     </row>
     <row r="160" spans="1:5">
@@ -3711,13 +3714,13 @@
         <v>4999</v>
       </c>
       <c r="C160" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D160" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E160" t="s">
-        <v>69</v>
+        <v>128</v>
       </c>
     </row>
     <row r="161" spans="1:5">
@@ -3725,16 +3728,16 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>900889</v>
+        <v>4999</v>
       </c>
       <c r="C161" t="s">
         <v>127</v>
       </c>
       <c r="D161" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="E161" t="s">
-        <v>106</v>
+        <v>128</v>
       </c>
     </row>
     <row r="162" spans="1:5">
@@ -3742,16 +3745,16 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>68915</v>
+        <v>4999</v>
       </c>
       <c r="C162" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D162" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="E162" t="s">
-        <v>129</v>
+        <v>72</v>
       </c>
     </row>
     <row r="163" spans="1:5">
@@ -3759,16 +3762,16 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>68915</v>
+        <v>900889</v>
       </c>
       <c r="C163" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D163" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="E163" t="s">
-        <v>59</v>
+        <v>108</v>
       </c>
     </row>
     <row r="164" spans="1:5">
@@ -3779,13 +3782,13 @@
         <v>68915</v>
       </c>
       <c r="C164" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D164" t="s">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="E164" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="165" spans="1:5">
@@ -3793,16 +3796,16 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>198300</v>
+        <v>68915</v>
       </c>
       <c r="C165" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D165" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E165" t="s">
-        <v>42</v>
+        <v>62</v>
       </c>
     </row>
     <row r="166" spans="1:5">
@@ -3810,16 +3813,16 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>198300</v>
+        <v>68915</v>
       </c>
       <c r="C166" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D166" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="E166" t="s">
-        <v>34</v>
+        <v>132</v>
       </c>
     </row>
     <row r="167" spans="1:5">
@@ -3830,13 +3833,13 @@
         <v>198300</v>
       </c>
       <c r="C167" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D167" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="E167" t="s">
-        <v>87</v>
+        <v>42</v>
       </c>
     </row>
     <row r="168" spans="1:5">
@@ -3847,13 +3850,13 @@
         <v>198300</v>
       </c>
       <c r="C168" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D168" t="s">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="E168" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
     </row>
     <row r="169" spans="1:5">
@@ -3864,13 +3867,13 @@
         <v>198300</v>
       </c>
       <c r="C169" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D169" t="s">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="E169" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="170" spans="1:5">
@@ -3878,16 +3881,16 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>197</v>
+        <v>198300</v>
       </c>
       <c r="C170" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D170" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="E170" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="171" spans="1:5">
@@ -3895,16 +3898,16 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>197</v>
+        <v>198300</v>
       </c>
       <c r="C171" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D171" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="E171" t="s">
-        <v>34</v>
+        <v>91</v>
       </c>
     </row>
     <row r="172" spans="1:5">
@@ -3915,13 +3918,13 @@
         <v>197</v>
       </c>
       <c r="C172" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D172" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="E172" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
     </row>
     <row r="173" spans="1:5">
@@ -3932,10 +3935,10 @@
         <v>197</v>
       </c>
       <c r="C173" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D173" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="E173" t="s">
         <v>34</v>
@@ -3949,13 +3952,13 @@
         <v>197</v>
       </c>
       <c r="C174" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D174" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="E174" t="s">
-        <v>87</v>
+        <v>34</v>
       </c>
     </row>
     <row r="175" spans="1:5">
@@ -3966,13 +3969,13 @@
         <v>197</v>
       </c>
       <c r="C175" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D175" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="E175" t="s">
-        <v>130</v>
+        <v>34</v>
       </c>
     </row>
     <row r="176" spans="1:5">
@@ -3983,13 +3986,13 @@
         <v>197</v>
       </c>
       <c r="C176" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D176" t="s">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="E176" t="s">
-        <v>46</v>
+        <v>90</v>
       </c>
     </row>
     <row r="177" spans="1:5">
@@ -3997,16 +4000,16 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>168239</v>
+        <v>197</v>
       </c>
       <c r="C177" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D177" t="s">
-        <v>37</v>
+        <v>5</v>
       </c>
       <c r="E177" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="178" spans="1:5">
@@ -4014,16 +4017,16 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>17760</v>
+        <v>197</v>
       </c>
       <c r="C178" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D178" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E178" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="179" spans="1:5">
@@ -4031,16 +4034,16 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>17760</v>
+        <v>168239</v>
       </c>
       <c r="C179" t="s">
         <v>135</v>
       </c>
       <c r="D179" t="s">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="E179" t="s">
-        <v>51</v>
+        <v>136</v>
       </c>
     </row>
     <row r="180" spans="1:5">
@@ -4048,16 +4051,16 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>5002</v>
+        <v>17760</v>
       </c>
       <c r="C180" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D180" t="s">
         <v>5</v>
       </c>
       <c r="E180" t="s">
-        <v>8</v>
+        <v>50</v>
       </c>
     </row>
     <row r="181" spans="1:5">
@@ -4065,16 +4068,16 @@
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>5002</v>
+        <v>17760</v>
       </c>
       <c r="C181" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D181" t="s">
         <v>7</v>
       </c>
       <c r="E181" t="s">
-        <v>8</v>
+        <v>51</v>
       </c>
     </row>
     <row r="182" spans="1:5">
@@ -4082,16 +4085,16 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>61610</v>
+        <v>5002</v>
       </c>
       <c r="C182" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D182" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="E182" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
     </row>
     <row r="183" spans="1:5">
@@ -4099,16 +4102,16 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>61610</v>
+        <v>5002</v>
       </c>
       <c r="C183" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D183" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E183" t="s">
-        <v>50</v>
+        <v>8</v>
       </c>
     </row>
     <row r="184" spans="1:5">
@@ -4119,13 +4122,13 @@
         <v>61610</v>
       </c>
       <c r="C184" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D184" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="E184" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
     </row>
     <row r="185" spans="1:5">
@@ -4133,16 +4136,16 @@
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>61612</v>
+        <v>61610</v>
       </c>
       <c r="C185" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D185" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="E185" t="s">
-        <v>14</v>
+        <v>50</v>
       </c>
     </row>
     <row r="186" spans="1:5">
@@ -4150,16 +4153,16 @@
         <v>184</v>
       </c>
       <c r="B186" t="n">
-        <v>61612</v>
+        <v>61610</v>
       </c>
       <c r="C186" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D186" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="E186" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
     </row>
     <row r="187" spans="1:5">
@@ -4170,13 +4173,13 @@
         <v>61612</v>
       </c>
       <c r="C187" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D187" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="E187" t="s">
-        <v>139</v>
+        <v>14</v>
       </c>
     </row>
     <row r="188" spans="1:5">
@@ -4187,13 +4190,13 @@
         <v>61612</v>
       </c>
       <c r="C188" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D188" t="s">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="E188" t="s">
-        <v>88</v>
+        <v>14</v>
       </c>
     </row>
     <row r="189" spans="1:5">
@@ -4201,16 +4204,16 @@
         <v>187</v>
       </c>
       <c r="B189" t="n">
-        <v>220296</v>
+        <v>61612</v>
       </c>
       <c r="C189" t="s">
         <v>140</v>
       </c>
       <c r="D189" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="E189" t="s">
-        <v>26</v>
+        <v>141</v>
       </c>
     </row>
     <row r="190" spans="1:5">
@@ -4218,16 +4221,16 @@
         <v>188</v>
       </c>
       <c r="B190" t="n">
-        <v>145579</v>
+        <v>61612</v>
       </c>
       <c r="C190" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D190" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="E190" t="s">
-        <v>39</v>
+        <v>91</v>
       </c>
     </row>
     <row r="191" spans="1:5">
@@ -4235,16 +4238,16 @@
         <v>189</v>
       </c>
       <c r="B191" t="n">
-        <v>145579</v>
+        <v>220296</v>
       </c>
       <c r="C191" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D191" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="E191" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
     </row>
     <row r="192" spans="1:5">
@@ -4252,16 +4255,16 @@
         <v>190</v>
       </c>
       <c r="B192" t="n">
-        <v>220297</v>
+        <v>145579</v>
       </c>
       <c r="C192" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D192" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="E192" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
     </row>
     <row r="193" spans="1:5">
@@ -4269,16 +4272,16 @@
         <v>191</v>
       </c>
       <c r="B193" t="n">
-        <v>198293</v>
+        <v>145579</v>
       </c>
       <c r="C193" t="s">
         <v>143</v>
       </c>
       <c r="D193" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E193" t="s">
-        <v>76</v>
+        <v>39</v>
       </c>
     </row>
     <row r="194" spans="1:5">
@@ -4286,16 +4289,16 @@
         <v>192</v>
       </c>
       <c r="B194" t="n">
-        <v>198293</v>
+        <v>220297</v>
       </c>
       <c r="C194" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D194" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="E194" t="s">
-        <v>76</v>
+        <v>48</v>
       </c>
     </row>
     <row r="195" spans="1:5">
@@ -4303,16 +4306,16 @@
         <v>193</v>
       </c>
       <c r="B195" t="n">
-        <v>900881</v>
+        <v>198293</v>
       </c>
       <c r="C195" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D195" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="E195" t="s">
-        <v>48</v>
+        <v>79</v>
       </c>
     </row>
     <row r="196" spans="1:5">
@@ -4320,16 +4323,16 @@
         <v>194</v>
       </c>
       <c r="B196" t="n">
-        <v>900881</v>
+        <v>198293</v>
       </c>
       <c r="C196" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D196" t="s">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="E196" t="s">
-        <v>8</v>
+        <v>79</v>
       </c>
     </row>
     <row r="197" spans="1:5">
@@ -4340,13 +4343,13 @@
         <v>900881</v>
       </c>
       <c r="C197" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="D197" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="E197" t="s">
-        <v>8</v>
+        <v>48</v>
       </c>
     </row>
     <row r="198" spans="1:5">
@@ -4354,16 +4357,16 @@
         <v>196</v>
       </c>
       <c r="B198" t="n">
-        <v>5000</v>
+        <v>900881</v>
       </c>
       <c r="C198" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D198" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="E198" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
     </row>
     <row r="199" spans="1:5">
@@ -4371,16 +4374,16 @@
         <v>197</v>
       </c>
       <c r="B199" t="n">
-        <v>5000</v>
+        <v>900881</v>
       </c>
       <c r="C199" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D199" t="s">
-        <v>37</v>
+        <v>7</v>
       </c>
       <c r="E199" t="s">
-        <v>43</v>
+        <v>8</v>
       </c>
     </row>
     <row r="200" spans="1:5">
@@ -4391,13 +4394,13 @@
         <v>5000</v>
       </c>
       <c r="C200" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D200" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="E200" t="s">
-        <v>50</v>
+        <v>26</v>
       </c>
     </row>
     <row r="201" spans="1:5">
@@ -4408,13 +4411,13 @@
         <v>5000</v>
       </c>
       <c r="C201" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D201" t="s">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="E201" t="s">
-        <v>90</v>
+        <v>43</v>
       </c>
     </row>
     <row r="202" spans="1:5">
@@ -4422,16 +4425,16 @@
         <v>200</v>
       </c>
       <c r="B202" t="n">
-        <v>61609</v>
+        <v>5000</v>
       </c>
       <c r="C202" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D202" t="s">
         <v>5</v>
       </c>
       <c r="E202" t="s">
-        <v>8</v>
+        <v>50</v>
       </c>
     </row>
     <row r="203" spans="1:5">
@@ -4439,16 +4442,16 @@
         <v>201</v>
       </c>
       <c r="B203" t="n">
-        <v>61609</v>
+        <v>5000</v>
       </c>
       <c r="C203" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D203" t="s">
         <v>7</v>
       </c>
       <c r="E203" t="s">
-        <v>40</v>
+        <v>93</v>
       </c>
     </row>
     <row r="204" spans="1:5">
@@ -4456,16 +4459,16 @@
         <v>202</v>
       </c>
       <c r="B204" t="n">
-        <v>555577556</v>
+        <v>61609</v>
       </c>
       <c r="C204" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D204" t="s">
         <v>5</v>
       </c>
       <c r="E204" t="s">
-        <v>148</v>
+        <v>8</v>
       </c>
     </row>
     <row r="205" spans="1:5">
@@ -4473,16 +4476,16 @@
         <v>203</v>
       </c>
       <c r="B205" t="n">
-        <v>26654</v>
+        <v>61609</v>
       </c>
       <c r="C205" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D205" t="s">
-        <v>37</v>
+        <v>7</v>
       </c>
       <c r="E205" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
     </row>
     <row r="206" spans="1:5">
@@ -4490,16 +4493,16 @@
         <v>204</v>
       </c>
       <c r="B206" t="n">
-        <v>900880</v>
+        <v>555577556</v>
       </c>
       <c r="C206" t="s">
+        <v>149</v>
+      </c>
+      <c r="D206" t="s">
+        <v>5</v>
+      </c>
+      <c r="E206" t="s">
         <v>150</v>
-      </c>
-      <c r="D206" t="s">
-        <v>21</v>
-      </c>
-      <c r="E206" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="207" spans="1:5">
@@ -4507,7 +4510,7 @@
         <v>205</v>
       </c>
       <c r="B207" t="n">
-        <v>67725</v>
+        <v>26654</v>
       </c>
       <c r="C207" t="s">
         <v>151</v>
@@ -4516,7 +4519,7 @@
         <v>37</v>
       </c>
       <c r="E207" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
     </row>
     <row r="208" spans="1:5">
@@ -4524,16 +4527,16 @@
         <v>206</v>
       </c>
       <c r="B208" t="n">
-        <v>902483</v>
+        <v>900880</v>
       </c>
       <c r="C208" t="s">
         <v>152</v>
       </c>
       <c r="D208" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="E208" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
     </row>
     <row r="209" spans="1:5">
@@ -4541,16 +4544,16 @@
         <v>207</v>
       </c>
       <c r="B209" t="n">
-        <v>902483</v>
+        <v>67725</v>
       </c>
       <c r="C209" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D209" t="s">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="E209" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
     </row>
     <row r="210" spans="1:5">
@@ -4558,16 +4561,16 @@
         <v>208</v>
       </c>
       <c r="B210" t="n">
-        <v>93291</v>
+        <v>902483</v>
       </c>
       <c r="C210" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D210" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="E210" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
     </row>
     <row r="211" spans="1:5">
@@ -4575,16 +4578,16 @@
         <v>209</v>
       </c>
       <c r="B211" t="n">
-        <v>93291</v>
+        <v>902483</v>
       </c>
       <c r="C211" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D211" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="E211" t="s">
-        <v>83</v>
+        <v>39</v>
       </c>
     </row>
     <row r="212" spans="1:5">
@@ -4592,16 +4595,16 @@
         <v>210</v>
       </c>
       <c r="B212" t="n">
-        <v>555577557</v>
+        <v>93291</v>
       </c>
       <c r="C212" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D212" t="s">
-        <v>37</v>
+        <v>5</v>
       </c>
       <c r="E212" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
     </row>
     <row r="213" spans="1:5">
@@ -4609,16 +4612,16 @@
         <v>211</v>
       </c>
       <c r="B213" t="n">
-        <v>9612</v>
+        <v>93291</v>
       </c>
       <c r="C213" t="s">
         <v>155</v>
       </c>
       <c r="D213" t="s">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="E213" t="s">
-        <v>34</v>
+        <v>86</v>
       </c>
     </row>
     <row r="214" spans="1:5">
@@ -4626,16 +4629,16 @@
         <v>212</v>
       </c>
       <c r="B214" t="n">
-        <v>9612</v>
+        <v>555577557</v>
       </c>
       <c r="C214" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D214" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E214" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
     </row>
     <row r="215" spans="1:5">
@@ -4646,13 +4649,13 @@
         <v>9612</v>
       </c>
       <c r="C215" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D215" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="E215" t="s">
-        <v>126</v>
+        <v>34</v>
       </c>
     </row>
     <row r="216" spans="1:5">
@@ -4663,13 +4666,13 @@
         <v>9612</v>
       </c>
       <c r="C216" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D216" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="E216" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
     </row>
     <row r="217" spans="1:5">
@@ -4677,16 +4680,16 @@
         <v>215</v>
       </c>
       <c r="B217" t="n">
-        <v>16793</v>
+        <v>9612</v>
       </c>
       <c r="C217" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D217" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="E217" t="s">
-        <v>39</v>
+        <v>128</v>
       </c>
     </row>
     <row r="218" spans="1:5">
@@ -4694,16 +4697,16 @@
         <v>216</v>
       </c>
       <c r="B218" t="n">
-        <v>168241</v>
+        <v>9612</v>
       </c>
       <c r="C218" t="s">
         <v>157</v>
       </c>
       <c r="D218" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="E218" t="s">
-        <v>130</v>
+        <v>26</v>
       </c>
     </row>
     <row r="219" spans="1:5">
@@ -4711,16 +4714,16 @@
         <v>217</v>
       </c>
       <c r="B219" t="n">
-        <v>168241</v>
+        <v>16793</v>
       </c>
       <c r="C219" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D219" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="E219" t="s">
-        <v>158</v>
+        <v>39</v>
       </c>
     </row>
     <row r="220" spans="1:5">
@@ -4728,16 +4731,16 @@
         <v>218</v>
       </c>
       <c r="B220" t="n">
-        <v>902479</v>
+        <v>168241</v>
       </c>
       <c r="C220" t="s">
         <v>159</v>
       </c>
       <c r="D220" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="E220" t="s">
-        <v>14</v>
+        <v>132</v>
       </c>
     </row>
     <row r="221" spans="1:5">
@@ -4745,16 +4748,16 @@
         <v>219</v>
       </c>
       <c r="B221" t="n">
-        <v>902479</v>
+        <v>168241</v>
       </c>
       <c r="C221" t="s">
         <v>159</v>
       </c>
       <c r="D221" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="E221" t="s">
-        <v>14</v>
+        <v>60</v>
       </c>
     </row>
     <row r="222" spans="1:5">
@@ -4762,7 +4765,7 @@
         <v>220</v>
       </c>
       <c r="B222" t="n">
-        <v>900008</v>
+        <v>902479</v>
       </c>
       <c r="C222" t="s">
         <v>160</v>
@@ -4771,7 +4774,7 @@
         <v>33</v>
       </c>
       <c r="E222" t="s">
-        <v>59</v>
+        <v>14</v>
       </c>
     </row>
     <row r="223" spans="1:5">
@@ -4779,7 +4782,7 @@
         <v>221</v>
       </c>
       <c r="B223" t="n">
-        <v>900008</v>
+        <v>902479</v>
       </c>
       <c r="C223" t="s">
         <v>160</v>
@@ -4788,7 +4791,7 @@
         <v>35</v>
       </c>
       <c r="E223" t="s">
-        <v>59</v>
+        <v>14</v>
       </c>
     </row>
     <row r="224" spans="1:5">
@@ -4796,16 +4799,16 @@
         <v>222</v>
       </c>
       <c r="B224" t="n">
-        <v>10744</v>
+        <v>900008</v>
       </c>
       <c r="C224" t="s">
         <v>161</v>
       </c>
       <c r="D224" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="E224" t="s">
-        <v>28</v>
+        <v>62</v>
       </c>
     </row>
     <row r="225" spans="1:5">
@@ -4813,16 +4816,16 @@
         <v>223</v>
       </c>
       <c r="B225" t="n">
-        <v>10744</v>
+        <v>900008</v>
       </c>
       <c r="C225" t="s">
         <v>161</v>
       </c>
       <c r="D225" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="E225" t="s">
-        <v>30</v>
+        <v>62</v>
       </c>
     </row>
     <row r="226" spans="1:5">
@@ -4830,16 +4833,16 @@
         <v>224</v>
       </c>
       <c r="B226" t="n">
-        <v>903137</v>
+        <v>10744</v>
       </c>
       <c r="C226" t="s">
         <v>162</v>
       </c>
       <c r="D226" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="E226" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="227" spans="1:5">
@@ -4847,16 +4850,16 @@
         <v>225</v>
       </c>
       <c r="B227" t="n">
-        <v>903137</v>
+        <v>10744</v>
       </c>
       <c r="C227" t="s">
         <v>162</v>
       </c>
       <c r="D227" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="E227" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="228" spans="1:5">
@@ -4867,13 +4870,13 @@
         <v>903137</v>
       </c>
       <c r="C228" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D228" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="E228" t="s">
-        <v>163</v>
+        <v>34</v>
       </c>
     </row>
     <row r="229" spans="1:5">
@@ -4881,16 +4884,16 @@
         <v>227</v>
       </c>
       <c r="B229" t="n">
-        <v>198299</v>
+        <v>903137</v>
       </c>
       <c r="C229" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D229" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="E229" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="230" spans="1:5">
@@ -4898,16 +4901,16 @@
         <v>228</v>
       </c>
       <c r="B230" t="n">
-        <v>198297</v>
+        <v>903137</v>
       </c>
       <c r="C230" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D230" t="s">
-        <v>5</v>
+        <v>37</v>
       </c>
       <c r="E230" t="s">
-        <v>10</v>
+        <v>164</v>
       </c>
     </row>
     <row r="231" spans="1:5">
@@ -4915,16 +4918,16 @@
         <v>229</v>
       </c>
       <c r="B231" t="n">
-        <v>198297</v>
+        <v>198299</v>
       </c>
       <c r="C231" t="s">
         <v>165</v>
       </c>
       <c r="D231" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="E231" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
     </row>
     <row r="232" spans="1:5">
@@ -4935,13 +4938,13 @@
         <v>198297</v>
       </c>
       <c r="C232" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D232" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="E232" t="s">
-        <v>166</v>
+        <v>10</v>
       </c>
     </row>
     <row r="233" spans="1:5">
@@ -4949,16 +4952,16 @@
         <v>231</v>
       </c>
       <c r="B233" t="n">
-        <v>67726</v>
+        <v>198297</v>
       </c>
       <c r="C233" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D233" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="E233" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
     </row>
     <row r="234" spans="1:5">
@@ -4966,16 +4969,16 @@
         <v>232</v>
       </c>
       <c r="B234" t="n">
-        <v>67726</v>
+        <v>198297</v>
       </c>
       <c r="C234" t="s">
+        <v>166</v>
+      </c>
+      <c r="D234" t="s">
+        <v>23</v>
+      </c>
+      <c r="E234" t="s">
         <v>167</v>
-      </c>
-      <c r="D234" t="s">
-        <v>29</v>
-      </c>
-      <c r="E234" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="235" spans="1:5">
@@ -4983,16 +4986,16 @@
         <v>233</v>
       </c>
       <c r="B235" t="n">
-        <v>67730</v>
+        <v>67726</v>
       </c>
       <c r="C235" t="s">
         <v>168</v>
       </c>
       <c r="D235" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E235" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
     </row>
     <row r="236" spans="1:5">
@@ -5000,16 +5003,16 @@
         <v>234</v>
       </c>
       <c r="B236" t="n">
-        <v>555577558</v>
+        <v>67726</v>
       </c>
       <c r="C236" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D236" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="E236" t="s">
-        <v>59</v>
+        <v>30</v>
       </c>
     </row>
     <row r="237" spans="1:5">
@@ -5017,16 +5020,16 @@
         <v>235</v>
       </c>
       <c r="B237" t="n">
-        <v>2005</v>
+        <v>67730</v>
       </c>
       <c r="C237" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D237" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="E237" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
     </row>
     <row r="238" spans="1:5">
@@ -5034,16 +5037,16 @@
         <v>236</v>
       </c>
       <c r="B238" t="n">
-        <v>2005</v>
+        <v>555577558</v>
       </c>
       <c r="C238" t="s">
         <v>170</v>
       </c>
       <c r="D238" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="E238" t="s">
-        <v>26</v>
+        <v>62</v>
       </c>
     </row>
     <row r="239" spans="1:5">
@@ -5051,16 +5054,16 @@
         <v>237</v>
       </c>
       <c r="B239" t="n">
-        <v>191</v>
+        <v>2005</v>
       </c>
       <c r="C239" t="s">
         <v>171</v>
       </c>
       <c r="D239" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="E239" t="s">
-        <v>76</v>
+        <v>34</v>
       </c>
     </row>
     <row r="240" spans="1:5">
@@ -5068,16 +5071,16 @@
         <v>238</v>
       </c>
       <c r="B240" t="n">
-        <v>2016</v>
+        <v>2005</v>
       </c>
       <c r="C240" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D240" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E240" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
     </row>
     <row r="241" spans="1:5">
@@ -5085,7 +5088,7 @@
         <v>239</v>
       </c>
       <c r="B241" t="n">
-        <v>2016</v>
+        <v>191</v>
       </c>
       <c r="C241" t="s">
         <v>172</v>
@@ -5094,7 +5097,7 @@
         <v>13</v>
       </c>
       <c r="E241" t="s">
-        <v>34</v>
+        <v>79</v>
       </c>
     </row>
     <row r="242" spans="1:5">
@@ -5105,13 +5108,13 @@
         <v>2016</v>
       </c>
       <c r="C242" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D242" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E242" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
     </row>
     <row r="243" spans="1:5">
@@ -5122,13 +5125,13 @@
         <v>2016</v>
       </c>
       <c r="C243" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D243" t="s">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="E243" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
     </row>
     <row r="244" spans="1:5">
@@ -5136,16 +5139,16 @@
         <v>242</v>
       </c>
       <c r="B244" t="n">
-        <v>145582</v>
+        <v>2016</v>
       </c>
       <c r="C244" t="s">
         <v>173</v>
       </c>
       <c r="D244" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="E244" t="s">
-        <v>126</v>
+        <v>26</v>
       </c>
     </row>
     <row r="245" spans="1:5">
@@ -5153,7 +5156,7 @@
         <v>243</v>
       </c>
       <c r="B245" t="n">
-        <v>145582</v>
+        <v>2016</v>
       </c>
       <c r="C245" t="s">
         <v>173</v>
@@ -5162,7 +5165,7 @@
         <v>37</v>
       </c>
       <c r="E245" t="s">
-        <v>11</v>
+        <v>43</v>
       </c>
     </row>
     <row r="246" spans="1:5">
@@ -5173,13 +5176,13 @@
         <v>145582</v>
       </c>
       <c r="C246" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D246" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="E246" t="s">
-        <v>174</v>
+        <v>128</v>
       </c>
     </row>
     <row r="247" spans="1:5">
@@ -5190,13 +5193,13 @@
         <v>145582</v>
       </c>
       <c r="C247" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D247" t="s">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="E247" t="s">
-        <v>175</v>
+        <v>11</v>
       </c>
     </row>
     <row r="248" spans="1:5">
@@ -5207,13 +5210,13 @@
         <v>145582</v>
       </c>
       <c r="C248" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D248" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="E248" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
     </row>
     <row r="249" spans="1:5">
@@ -5221,16 +5224,16 @@
         <v>247</v>
       </c>
       <c r="B249" t="n">
-        <v>900628</v>
+        <v>145582</v>
       </c>
       <c r="C249" t="s">
+        <v>174</v>
+      </c>
+      <c r="D249" t="s">
+        <v>7</v>
+      </c>
+      <c r="E249" t="s">
         <v>176</v>
-      </c>
-      <c r="D249" t="s">
-        <v>33</v>
-      </c>
-      <c r="E249" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="250" spans="1:5">
@@ -5238,16 +5241,16 @@
         <v>248</v>
       </c>
       <c r="B250" t="n">
-        <v>900628</v>
+        <v>145582</v>
       </c>
       <c r="C250" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D250" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="E250" t="s">
-        <v>134</v>
+        <v>167</v>
       </c>
     </row>
     <row r="251" spans="1:5">
@@ -5258,13 +5261,13 @@
         <v>900628</v>
       </c>
       <c r="C251" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D251" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="E251" t="s">
-        <v>100</v>
+        <v>39</v>
       </c>
     </row>
     <row r="252" spans="1:5">
@@ -5275,13 +5278,13 @@
         <v>900628</v>
       </c>
       <c r="C252" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D252" t="s">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="E252" t="s">
-        <v>175</v>
+        <v>136</v>
       </c>
     </row>
     <row r="253" spans="1:5">
@@ -5292,13 +5295,13 @@
         <v>900628</v>
       </c>
       <c r="C253" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D253" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="E253" t="s">
-        <v>166</v>
+        <v>102</v>
       </c>
     </row>
     <row r="254" spans="1:5">
@@ -5306,16 +5309,16 @@
         <v>252</v>
       </c>
       <c r="B254" t="n">
-        <v>9623</v>
+        <v>900628</v>
       </c>
       <c r="C254" t="s">
         <v>177</v>
       </c>
       <c r="D254" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E254" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="255" spans="1:5">
@@ -5323,16 +5326,16 @@
         <v>253</v>
       </c>
       <c r="B255" t="n">
-        <v>9623</v>
+        <v>900628</v>
       </c>
       <c r="C255" t="s">
         <v>177</v>
       </c>
       <c r="D255" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="E255" t="s">
-        <v>178</v>
+        <v>167</v>
       </c>
     </row>
     <row r="256" spans="1:5">
@@ -5343,13 +5346,13 @@
         <v>9623</v>
       </c>
       <c r="C256" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D256" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="E256" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
     </row>
     <row r="257" spans="1:5">
@@ -5357,16 +5360,16 @@
         <v>255</v>
       </c>
       <c r="B257" t="n">
-        <v>2554</v>
+        <v>9623</v>
       </c>
       <c r="C257" t="s">
+        <v>178</v>
+      </c>
+      <c r="D257" t="s">
+        <v>7</v>
+      </c>
+      <c r="E257" t="s">
         <v>179</v>
-      </c>
-      <c r="D257" t="s">
-        <v>33</v>
-      </c>
-      <c r="E257" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="258" spans="1:5">
@@ -5374,16 +5377,16 @@
         <v>256</v>
       </c>
       <c r="B258" t="n">
-        <v>2554</v>
+        <v>9623</v>
       </c>
       <c r="C258" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D258" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="E258" t="s">
-        <v>88</v>
+        <v>167</v>
       </c>
     </row>
     <row r="259" spans="1:5">
@@ -5394,13 +5397,13 @@
         <v>2554</v>
       </c>
       <c r="C259" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D259" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="E259" t="s">
-        <v>46</v>
+        <v>14</v>
       </c>
     </row>
     <row r="260" spans="1:5">
@@ -5408,16 +5411,16 @@
         <v>258</v>
       </c>
       <c r="B260" t="n">
-        <v>555577559</v>
+        <v>2554</v>
       </c>
       <c r="C260" t="s">
         <v>180</v>
       </c>
       <c r="D260" t="s">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="E260" t="s">
-        <v>34</v>
+        <v>91</v>
       </c>
     </row>
     <row r="261" spans="1:5">
@@ -5425,16 +5428,16 @@
         <v>259</v>
       </c>
       <c r="B261" t="n">
-        <v>18337</v>
+        <v>2554</v>
       </c>
       <c r="C261" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D261" t="s">
-        <v>37</v>
+        <v>7</v>
       </c>
       <c r="E261" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="262" spans="1:5">
@@ -5442,13 +5445,13 @@
         <v>260</v>
       </c>
       <c r="B262" t="n">
-        <v>555547990</v>
+        <v>555577559</v>
       </c>
       <c r="C262" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D262" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="E262" t="s">
         <v>34</v>
@@ -5459,16 +5462,16 @@
         <v>261</v>
       </c>
       <c r="B263" t="n">
-        <v>68916</v>
+        <v>18337</v>
       </c>
       <c r="C263" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D263" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="E263" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
     </row>
     <row r="264" spans="1:5">
@@ -5476,13 +5479,13 @@
         <v>262</v>
       </c>
       <c r="B264" t="n">
-        <v>68916</v>
+        <v>555547990</v>
       </c>
       <c r="C264" t="s">
         <v>183</v>
       </c>
       <c r="D264" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="E264" t="s">
         <v>34</v>
@@ -5493,16 +5496,16 @@
         <v>263</v>
       </c>
       <c r="B265" t="n">
-        <v>900632</v>
+        <v>68916</v>
       </c>
       <c r="C265" t="s">
         <v>184</v>
       </c>
       <c r="D265" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="E265" t="s">
-        <v>64</v>
+        <v>34</v>
       </c>
     </row>
     <row r="266" spans="1:5">
@@ -5510,16 +5513,16 @@
         <v>264</v>
       </c>
       <c r="B266" t="n">
-        <v>900633</v>
+        <v>68916</v>
       </c>
       <c r="C266" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D266" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E266" t="s">
-        <v>59</v>
+        <v>34</v>
       </c>
     </row>
     <row r="267" spans="1:5">
@@ -5527,16 +5530,16 @@
         <v>265</v>
       </c>
       <c r="B267" t="n">
-        <v>900633</v>
+        <v>900632</v>
       </c>
       <c r="C267" t="s">
         <v>185</v>
       </c>
       <c r="D267" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="E267" t="s">
-        <v>186</v>
+        <v>67</v>
       </c>
     </row>
     <row r="268" spans="1:5">
@@ -5547,13 +5550,13 @@
         <v>900633</v>
       </c>
       <c r="C268" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D268" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="E268" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
     <row r="269" spans="1:5">
@@ -5564,13 +5567,13 @@
         <v>900633</v>
       </c>
       <c r="C269" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D269" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="E269" t="s">
-        <v>72</v>
+        <v>187</v>
       </c>
     </row>
     <row r="270" spans="1:5">
@@ -5581,13 +5584,13 @@
         <v>900633</v>
       </c>
       <c r="C270" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D270" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="E270" t="s">
-        <v>10</v>
+        <v>62</v>
       </c>
     </row>
     <row r="271" spans="1:5">
@@ -5598,13 +5601,13 @@
         <v>900633</v>
       </c>
       <c r="C271" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D271" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="E271" t="s">
-        <v>49</v>
+        <v>75</v>
       </c>
     </row>
     <row r="272" spans="1:5">
@@ -5612,16 +5615,16 @@
         <v>270</v>
       </c>
       <c r="B272" t="n">
-        <v>2571</v>
+        <v>900633</v>
       </c>
       <c r="C272" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D272" t="s">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="E272" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="273" spans="1:5">
@@ -5629,16 +5632,16 @@
         <v>271</v>
       </c>
       <c r="B273" t="n">
-        <v>2571</v>
+        <v>900633</v>
       </c>
       <c r="C273" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D273" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="E273" t="s">
-        <v>26</v>
+        <v>49</v>
       </c>
     </row>
     <row r="274" spans="1:5">
@@ -5646,16 +5649,16 @@
         <v>272</v>
       </c>
       <c r="B274" t="n">
-        <v>2572</v>
+        <v>2571</v>
       </c>
       <c r="C274" t="s">
         <v>188</v>
       </c>
       <c r="D274" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="E274" t="s">
-        <v>72</v>
+        <v>14</v>
       </c>
     </row>
     <row r="275" spans="1:5">
@@ -5663,16 +5666,16 @@
         <v>273</v>
       </c>
       <c r="B275" t="n">
-        <v>2572</v>
+        <v>2571</v>
       </c>
       <c r="C275" t="s">
         <v>188</v>
       </c>
       <c r="D275" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="E275" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
     </row>
     <row r="276" spans="1:5">
@@ -5680,16 +5683,16 @@
         <v>274</v>
       </c>
       <c r="B276" t="n">
-        <v>2004</v>
+        <v>2572</v>
       </c>
       <c r="C276" t="s">
         <v>189</v>
       </c>
       <c r="D276" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="E276" t="s">
-        <v>129</v>
+        <v>75</v>
       </c>
     </row>
     <row r="277" spans="1:5">
@@ -5697,16 +5700,16 @@
         <v>275</v>
       </c>
       <c r="B277" t="n">
-        <v>2004</v>
+        <v>2572</v>
       </c>
       <c r="C277" t="s">
         <v>189</v>
       </c>
       <c r="D277" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="E277" t="s">
-        <v>69</v>
+        <v>43</v>
       </c>
     </row>
     <row r="278" spans="1:5">
@@ -5717,13 +5720,13 @@
         <v>2004</v>
       </c>
       <c r="C278" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D278" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="E278" t="s">
-        <v>69</v>
+        <v>131</v>
       </c>
     </row>
     <row r="279" spans="1:5">
@@ -5731,7 +5734,7 @@
         <v>277</v>
       </c>
       <c r="B279" t="n">
-        <v>10746</v>
+        <v>2004</v>
       </c>
       <c r="C279" t="s">
         <v>190</v>
@@ -5740,7 +5743,7 @@
         <v>29</v>
       </c>
       <c r="E279" t="s">
-        <v>30</v>
+        <v>72</v>
       </c>
     </row>
     <row r="280" spans="1:5">
@@ -5748,16 +5751,16 @@
         <v>278</v>
       </c>
       <c r="B280" t="n">
-        <v>10746</v>
+        <v>2004</v>
       </c>
       <c r="C280" t="s">
         <v>190</v>
       </c>
       <c r="D280" t="s">
-        <v>37</v>
+        <v>5</v>
       </c>
       <c r="E280" t="s">
-        <v>49</v>
+        <v>72</v>
       </c>
     </row>
     <row r="281" spans="1:5">
@@ -5768,13 +5771,13 @@
         <v>10746</v>
       </c>
       <c r="C281" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D281" t="s">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="E281" t="s">
-        <v>88</v>
+        <v>30</v>
       </c>
     </row>
     <row r="282" spans="1:5">
@@ -5782,16 +5785,16 @@
         <v>280</v>
       </c>
       <c r="B282" t="n">
-        <v>2013</v>
+        <v>10746</v>
       </c>
       <c r="C282" t="s">
         <v>191</v>
       </c>
       <c r="D282" t="s">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="E282" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
     </row>
     <row r="283" spans="1:5">
@@ -5799,7 +5802,7 @@
         <v>281</v>
       </c>
       <c r="B283" t="n">
-        <v>2013</v>
+        <v>10746</v>
       </c>
       <c r="C283" t="s">
         <v>191</v>
@@ -5808,7 +5811,7 @@
         <v>5</v>
       </c>
       <c r="E283" t="s">
-        <v>192</v>
+        <v>91</v>
       </c>
     </row>
     <row r="284" spans="1:5">
@@ -5819,13 +5822,13 @@
         <v>2013</v>
       </c>
       <c r="C284" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D284" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="E284" t="s">
-        <v>83</v>
+        <v>39</v>
       </c>
     </row>
     <row r="285" spans="1:5">
@@ -5833,16 +5836,16 @@
         <v>283</v>
       </c>
       <c r="B285" t="n">
-        <v>198294</v>
+        <v>2013</v>
       </c>
       <c r="C285" t="s">
+        <v>192</v>
+      </c>
+      <c r="D285" t="s">
+        <v>5</v>
+      </c>
+      <c r="E285" t="s">
         <v>193</v>
-      </c>
-      <c r="D285" t="s">
-        <v>13</v>
-      </c>
-      <c r="E285" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="286" spans="1:5">
@@ -5850,16 +5853,16 @@
         <v>284</v>
       </c>
       <c r="B286" t="n">
-        <v>12896</v>
+        <v>2013</v>
       </c>
       <c r="C286" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D286" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="E286" t="s">
-        <v>26</v>
+        <v>86</v>
       </c>
     </row>
     <row r="287" spans="1:5">
@@ -5867,16 +5870,16 @@
         <v>285</v>
       </c>
       <c r="B287" t="n">
-        <v>10902</v>
+        <v>198294</v>
       </c>
       <c r="C287" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D287" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E287" t="s">
-        <v>42</v>
+        <v>62</v>
       </c>
     </row>
     <row r="288" spans="1:5">
@@ -5884,16 +5887,16 @@
         <v>286</v>
       </c>
       <c r="B288" t="n">
-        <v>10902</v>
+        <v>12896</v>
       </c>
       <c r="C288" t="s">
         <v>195</v>
       </c>
       <c r="D288" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="E288" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
     </row>
     <row r="289" spans="1:5">
@@ -5904,13 +5907,13 @@
         <v>10902</v>
       </c>
       <c r="C289" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D289" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E289" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
     </row>
     <row r="290" spans="1:5">
@@ -5921,13 +5924,13 @@
         <v>10902</v>
       </c>
       <c r="C290" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D290" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="E290" t="s">
-        <v>117</v>
+        <v>34</v>
       </c>
     </row>
     <row r="291" spans="1:5">
@@ -5938,13 +5941,13 @@
         <v>10902</v>
       </c>
       <c r="C291" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D291" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="E291" t="s">
-        <v>87</v>
+        <v>34</v>
       </c>
     </row>
     <row r="292" spans="1:5">
@@ -5955,13 +5958,13 @@
         <v>10902</v>
       </c>
       <c r="C292" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D292" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="E292" t="s">
-        <v>43</v>
+        <v>119</v>
       </c>
     </row>
     <row r="293" spans="1:5">
@@ -5969,7 +5972,7 @@
         <v>291</v>
       </c>
       <c r="B293" t="n">
-        <v>2577</v>
+        <v>10902</v>
       </c>
       <c r="C293" t="s">
         <v>196</v>
@@ -5978,7 +5981,7 @@
         <v>29</v>
       </c>
       <c r="E293" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="294" spans="1:5">
@@ -5986,16 +5989,16 @@
         <v>292</v>
       </c>
       <c r="B294" t="n">
-        <v>67733</v>
+        <v>10902</v>
       </c>
       <c r="C294" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D294" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="E294" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
     </row>
     <row r="295" spans="1:5">
@@ -6003,16 +6006,16 @@
         <v>293</v>
       </c>
       <c r="B295" t="n">
-        <v>198295</v>
+        <v>2577</v>
       </c>
       <c r="C295" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D295" t="s">
         <v>29</v>
       </c>
       <c r="E295" t="s">
-        <v>69</v>
+        <v>90</v>
       </c>
     </row>
     <row r="296" spans="1:5">
@@ -6020,16 +6023,16 @@
         <v>294</v>
       </c>
       <c r="B296" t="n">
-        <v>198291</v>
+        <v>67733</v>
       </c>
       <c r="C296" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D296" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E296" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
     </row>
     <row r="297" spans="1:5">
@@ -6037,16 +6040,16 @@
         <v>295</v>
       </c>
       <c r="B297" t="n">
-        <v>198291</v>
+        <v>198295</v>
       </c>
       <c r="C297" t="s">
         <v>199</v>
       </c>
       <c r="D297" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="E297" t="s">
-        <v>34</v>
+        <v>72</v>
       </c>
     </row>
     <row r="298" spans="1:5">
@@ -6057,13 +6060,13 @@
         <v>198291</v>
       </c>
       <c r="C298" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D298" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="E298" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
     </row>
     <row r="299" spans="1:5">
@@ -6074,13 +6077,13 @@
         <v>198291</v>
       </c>
       <c r="C299" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D299" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E299" t="s">
-        <v>87</v>
+        <v>34</v>
       </c>
     </row>
     <row r="300" spans="1:5">
@@ -6091,13 +6094,13 @@
         <v>198291</v>
       </c>
       <c r="C300" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D300" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E300" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
     </row>
     <row r="301" spans="1:5">
@@ -6105,16 +6108,16 @@
         <v>299</v>
       </c>
       <c r="B301" t="n">
-        <v>93295</v>
+        <v>198291</v>
       </c>
       <c r="C301" t="s">
         <v>200</v>
       </c>
       <c r="D301" t="s">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="E301" t="s">
-        <v>6</v>
+        <v>90</v>
       </c>
     </row>
     <row r="302" spans="1:5">
@@ -6122,16 +6125,16 @@
         <v>300</v>
       </c>
       <c r="B302" t="n">
-        <v>93295</v>
+        <v>198291</v>
       </c>
       <c r="C302" t="s">
         <v>200</v>
       </c>
       <c r="D302" t="s">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="E302" t="s">
-        <v>90</v>
+        <v>43</v>
       </c>
     </row>
     <row r="303" spans="1:5">
@@ -6139,16 +6142,16 @@
         <v>301</v>
       </c>
       <c r="B303" t="n">
-        <v>67728</v>
+        <v>93295</v>
       </c>
       <c r="C303" t="s">
         <v>201</v>
       </c>
       <c r="D303" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="E303" t="s">
-        <v>126</v>
+        <v>6</v>
       </c>
     </row>
     <row r="304" spans="1:5">
@@ -6156,16 +6159,16 @@
         <v>302</v>
       </c>
       <c r="B304" t="n">
-        <v>67728</v>
+        <v>93295</v>
       </c>
       <c r="C304" t="s">
         <v>201</v>
       </c>
       <c r="D304" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="E304" t="s">
-        <v>130</v>
+        <v>93</v>
       </c>
     </row>
     <row r="305" spans="1:5">
@@ -6176,13 +6179,13 @@
         <v>67728</v>
       </c>
       <c r="C305" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D305" t="s">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="E305" t="s">
-        <v>158</v>
+        <v>128</v>
       </c>
     </row>
     <row r="306" spans="1:5">
@@ -6193,13 +6196,13 @@
         <v>67728</v>
       </c>
       <c r="C306" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D306" t="s">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="E306" t="s">
-        <v>6</v>
+        <v>132</v>
       </c>
     </row>
     <row r="307" spans="1:5">
@@ -6210,13 +6213,13 @@
         <v>67728</v>
       </c>
       <c r="C307" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D307" t="s">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="E307" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
     </row>
     <row r="308" spans="1:5">
@@ -6224,16 +6227,16 @@
         <v>306</v>
       </c>
       <c r="B308" t="n">
-        <v>12207</v>
+        <v>67728</v>
       </c>
       <c r="C308" t="s">
         <v>202</v>
       </c>
       <c r="D308" t="s">
-        <v>37</v>
+        <v>5</v>
       </c>
       <c r="E308" t="s">
-        <v>203</v>
+        <v>6</v>
       </c>
     </row>
     <row r="309" spans="1:5">
@@ -6241,16 +6244,16 @@
         <v>307</v>
       </c>
       <c r="B309" t="n">
-        <v>900629</v>
+        <v>67728</v>
       </c>
       <c r="C309" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D309" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="E309" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
     </row>
     <row r="310" spans="1:5">
@@ -6258,16 +6261,16 @@
         <v>308</v>
       </c>
       <c r="B310" t="n">
-        <v>900629</v>
+        <v>12207</v>
       </c>
       <c r="C310" t="s">
+        <v>203</v>
+      </c>
+      <c r="D310" t="s">
+        <v>37</v>
+      </c>
+      <c r="E310" t="s">
         <v>204</v>
-      </c>
-      <c r="D310" t="s">
-        <v>33</v>
-      </c>
-      <c r="E310" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="311" spans="1:5">
@@ -6278,13 +6281,13 @@
         <v>900629</v>
       </c>
       <c r="C311" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D311" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="E311" t="s">
-        <v>76</v>
+        <v>28</v>
       </c>
     </row>
     <row r="312" spans="1:5">
@@ -6295,13 +6298,13 @@
         <v>900629</v>
       </c>
       <c r="C312" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D312" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="E312" t="s">
-        <v>205</v>
+        <v>39</v>
       </c>
     </row>
     <row r="313" spans="1:5">
@@ -6312,13 +6315,13 @@
         <v>900629</v>
       </c>
       <c r="C313" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D313" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="E313" t="s">
-        <v>30</v>
+        <v>79</v>
       </c>
     </row>
     <row r="314" spans="1:5">
@@ -6329,13 +6332,13 @@
         <v>900629</v>
       </c>
       <c r="C314" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D314" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="E314" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
     </row>
     <row r="315" spans="1:5">
@@ -6343,16 +6346,16 @@
         <v>313</v>
       </c>
       <c r="B315" t="n">
-        <v>555556047</v>
+        <v>900629</v>
       </c>
       <c r="C315" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D315" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="E315" t="s">
-        <v>207</v>
+        <v>30</v>
       </c>
     </row>
     <row r="316" spans="1:5">
@@ -6360,16 +6363,16 @@
         <v>314</v>
       </c>
       <c r="B316" t="n">
-        <v>555556047</v>
+        <v>900629</v>
       </c>
       <c r="C316" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D316" t="s">
-        <v>5</v>
+        <v>37</v>
       </c>
       <c r="E316" t="s">
-        <v>69</v>
+        <v>204</v>
       </c>
     </row>
     <row r="317" spans="1:5">
@@ -6380,13 +6383,13 @@
         <v>555556047</v>
       </c>
       <c r="C317" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D317" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="E317" t="s">
-        <v>163</v>
+        <v>208</v>
       </c>
     </row>
     <row r="318" spans="1:5">
@@ -6394,16 +6397,16 @@
         <v>316</v>
       </c>
       <c r="B318" t="n">
-        <v>5001</v>
+        <v>555556047</v>
       </c>
       <c r="C318" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D318" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="E318" t="s">
-        <v>34</v>
+        <v>72</v>
       </c>
     </row>
     <row r="319" spans="1:5">
@@ -6411,16 +6414,16 @@
         <v>317</v>
       </c>
       <c r="B319" t="n">
-        <v>5001</v>
+        <v>555556047</v>
       </c>
       <c r="C319" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D319" t="s">
-        <v>37</v>
+        <v>7</v>
       </c>
       <c r="E319" t="s">
-        <v>49</v>
+        <v>164</v>
       </c>
     </row>
     <row r="320" spans="1:5">
@@ -6428,16 +6431,16 @@
         <v>318</v>
       </c>
       <c r="B320" t="n">
-        <v>198296</v>
+        <v>5001</v>
       </c>
       <c r="C320" t="s">
         <v>209</v>
       </c>
       <c r="D320" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="E320" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
     </row>
     <row r="321" spans="1:5">
@@ -6445,16 +6448,16 @@
         <v>319</v>
       </c>
       <c r="B321" t="n">
-        <v>17759</v>
+        <v>5001</v>
       </c>
       <c r="C321" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D321" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="E321" t="s">
-        <v>26</v>
+        <v>49</v>
       </c>
     </row>
     <row r="322" spans="1:5">
@@ -6462,15 +6465,49 @@
         <v>320</v>
       </c>
       <c r="B322" t="n">
-        <v>17759</v>
+        <v>198296</v>
       </c>
       <c r="C322" t="s">
         <v>210</v>
       </c>
       <c r="D322" t="s">
+        <v>21</v>
+      </c>
+      <c r="E322" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="323" spans="1:5">
+      <c r="A323" s="1" t="n">
+        <v>321</v>
+      </c>
+      <c r="B323" t="n">
+        <v>17759</v>
+      </c>
+      <c r="C323" t="s">
+        <v>211</v>
+      </c>
+      <c r="D323" t="s">
+        <v>21</v>
+      </c>
+      <c r="E323" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="324" spans="1:5">
+      <c r="A324" s="1" t="n">
+        <v>322</v>
+      </c>
+      <c r="B324" t="n">
+        <v>17759</v>
+      </c>
+      <c r="C324" t="s">
+        <v>211</v>
+      </c>
+      <c r="D324" t="s">
         <v>7</v>
       </c>
-      <c r="E322" t="s">
+      <c r="E324" t="s">
         <v>49</v>
       </c>
     </row>

--- a/output_changed_stats.xlsx
+++ b/output_changed_stats.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="227">
   <si>
     <t>wdpaid</t>
   </si>
@@ -181,6 +181,12 @@
     <t>Mount Sanqingshan National Park</t>
   </si>
   <si>
+    <t>Islands and Protected Areas of the Gulf of California</t>
+  </si>
+  <si>
+    <t>Good -&gt; High Concern</t>
+  </si>
+  <si>
     <t>El Pinacate and Gran Desierto de Altar Biosphere Reserve</t>
   </si>
   <si>
@@ -226,6 +232,12 @@
     <t>Some Concern -&gt; Effective</t>
   </si>
   <si>
+    <t>Central Suriname Nature Reserve</t>
+  </si>
+  <si>
+    <t>Low Threat -&gt; Very Low Threat</t>
+  </si>
+  <si>
     <t>Rainforests of the Atsinanana</t>
   </si>
   <si>
@@ -244,12 +256,30 @@
     <t>Highly Effective -&gt; Effective</t>
   </si>
   <si>
+    <t>Mount Athos</t>
+  </si>
+  <si>
     <t>Ogasawara Islands</t>
   </si>
   <si>
+    <t>Taï National Park</t>
+  </si>
+  <si>
+    <t>nan -&gt; Low Threat</t>
+  </si>
+  <si>
+    <t>High Concern -&gt; Data Deficient</t>
+  </si>
+  <si>
     <t>Selous Game Reserve</t>
   </si>
   <si>
+    <t>Tongariro National Park</t>
+  </si>
+  <si>
+    <t>Good -&gt; Low Concern</t>
+  </si>
+  <si>
     <t>Comoé National Park</t>
   </si>
   <si>
@@ -289,9 +319,6 @@
     <t>Low Concern -&gt; High Concern</t>
   </si>
   <si>
-    <t>High Concern -&gt; Data Deficient</t>
-  </si>
-  <si>
     <t>Djoudj National Bird Sanctuary</t>
   </si>
   <si>
@@ -310,6 +337,12 @@
     <t>Natural and Cultural Heritage of the Ohrid region</t>
   </si>
   <si>
+    <t>Pirin National Park</t>
+  </si>
+  <si>
+    <t>Data Deficient -&gt; High Concern</t>
+  </si>
+  <si>
     <t>Pitons, cirques and remparts of Reunion Island</t>
   </si>
   <si>
@@ -337,12 +370,6 @@
     <t>Škocjan Caves</t>
   </si>
   <si>
-    <t>Good -&gt; Significant Concern</t>
-  </si>
-  <si>
-    <t>Good -&gt; Low Concern</t>
-  </si>
-  <si>
     <t>Sangha Trinational</t>
   </si>
   <si>
@@ -355,9 +382,6 @@
     <t>Ischigualasto / Talampaya Natural Parks</t>
   </si>
   <si>
-    <t>nan -&gt; Low Threat</t>
-  </si>
-  <si>
     <t>Improving -&gt; Deteriorating</t>
   </si>
   <si>
@@ -367,6 +391,12 @@
     <t>Ilulissat Icefjord</t>
   </si>
   <si>
+    <t>Río Abiseo National Park</t>
+  </si>
+  <si>
+    <t>Low Concern -&gt; Data Deficient</t>
+  </si>
+  <si>
     <t>Caves of Aggtelek Karst and Slovak Karst</t>
   </si>
   <si>
@@ -376,9 +406,6 @@
     <t>Effective -&gt; Serious Concern</t>
   </si>
   <si>
-    <t>Good -&gt; High Concern</t>
-  </si>
-  <si>
     <t>Dja Faunal Reserve</t>
   </si>
   <si>
@@ -394,6 +421,9 @@
     <t>Brazilian Atlantic Islands: Fernando de Noronha and Atol das Rocas Reserves</t>
   </si>
   <si>
+    <t>Primeval Beech Forests of the Carpathians and Other Regions of Europe</t>
+  </si>
+  <si>
     <t>Monarch Butterfly Biosphere Reserve</t>
   </si>
   <si>
@@ -409,12 +439,6 @@
     <t>Shirakami-Sanchi</t>
   </si>
   <si>
-    <t>Low Threat -&gt; Very Low Threat</t>
-  </si>
-  <si>
-    <t>Low Concern -&gt; Data Deficient</t>
-  </si>
-  <si>
     <t>Laurisilva of Madeira</t>
   </si>
   <si>
@@ -472,6 +496,9 @@
     <t>Mount Huangshan</t>
   </si>
   <si>
+    <t>Wulingyuan Scenic and Historic Interest Area</t>
+  </si>
+  <si>
     <t>Uvs Nuur Basin</t>
   </si>
   <si>
@@ -532,9 +559,15 @@
     <t>Nahanni National Park</t>
   </si>
   <si>
+    <t>Białowieża Forest</t>
+  </si>
+  <si>
     <t>Galápagos Islands</t>
   </si>
   <si>
+    <t>Lakes of Ounianga</t>
+  </si>
+  <si>
     <t>Plitvice Lakes National Park</t>
   </si>
   <si>
@@ -547,9 +580,18 @@
     <t>Data Deficient -&gt; nan</t>
   </si>
   <si>
+    <t>Belize Barrier Reef Reserve System</t>
+  </si>
+  <si>
     <t>Alejandro de Humboldt National Park</t>
   </si>
   <si>
+    <t>Sangay National Park</t>
+  </si>
+  <si>
+    <t>Deteriorating -&gt; Stable</t>
+  </si>
+  <si>
     <t>Historic Sanctuary of Machu Picchu</t>
   </si>
   <si>
@@ -568,6 +610,9 @@
     <t>Western Ghats</t>
   </si>
   <si>
+    <t>Jiuzhaigou Valley Scenic and Historic Interest Area</t>
+  </si>
+  <si>
     <t>Yakushima</t>
   </si>
   <si>
@@ -586,6 +631,9 @@
     <t>Kakadu National Park</t>
   </si>
   <si>
+    <t>Volcanoes of Kamchatka</t>
+  </si>
+  <si>
     <t>Dinosaur Provincial Park</t>
   </si>
   <si>
@@ -626,9 +674,6 @@
   </si>
   <si>
     <t>Giant's Causeway and Causeway Coast</t>
-  </si>
-  <si>
-    <t>Deteriorating -&gt; Stable</t>
   </si>
   <si>
     <t>Central Sikhote-Alin</t>
@@ -998,7 +1043,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E324"/>
+  <dimension ref="A1:E372"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1688,7 +1733,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>555556046</v>
+        <v>902481</v>
       </c>
       <c r="C41" t="s">
         <v>55</v>
@@ -1705,16 +1750,16 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>555556046</v>
+        <v>902481</v>
       </c>
       <c r="C42" t="s">
         <v>55</v>
       </c>
       <c r="D42" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E42" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1722,16 +1767,16 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>555556046</v>
+        <v>902481</v>
       </c>
       <c r="C43" t="s">
         <v>55</v>
       </c>
       <c r="D43" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="E43" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1739,16 +1784,16 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>900630</v>
+        <v>902481</v>
       </c>
       <c r="C44" t="s">
+        <v>55</v>
+      </c>
+      <c r="D44" t="s">
+        <v>29</v>
+      </c>
+      <c r="E44" t="s">
         <v>56</v>
-      </c>
-      <c r="D44" t="s">
-        <v>21</v>
-      </c>
-      <c r="E44" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1756,16 +1801,16 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>478637</v>
+        <v>902481</v>
       </c>
       <c r="C45" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D45" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="E45" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1773,16 +1818,16 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>903133</v>
+        <v>555556046</v>
       </c>
       <c r="C46" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D46" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="E46" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1790,16 +1835,16 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>903133</v>
+        <v>555556046</v>
       </c>
       <c r="C47" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D47" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="E47" t="s">
-        <v>60</v>
+        <v>34</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1807,16 +1852,16 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>903130</v>
+        <v>555556046</v>
       </c>
       <c r="C48" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D48" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="E48" t="s">
-        <v>62</v>
+        <v>26</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1824,16 +1869,16 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>903130</v>
+        <v>900630</v>
       </c>
       <c r="C49" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D49" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="E49" t="s">
-        <v>63</v>
+        <v>22</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1841,16 +1886,16 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>903130</v>
+        <v>478637</v>
       </c>
       <c r="C50" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D50" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="E50" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1858,16 +1903,16 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>145586</v>
+        <v>903133</v>
       </c>
       <c r="C51" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D51" t="s">
-        <v>37</v>
+        <v>5</v>
       </c>
       <c r="E51" t="s">
-        <v>11</v>
+        <v>61</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1875,16 +1920,16 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>4327</v>
+        <v>903133</v>
       </c>
       <c r="C52" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="D52" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="E52" t="s">
-        <v>34</v>
+        <v>62</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1892,16 +1937,16 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>2570</v>
+        <v>903130</v>
       </c>
       <c r="C53" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D53" t="s">
         <v>13</v>
       </c>
       <c r="E53" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -1909,16 +1954,16 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>2570</v>
+        <v>903130</v>
       </c>
       <c r="C54" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D54" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="E54" t="s">
-        <v>26</v>
+        <v>65</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -1926,16 +1971,16 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>902899</v>
+        <v>903130</v>
       </c>
       <c r="C55" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="D55" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="E55" t="s">
-        <v>69</v>
+        <v>40</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -1943,16 +1988,16 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>903062</v>
+        <v>145586</v>
       </c>
       <c r="C56" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D56" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="E56" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -1960,16 +2005,16 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>555542337</v>
+        <v>4327</v>
       </c>
       <c r="C57" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D57" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="E57" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -1977,16 +2022,16 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>555542337</v>
+        <v>2570</v>
       </c>
       <c r="C58" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D58" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="E58" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -1994,16 +2039,16 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>555542337</v>
+        <v>2570</v>
       </c>
       <c r="C59" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D59" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="E59" t="s">
-        <v>49</v>
+        <v>26</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -2011,16 +2056,16 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>555542337</v>
+        <v>902899</v>
       </c>
       <c r="C60" t="s">
+        <v>70</v>
+      </c>
+      <c r="D60" t="s">
+        <v>21</v>
+      </c>
+      <c r="E60" t="s">
         <v>71</v>
-      </c>
-      <c r="D60" t="s">
-        <v>7</v>
-      </c>
-      <c r="E60" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -2028,16 +2073,16 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>555512003</v>
+        <v>220298</v>
       </c>
       <c r="C61" t="s">
+        <v>72</v>
+      </c>
+      <c r="D61" t="s">
+        <v>35</v>
+      </c>
+      <c r="E61" t="s">
         <v>73</v>
-      </c>
-      <c r="D61" t="s">
-        <v>33</v>
-      </c>
-      <c r="E61" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -2045,16 +2090,16 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>900879</v>
+        <v>220298</v>
       </c>
       <c r="C62" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D62" t="s">
         <v>21</v>
       </c>
       <c r="E62" t="s">
-        <v>75</v>
+        <v>22</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -2062,16 +2107,16 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>555542336</v>
+        <v>903062</v>
       </c>
       <c r="C63" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D63" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="E63" t="s">
-        <v>49</v>
+        <v>24</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -2079,16 +2124,16 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>555542336</v>
+        <v>555542337</v>
       </c>
       <c r="C64" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D64" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="E64" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -2096,16 +2141,16 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>555542336</v>
+        <v>555542337</v>
       </c>
       <c r="C65" t="s">
+        <v>75</v>
+      </c>
+      <c r="D65" t="s">
+        <v>29</v>
+      </c>
+      <c r="E65" t="s">
         <v>76</v>
-      </c>
-      <c r="D65" t="s">
-        <v>7</v>
-      </c>
-      <c r="E65" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -2113,16 +2158,16 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>5005</v>
+        <v>555542337</v>
       </c>
       <c r="C66" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D66" t="s">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="E66" t="s">
-        <v>14</v>
+        <v>49</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -2130,16 +2175,16 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>5005</v>
+        <v>555542337</v>
       </c>
       <c r="C67" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D67" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E67" t="s">
-        <v>8</v>
+        <v>49</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -2147,16 +2192,16 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>5005</v>
+        <v>555512003</v>
       </c>
       <c r="C68" t="s">
         <v>77</v>
       </c>
       <c r="D68" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="E68" t="s">
-        <v>8</v>
+        <v>64</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -2164,16 +2209,16 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>9545</v>
+        <v>900879</v>
       </c>
       <c r="C69" t="s">
         <v>78</v>
       </c>
       <c r="D69" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E69" t="s">
-        <v>45</v>
+        <v>79</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -2181,16 +2226,16 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>9545</v>
+        <v>18863</v>
       </c>
       <c r="C70" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D70" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E70" t="s">
-        <v>79</v>
+        <v>34</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -2198,16 +2243,16 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>9545</v>
+        <v>18863</v>
       </c>
       <c r="C71" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D71" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="E71" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -2215,16 +2260,16 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>9545</v>
+        <v>555542336</v>
       </c>
       <c r="C72" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="D72" t="s">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="E72" t="s">
-        <v>80</v>
+        <v>49</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -2232,16 +2277,16 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>9545</v>
+        <v>555542336</v>
       </c>
       <c r="C73" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="D73" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="E73" t="s">
-        <v>81</v>
+        <v>6</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -2249,16 +2294,16 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>9545</v>
+        <v>555542336</v>
       </c>
       <c r="C74" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="D74" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="E74" t="s">
-        <v>82</v>
+        <v>40</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -2266,16 +2311,16 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>2574</v>
+        <v>5003</v>
       </c>
       <c r="C75" t="s">
+        <v>82</v>
+      </c>
+      <c r="D75" t="s">
+        <v>13</v>
+      </c>
+      <c r="E75" t="s">
         <v>83</v>
-      </c>
-      <c r="D75" t="s">
-        <v>21</v>
-      </c>
-      <c r="E75" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -2283,16 +2328,16 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>903138</v>
+        <v>5003</v>
       </c>
       <c r="C76" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D76" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="E76" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -2300,16 +2345,16 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>903138</v>
+        <v>5003</v>
       </c>
       <c r="C77" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D77" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="E77" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -2317,16 +2362,16 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>903138</v>
+        <v>5003</v>
       </c>
       <c r="C78" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D78" t="s">
         <v>5</v>
       </c>
       <c r="E78" t="s">
-        <v>50</v>
+        <v>84</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -2334,16 +2379,16 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>903138</v>
+        <v>5005</v>
       </c>
       <c r="C79" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D79" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="E79" t="s">
-        <v>51</v>
+        <v>14</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -2351,16 +2396,16 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>2006</v>
+        <v>5005</v>
       </c>
       <c r="C80" t="s">
         <v>85</v>
       </c>
       <c r="D80" t="s">
-        <v>37</v>
+        <v>5</v>
       </c>
       <c r="E80" t="s">
-        <v>86</v>
+        <v>8</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -2368,16 +2413,16 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>9628</v>
+        <v>5005</v>
       </c>
       <c r="C81" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D81" t="s">
-        <v>37</v>
+        <v>7</v>
       </c>
       <c r="E81" t="s">
-        <v>49</v>
+        <v>8</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -2385,16 +2430,16 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>2017</v>
+        <v>26649</v>
       </c>
       <c r="C82" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D82" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="E82" t="s">
-        <v>14</v>
+        <v>87</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -2402,16 +2447,16 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>900883</v>
+        <v>26649</v>
       </c>
       <c r="C83" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D83" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="E83" t="s">
-        <v>42</v>
+        <v>65</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -2419,16 +2464,16 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>900883</v>
+        <v>26649</v>
       </c>
       <c r="C84" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D84" t="s">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="E84" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -2436,16 +2481,16 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>900883</v>
+        <v>9545</v>
       </c>
       <c r="C85" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D85" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="E85" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -2453,16 +2498,16 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>900883</v>
+        <v>9545</v>
       </c>
       <c r="C86" t="s">
+        <v>88</v>
+      </c>
+      <c r="D86" t="s">
+        <v>33</v>
+      </c>
+      <c r="E86" t="s">
         <v>89</v>
-      </c>
-      <c r="D86" t="s">
-        <v>13</v>
-      </c>
-      <c r="E86" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -2470,16 +2515,16 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>900883</v>
+        <v>9545</v>
       </c>
       <c r="C87" t="s">
+        <v>88</v>
+      </c>
+      <c r="D87" t="s">
+        <v>35</v>
+      </c>
+      <c r="E87" t="s">
         <v>89</v>
-      </c>
-      <c r="D87" t="s">
-        <v>21</v>
-      </c>
-      <c r="E87" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -2487,13 +2532,13 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>900883</v>
+        <v>9545</v>
       </c>
       <c r="C88" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D88" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="E88" t="s">
         <v>90</v>
@@ -2504,16 +2549,16 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>900883</v>
+        <v>9545</v>
       </c>
       <c r="C89" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D89" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="E89" t="s">
-        <v>43</v>
+        <v>91</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -2521,16 +2566,16 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>900883</v>
+        <v>9545</v>
       </c>
       <c r="C90" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D90" t="s">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="E90" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -2538,16 +2583,16 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>2578</v>
+        <v>2574</v>
       </c>
       <c r="C91" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D91" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="E91" t="s">
-        <v>50</v>
+        <v>22</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -2555,16 +2600,16 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>2578</v>
+        <v>903138</v>
       </c>
       <c r="C92" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D92" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="E92" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -2572,16 +2617,16 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>902480</v>
+        <v>903138</v>
       </c>
       <c r="C93" t="s">
         <v>94</v>
       </c>
       <c r="D93" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E93" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -2589,16 +2634,16 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>902480</v>
+        <v>903138</v>
       </c>
       <c r="C94" t="s">
         <v>94</v>
       </c>
       <c r="D94" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="E94" t="s">
-        <v>79</v>
+        <v>50</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -2606,16 +2651,16 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>902480</v>
+        <v>903138</v>
       </c>
       <c r="C95" t="s">
         <v>94</v>
       </c>
       <c r="D95" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="E95" t="s">
-        <v>79</v>
+        <v>51</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -2623,16 +2668,16 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>902480</v>
+        <v>2006</v>
       </c>
       <c r="C96" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D96" t="s">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="E96" t="s">
-        <v>20</v>
+        <v>96</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -2640,16 +2685,16 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>902480</v>
+        <v>9628</v>
       </c>
       <c r="C97" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="D97" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="E97" t="s">
-        <v>22</v>
+        <v>49</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -2657,16 +2702,16 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>902480</v>
+        <v>2017</v>
       </c>
       <c r="C98" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="D98" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="E98" t="s">
-        <v>82</v>
+        <v>14</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -2674,16 +2719,16 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>902480</v>
+        <v>900883</v>
       </c>
       <c r="C99" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="D99" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="E99" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -2691,13 +2736,13 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>555512002</v>
+        <v>900883</v>
       </c>
       <c r="C100" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="D100" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="E100" t="s">
         <v>34</v>
@@ -2708,16 +2753,16 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>555512002</v>
+        <v>900883</v>
       </c>
       <c r="C101" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="D101" t="s">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="E101" t="s">
-        <v>59</v>
+        <v>34</v>
       </c>
     </row>
     <row r="102" spans="1:5">
@@ -2725,16 +2770,16 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>555512002</v>
+        <v>900883</v>
       </c>
       <c r="C102" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="D102" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="E102" t="s">
-        <v>96</v>
+        <v>34</v>
       </c>
     </row>
     <row r="103" spans="1:5">
@@ -2742,16 +2787,16 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>2015</v>
+        <v>900883</v>
       </c>
       <c r="C103" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D103" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="E103" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
     </row>
     <row r="104" spans="1:5">
@@ -2759,16 +2804,16 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>2015</v>
+        <v>900883</v>
       </c>
       <c r="C104" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D104" t="s">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="E104" t="s">
-        <v>49</v>
+        <v>100</v>
       </c>
     </row>
     <row r="105" spans="1:5">
@@ -2776,16 +2821,16 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>555512006</v>
+        <v>900883</v>
       </c>
       <c r="C105" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D105" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="E105" t="s">
-        <v>99</v>
+        <v>43</v>
       </c>
     </row>
     <row r="106" spans="1:5">
@@ -2793,16 +2838,16 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>555512006</v>
+        <v>900883</v>
       </c>
       <c r="C106" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D106" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="E106" t="s">
-        <v>100</v>
+        <v>84</v>
       </c>
     </row>
     <row r="107" spans="1:5">
@@ -2810,16 +2855,16 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>555512006</v>
+        <v>2578</v>
       </c>
       <c r="C107" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="D107" t="s">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="E107" t="s">
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="108" spans="1:5">
@@ -2827,16 +2872,16 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>555512006</v>
+        <v>2578</v>
       </c>
       <c r="C108" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="D108" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="E108" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="109" spans="1:5">
@@ -2844,16 +2889,16 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>555512006</v>
+        <v>902480</v>
       </c>
       <c r="C109" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="D109" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E109" t="s">
-        <v>101</v>
+        <v>45</v>
       </c>
     </row>
     <row r="110" spans="1:5">
@@ -2861,16 +2906,16 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>555512006</v>
+        <v>902480</v>
       </c>
       <c r="C110" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="D110" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E110" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
     </row>
     <row r="111" spans="1:5">
@@ -2878,16 +2923,16 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>555512006</v>
+        <v>902480</v>
       </c>
       <c r="C111" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="D111" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E111" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
     </row>
     <row r="112" spans="1:5">
@@ -2895,16 +2940,16 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>555512006</v>
+        <v>902480</v>
       </c>
       <c r="C112" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="D112" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="E112" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="113" spans="1:5">
@@ -2912,16 +2957,16 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>903139</v>
+        <v>902480</v>
       </c>
       <c r="C113" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D113" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="E113" t="s">
-        <v>62</v>
+        <v>22</v>
       </c>
     </row>
     <row r="114" spans="1:5">
@@ -2929,16 +2974,16 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>903139</v>
+        <v>902480</v>
       </c>
       <c r="C114" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D114" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="E114" t="s">
-        <v>75</v>
+        <v>92</v>
       </c>
     </row>
     <row r="115" spans="1:5">
@@ -2946,16 +2991,16 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>903139</v>
+        <v>902480</v>
       </c>
       <c r="C115" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D115" t="s">
-        <v>5</v>
+        <v>37</v>
       </c>
       <c r="E115" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
     </row>
     <row r="116" spans="1:5">
@@ -2963,16 +3008,16 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>903139</v>
+        <v>555512002</v>
       </c>
       <c r="C116" t="s">
         <v>104</v>
       </c>
       <c r="D116" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="E116" t="s">
-        <v>93</v>
+        <v>34</v>
       </c>
     </row>
     <row r="117" spans="1:5">
@@ -2980,16 +3025,16 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>478641</v>
+        <v>555512002</v>
       </c>
       <c r="C117" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D117" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="E117" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
     </row>
     <row r="118" spans="1:5">
@@ -2997,16 +3042,16 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>478641</v>
+        <v>555512002</v>
       </c>
       <c r="C118" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D118" t="s">
         <v>7</v>
       </c>
       <c r="E118" t="s">
-        <v>49</v>
+        <v>105</v>
       </c>
     </row>
     <row r="119" spans="1:5">
@@ -3014,16 +3059,16 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>12209</v>
+        <v>2015</v>
       </c>
       <c r="C119" t="s">
         <v>106</v>
       </c>
       <c r="D119" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="E119" t="s">
-        <v>107</v>
+        <v>30</v>
       </c>
     </row>
     <row r="120" spans="1:5">
@@ -3031,16 +3076,16 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>12209</v>
+        <v>2015</v>
       </c>
       <c r="C120" t="s">
         <v>106</v>
       </c>
       <c r="D120" t="s">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="E120" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
     </row>
     <row r="121" spans="1:5">
@@ -3048,16 +3093,16 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>12209</v>
+        <v>9613</v>
       </c>
       <c r="C121" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D121" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E121" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
     </row>
     <row r="122" spans="1:5">
@@ -3065,16 +3110,16 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>12209</v>
+        <v>9613</v>
       </c>
       <c r="C122" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D122" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="E122" t="s">
-        <v>14</v>
+        <v>48</v>
       </c>
     </row>
     <row r="123" spans="1:5">
@@ -3082,16 +3127,16 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>12209</v>
+        <v>9613</v>
       </c>
       <c r="C123" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D123" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="E123" t="s">
-        <v>26</v>
+        <v>108</v>
       </c>
     </row>
     <row r="124" spans="1:5">
@@ -3099,16 +3144,16 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>12209</v>
+        <v>9613</v>
       </c>
       <c r="C124" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D124" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="E124" t="s">
-        <v>108</v>
+        <v>11</v>
       </c>
     </row>
     <row r="125" spans="1:5">
@@ -3116,16 +3161,16 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>12209</v>
+        <v>555512006</v>
       </c>
       <c r="C125" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="D125" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="E125" t="s">
-        <v>11</v>
+        <v>110</v>
       </c>
     </row>
     <row r="126" spans="1:5">
@@ -3133,16 +3178,16 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>555547988</v>
+        <v>555512006</v>
       </c>
       <c r="C126" t="s">
         <v>109</v>
       </c>
       <c r="D126" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="E126" t="s">
-        <v>49</v>
+        <v>111</v>
       </c>
     </row>
     <row r="127" spans="1:5">
@@ -3150,16 +3195,16 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>10901</v>
+        <v>555512006</v>
       </c>
       <c r="C127" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D127" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E127" t="s">
-        <v>79</v>
+        <v>111</v>
       </c>
     </row>
     <row r="128" spans="1:5">
@@ -3167,16 +3212,16 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>10901</v>
+        <v>555512006</v>
       </c>
       <c r="C128" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D128" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="E128" t="s">
-        <v>79</v>
+        <v>111</v>
       </c>
     </row>
     <row r="129" spans="1:5">
@@ -3184,16 +3229,16 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>10901</v>
+        <v>555512006</v>
       </c>
       <c r="C129" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D129" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="E129" t="s">
-        <v>34</v>
+        <v>112</v>
       </c>
     </row>
     <row r="130" spans="1:5">
@@ -3201,16 +3246,16 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>555547991</v>
+        <v>555512006</v>
       </c>
       <c r="C130" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D130" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="E130" t="s">
-        <v>62</v>
+        <v>113</v>
       </c>
     </row>
     <row r="131" spans="1:5">
@@ -3218,16 +3263,16 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>555547991</v>
+        <v>555512006</v>
       </c>
       <c r="C131" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D131" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E131" t="s">
-        <v>62</v>
+        <v>114</v>
       </c>
     </row>
     <row r="132" spans="1:5">
@@ -3235,16 +3280,16 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>220291</v>
+        <v>555512006</v>
       </c>
       <c r="C132" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D132" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="E132" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="133" spans="1:5">
@@ -3252,16 +3297,16 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>220291</v>
+        <v>903139</v>
       </c>
       <c r="C133" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="D133" t="s">
         <v>13</v>
       </c>
       <c r="E133" t="s">
-        <v>113</v>
+        <v>64</v>
       </c>
     </row>
     <row r="134" spans="1:5">
@@ -3269,16 +3314,16 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>220291</v>
+        <v>903139</v>
       </c>
       <c r="C134" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="D134" t="s">
         <v>21</v>
       </c>
       <c r="E134" t="s">
-        <v>26</v>
+        <v>79</v>
       </c>
     </row>
     <row r="135" spans="1:5">
@@ -3286,16 +3331,16 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>220291</v>
+        <v>903139</v>
       </c>
       <c r="C135" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="D135" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E135" t="s">
-        <v>114</v>
+        <v>65</v>
       </c>
     </row>
     <row r="136" spans="1:5">
@@ -3303,16 +3348,16 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>9632</v>
+        <v>903139</v>
       </c>
       <c r="C136" t="s">
         <v>115</v>
       </c>
       <c r="D136" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="E136" t="s">
-        <v>39</v>
+        <v>102</v>
       </c>
     </row>
     <row r="137" spans="1:5">
@@ -3320,16 +3365,16 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>902373</v>
+        <v>478641</v>
       </c>
       <c r="C137" t="s">
         <v>116</v>
       </c>
       <c r="D137" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="E137" t="s">
-        <v>90</v>
+        <v>71</v>
       </c>
     </row>
     <row r="138" spans="1:5">
@@ -3337,16 +3382,16 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>93292</v>
+        <v>478641</v>
       </c>
       <c r="C138" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D138" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="E138" t="s">
-        <v>18</v>
+        <v>49</v>
       </c>
     </row>
     <row r="139" spans="1:5">
@@ -3354,16 +3399,16 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>93292</v>
+        <v>12209</v>
       </c>
       <c r="C139" t="s">
         <v>117</v>
       </c>
       <c r="D139" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="E139" t="s">
-        <v>62</v>
+        <v>18</v>
       </c>
     </row>
     <row r="140" spans="1:5">
@@ -3371,16 +3416,16 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>26689</v>
+        <v>12209</v>
       </c>
       <c r="C140" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D140" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="E140" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
     </row>
     <row r="141" spans="1:5">
@@ -3388,13 +3433,13 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>26689</v>
+        <v>12209</v>
       </c>
       <c r="C141" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D141" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E141" t="s">
         <v>34</v>
@@ -3405,16 +3450,16 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>26689</v>
+        <v>12209</v>
       </c>
       <c r="C142" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D142" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="E142" t="s">
-        <v>34</v>
+        <v>87</v>
       </c>
     </row>
     <row r="143" spans="1:5">
@@ -3422,16 +3467,16 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>26689</v>
+        <v>12209</v>
       </c>
       <c r="C143" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D143" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="E143" t="s">
-        <v>119</v>
+        <v>11</v>
       </c>
     </row>
     <row r="144" spans="1:5">
@@ -3439,16 +3484,16 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>26689</v>
+        <v>555547988</v>
       </c>
       <c r="C144" t="s">
         <v>118</v>
       </c>
       <c r="D144" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="E144" t="s">
-        <v>120</v>
+        <v>49</v>
       </c>
     </row>
     <row r="145" spans="1:5">
@@ -3456,16 +3501,16 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>26689</v>
+        <v>10901</v>
       </c>
       <c r="C145" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D145" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="E145" t="s">
-        <v>43</v>
+        <v>89</v>
       </c>
     </row>
     <row r="146" spans="1:5">
@@ -3473,16 +3518,16 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>26689</v>
+        <v>10901</v>
       </c>
       <c r="C146" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D146" t="s">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="E146" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="147" spans="1:5">
@@ -3490,16 +3535,16 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>26689</v>
+        <v>10901</v>
       </c>
       <c r="C147" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D147" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="E147" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
     </row>
     <row r="148" spans="1:5">
@@ -3507,16 +3552,16 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>17758</v>
+        <v>555547991</v>
       </c>
       <c r="C148" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D148" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E148" t="s">
-        <v>14</v>
+        <v>64</v>
       </c>
     </row>
     <row r="149" spans="1:5">
@@ -3524,16 +3569,16 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>17758</v>
+        <v>555547991</v>
       </c>
       <c r="C149" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D149" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="E149" t="s">
-        <v>79</v>
+        <v>64</v>
       </c>
     </row>
     <row r="150" spans="1:5">
@@ -3541,16 +3586,16 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>17758</v>
+        <v>220291</v>
       </c>
       <c r="C150" t="s">
         <v>121</v>
       </c>
       <c r="D150" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="E150" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="151" spans="1:5">
@@ -3558,16 +3603,16 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>902482</v>
+        <v>220291</v>
       </c>
       <c r="C151" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D151" t="s">
         <v>13</v>
       </c>
       <c r="E151" t="s">
-        <v>20</v>
+        <v>83</v>
       </c>
     </row>
     <row r="152" spans="1:5">
@@ -3575,16 +3620,16 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>902482</v>
+        <v>220291</v>
       </c>
       <c r="C152" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D152" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="E152" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
     </row>
     <row r="153" spans="1:5">
@@ -3592,16 +3637,16 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>902482</v>
+        <v>220291</v>
       </c>
       <c r="C153" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D153" t="s">
         <v>7</v>
       </c>
       <c r="E153" t="s">
-        <v>8</v>
+        <v>122</v>
       </c>
     </row>
     <row r="154" spans="1:5">
@@ -3609,16 +3654,16 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>68917</v>
+        <v>9632</v>
       </c>
       <c r="C154" t="s">
         <v>123</v>
       </c>
       <c r="D154" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E154" t="s">
-        <v>124</v>
+        <v>39</v>
       </c>
     </row>
     <row r="155" spans="1:5">
@@ -3626,16 +3671,16 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>900631</v>
+        <v>902373</v>
       </c>
       <c r="C155" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D155" t="s">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="E155" t="s">
-        <v>34</v>
+        <v>100</v>
       </c>
     </row>
     <row r="156" spans="1:5">
@@ -3643,16 +3688,16 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>900631</v>
+        <v>26651</v>
       </c>
       <c r="C156" t="s">
         <v>125</v>
       </c>
       <c r="D156" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E156" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
     </row>
     <row r="157" spans="1:5">
@@ -3660,16 +3705,16 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>900631</v>
+        <v>26651</v>
       </c>
       <c r="C157" t="s">
         <v>125</v>
       </c>
       <c r="D157" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="E157" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
     </row>
     <row r="158" spans="1:5">
@@ -3677,16 +3722,16 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>903135</v>
+        <v>26651</v>
       </c>
       <c r="C158" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D158" t="s">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="E158" t="s">
-        <v>15</v>
+        <v>39</v>
       </c>
     </row>
     <row r="159" spans="1:5">
@@ -3694,16 +3739,16 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>903135</v>
+        <v>26651</v>
       </c>
       <c r="C159" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D159" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="E159" t="s">
-        <v>46</v>
+        <v>22</v>
       </c>
     </row>
     <row r="160" spans="1:5">
@@ -3711,16 +3756,16 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>4999</v>
+        <v>26651</v>
       </c>
       <c r="C160" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D160" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="E160" t="s">
-        <v>128</v>
+        <v>46</v>
       </c>
     </row>
     <row r="161" spans="1:5">
@@ -3728,16 +3773,16 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>4999</v>
+        <v>26651</v>
       </c>
       <c r="C161" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D161" t="s">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="E161" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="162" spans="1:5">
@@ -3745,16 +3790,16 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>4999</v>
+        <v>26651</v>
       </c>
       <c r="C162" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D162" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="E162" t="s">
-        <v>72</v>
+        <v>46</v>
       </c>
     </row>
     <row r="163" spans="1:5">
@@ -3762,16 +3807,16 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>900889</v>
+        <v>93292</v>
       </c>
       <c r="C163" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D163" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="E163" t="s">
-        <v>108</v>
+        <v>18</v>
       </c>
     </row>
     <row r="164" spans="1:5">
@@ -3779,16 +3824,16 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>68915</v>
+        <v>93292</v>
       </c>
       <c r="C164" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D164" t="s">
         <v>35</v>
       </c>
       <c r="E164" t="s">
-        <v>131</v>
+        <v>64</v>
       </c>
     </row>
     <row r="165" spans="1:5">
@@ -3796,16 +3841,16 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>68915</v>
+        <v>93292</v>
       </c>
       <c r="C165" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D165" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="E165" t="s">
-        <v>62</v>
+        <v>26</v>
       </c>
     </row>
     <row r="166" spans="1:5">
@@ -3813,16 +3858,16 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>68915</v>
+        <v>26689</v>
       </c>
       <c r="C166" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D166" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="E166" t="s">
-        <v>132</v>
+        <v>42</v>
       </c>
     </row>
     <row r="167" spans="1:5">
@@ -3830,16 +3875,16 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>198300</v>
+        <v>26689</v>
       </c>
       <c r="C167" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="D167" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="E167" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
     </row>
     <row r="168" spans="1:5">
@@ -3847,13 +3892,13 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>198300</v>
+        <v>26689</v>
       </c>
       <c r="C168" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="D168" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="E168" t="s">
         <v>34</v>
@@ -3864,16 +3909,16 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>198300</v>
+        <v>26689</v>
       </c>
       <c r="C169" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="D169" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="E169" t="s">
-        <v>90</v>
+        <v>129</v>
       </c>
     </row>
     <row r="170" spans="1:5">
@@ -3881,16 +3926,16 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>198300</v>
+        <v>26689</v>
       </c>
       <c r="C170" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="D170" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="E170" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
     </row>
     <row r="171" spans="1:5">
@@ -3898,16 +3943,16 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>198300</v>
+        <v>26689</v>
       </c>
       <c r="C171" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="D171" t="s">
-        <v>5</v>
+        <v>37</v>
       </c>
       <c r="E171" t="s">
-        <v>91</v>
+        <v>43</v>
       </c>
     </row>
     <row r="172" spans="1:5">
@@ -3915,16 +3960,16 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>197</v>
+        <v>26689</v>
       </c>
       <c r="C172" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="D172" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="E172" t="s">
-        <v>42</v>
+        <v>100</v>
       </c>
     </row>
     <row r="173" spans="1:5">
@@ -3932,16 +3977,16 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>197</v>
+        <v>26689</v>
       </c>
       <c r="C173" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="D173" t="s">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="E173" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
     </row>
     <row r="174" spans="1:5">
@@ -3949,16 +3994,16 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>197</v>
+        <v>17758</v>
       </c>
       <c r="C174" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D174" t="s">
         <v>35</v>
       </c>
       <c r="E174" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
     </row>
     <row r="175" spans="1:5">
@@ -3966,16 +4011,16 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>197</v>
+        <v>17758</v>
       </c>
       <c r="C175" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D175" t="s">
         <v>13</v>
       </c>
       <c r="E175" t="s">
-        <v>34</v>
+        <v>89</v>
       </c>
     </row>
     <row r="176" spans="1:5">
@@ -3983,16 +4028,16 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>197</v>
+        <v>17758</v>
       </c>
       <c r="C176" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D176" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="E176" t="s">
-        <v>90</v>
+        <v>24</v>
       </c>
     </row>
     <row r="177" spans="1:5">
@@ -4000,16 +4045,16 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>197</v>
+        <v>902482</v>
       </c>
       <c r="C177" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D177" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="E177" t="s">
-        <v>132</v>
+        <v>20</v>
       </c>
     </row>
     <row r="178" spans="1:5">
@@ -4017,16 +4062,16 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>197</v>
+        <v>902482</v>
       </c>
       <c r="C178" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D178" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E178" t="s">
-        <v>46</v>
+        <v>8</v>
       </c>
     </row>
     <row r="179" spans="1:5">
@@ -4034,16 +4079,16 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>168239</v>
+        <v>902482</v>
       </c>
       <c r="C179" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D179" t="s">
-        <v>37</v>
+        <v>7</v>
       </c>
       <c r="E179" t="s">
-        <v>136</v>
+        <v>8</v>
       </c>
     </row>
     <row r="180" spans="1:5">
@@ -4051,16 +4096,16 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>17760</v>
+        <v>68917</v>
       </c>
       <c r="C180" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="D180" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="E180" t="s">
-        <v>50</v>
+        <v>133</v>
       </c>
     </row>
     <row r="181" spans="1:5">
@@ -4068,16 +4113,16 @@
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>17760</v>
+        <v>900631</v>
       </c>
       <c r="C181" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="D181" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="E181" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
     </row>
     <row r="182" spans="1:5">
@@ -4085,16 +4130,16 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>5002</v>
+        <v>900631</v>
       </c>
       <c r="C182" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="D182" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="E182" t="s">
-        <v>8</v>
+        <v>39</v>
       </c>
     </row>
     <row r="183" spans="1:5">
@@ -4102,16 +4147,16 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>5002</v>
+        <v>900631</v>
       </c>
       <c r="C183" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="D183" t="s">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="E183" t="s">
-        <v>8</v>
+        <v>49</v>
       </c>
     </row>
     <row r="184" spans="1:5">
@@ -4119,16 +4164,16 @@
         <v>182</v>
       </c>
       <c r="B184" t="n">
-        <v>61610</v>
+        <v>903141</v>
       </c>
       <c r="C184" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="D184" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E184" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
     </row>
     <row r="185" spans="1:5">
@@ -4136,16 +4181,16 @@
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>61610</v>
+        <v>903141</v>
       </c>
       <c r="C185" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="D185" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="E185" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
     </row>
     <row r="186" spans="1:5">
@@ -4153,16 +4198,16 @@
         <v>184</v>
       </c>
       <c r="B186" t="n">
-        <v>61610</v>
+        <v>903141</v>
       </c>
       <c r="C186" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="D186" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="E186" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="187" spans="1:5">
@@ -4170,16 +4215,16 @@
         <v>185</v>
       </c>
       <c r="B187" t="n">
-        <v>61612</v>
+        <v>903141</v>
       </c>
       <c r="C187" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="D187" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="E187" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
     </row>
     <row r="188" spans="1:5">
@@ -4187,16 +4232,16 @@
         <v>186</v>
       </c>
       <c r="B188" t="n">
-        <v>61612</v>
+        <v>903135</v>
       </c>
       <c r="C188" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="D188" t="s">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="E188" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="189" spans="1:5">
@@ -4204,16 +4249,16 @@
         <v>187</v>
       </c>
       <c r="B189" t="n">
-        <v>61612</v>
+        <v>903135</v>
       </c>
       <c r="C189" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="D189" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="E189" t="s">
-        <v>141</v>
+        <v>46</v>
       </c>
     </row>
     <row r="190" spans="1:5">
@@ -4221,16 +4266,16 @@
         <v>188</v>
       </c>
       <c r="B190" t="n">
-        <v>61612</v>
+        <v>4999</v>
       </c>
       <c r="C190" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D190" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="E190" t="s">
-        <v>91</v>
+        <v>138</v>
       </c>
     </row>
     <row r="191" spans="1:5">
@@ -4238,16 +4283,16 @@
         <v>189</v>
       </c>
       <c r="B191" t="n">
-        <v>220296</v>
+        <v>4999</v>
       </c>
       <c r="C191" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="D191" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="E191" t="s">
-        <v>26</v>
+        <v>138</v>
       </c>
     </row>
     <row r="192" spans="1:5">
@@ -4255,16 +4300,16 @@
         <v>190</v>
       </c>
       <c r="B192" t="n">
-        <v>145579</v>
+        <v>4999</v>
       </c>
       <c r="C192" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="D192" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="E192" t="s">
-        <v>39</v>
+        <v>76</v>
       </c>
     </row>
     <row r="193" spans="1:5">
@@ -4272,16 +4317,16 @@
         <v>191</v>
       </c>
       <c r="B193" t="n">
-        <v>145579</v>
+        <v>900889</v>
       </c>
       <c r="C193" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="D193" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="E193" t="s">
-        <v>39</v>
+        <v>87</v>
       </c>
     </row>
     <row r="194" spans="1:5">
@@ -4289,16 +4334,16 @@
         <v>192</v>
       </c>
       <c r="B194" t="n">
-        <v>220297</v>
+        <v>68915</v>
       </c>
       <c r="C194" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="D194" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="E194" t="s">
-        <v>48</v>
+        <v>73</v>
       </c>
     </row>
     <row r="195" spans="1:5">
@@ -4306,16 +4351,16 @@
         <v>193</v>
       </c>
       <c r="B195" t="n">
-        <v>198293</v>
+        <v>68915</v>
       </c>
       <c r="C195" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="D195" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="E195" t="s">
-        <v>79</v>
+        <v>64</v>
       </c>
     </row>
     <row r="196" spans="1:5">
@@ -4323,16 +4368,16 @@
         <v>194</v>
       </c>
       <c r="B196" t="n">
-        <v>198293</v>
+        <v>68915</v>
       </c>
       <c r="C196" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="D196" t="s">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="E196" t="s">
-        <v>79</v>
+        <v>126</v>
       </c>
     </row>
     <row r="197" spans="1:5">
@@ -4340,16 +4385,16 @@
         <v>195</v>
       </c>
       <c r="B197" t="n">
-        <v>900881</v>
+        <v>198300</v>
       </c>
       <c r="C197" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="D197" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E197" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="198" spans="1:5">
@@ -4357,16 +4402,16 @@
         <v>196</v>
       </c>
       <c r="B198" t="n">
-        <v>900881</v>
+        <v>198300</v>
       </c>
       <c r="C198" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="D198" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="E198" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
     </row>
     <row r="199" spans="1:5">
@@ -4374,16 +4419,16 @@
         <v>197</v>
       </c>
       <c r="B199" t="n">
-        <v>900881</v>
+        <v>198300</v>
       </c>
       <c r="C199" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="D199" t="s">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="E199" t="s">
-        <v>8</v>
+        <v>100</v>
       </c>
     </row>
     <row r="200" spans="1:5">
@@ -4391,16 +4436,16 @@
         <v>198</v>
       </c>
       <c r="B200" t="n">
-        <v>5000</v>
+        <v>198300</v>
       </c>
       <c r="C200" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="D200" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="E200" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
     </row>
     <row r="201" spans="1:5">
@@ -4408,16 +4453,16 @@
         <v>199</v>
       </c>
       <c r="B201" t="n">
-        <v>5000</v>
+        <v>198300</v>
       </c>
       <c r="C201" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="D201" t="s">
-        <v>37</v>
+        <v>5</v>
       </c>
       <c r="E201" t="s">
-        <v>43</v>
+        <v>84</v>
       </c>
     </row>
     <row r="202" spans="1:5">
@@ -4425,16 +4470,16 @@
         <v>200</v>
       </c>
       <c r="B202" t="n">
-        <v>5000</v>
+        <v>197</v>
       </c>
       <c r="C202" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="D202" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="E202" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
     </row>
     <row r="203" spans="1:5">
@@ -4442,16 +4487,16 @@
         <v>201</v>
       </c>
       <c r="B203" t="n">
-        <v>5000</v>
+        <v>197</v>
       </c>
       <c r="C203" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="D203" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="E203" t="s">
-        <v>93</v>
+        <v>34</v>
       </c>
     </row>
     <row r="204" spans="1:5">
@@ -4459,16 +4504,16 @@
         <v>202</v>
       </c>
       <c r="B204" t="n">
-        <v>61609</v>
+        <v>197</v>
       </c>
       <c r="C204" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="D204" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="E204" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
     </row>
     <row r="205" spans="1:5">
@@ -4476,16 +4521,16 @@
         <v>203</v>
       </c>
       <c r="B205" t="n">
-        <v>61609</v>
+        <v>197</v>
       </c>
       <c r="C205" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="D205" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E205" t="s">
-        <v>40</v>
+        <v>126</v>
       </c>
     </row>
     <row r="206" spans="1:5">
@@ -4493,16 +4538,16 @@
         <v>204</v>
       </c>
       <c r="B206" t="n">
-        <v>555577556</v>
+        <v>197</v>
       </c>
       <c r="C206" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="D206" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E206" t="s">
-        <v>150</v>
+        <v>46</v>
       </c>
     </row>
     <row r="207" spans="1:5">
@@ -4510,16 +4555,16 @@
         <v>205</v>
       </c>
       <c r="B207" t="n">
-        <v>26654</v>
+        <v>168239</v>
       </c>
       <c r="C207" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="D207" t="s">
         <v>37</v>
       </c>
       <c r="E207" t="s">
-        <v>49</v>
+        <v>144</v>
       </c>
     </row>
     <row r="208" spans="1:5">
@@ -4527,16 +4572,16 @@
         <v>206</v>
       </c>
       <c r="B208" t="n">
-        <v>900880</v>
+        <v>17760</v>
       </c>
       <c r="C208" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="D208" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="E208" t="s">
-        <v>26</v>
+        <v>50</v>
       </c>
     </row>
     <row r="209" spans="1:5">
@@ -4544,16 +4589,16 @@
         <v>207</v>
       </c>
       <c r="B209" t="n">
-        <v>67725</v>
+        <v>17760</v>
       </c>
       <c r="C209" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="D209" t="s">
-        <v>37</v>
+        <v>7</v>
       </c>
       <c r="E209" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
     </row>
     <row r="210" spans="1:5">
@@ -4561,16 +4606,16 @@
         <v>208</v>
       </c>
       <c r="B210" t="n">
-        <v>902483</v>
+        <v>5002</v>
       </c>
       <c r="C210" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="D210" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="E210" t="s">
-        <v>39</v>
+        <v>8</v>
       </c>
     </row>
     <row r="211" spans="1:5">
@@ -4578,16 +4623,16 @@
         <v>209</v>
       </c>
       <c r="B211" t="n">
-        <v>902483</v>
+        <v>5002</v>
       </c>
       <c r="C211" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="D211" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="E211" t="s">
-        <v>39</v>
+        <v>8</v>
       </c>
     </row>
     <row r="212" spans="1:5">
@@ -4595,16 +4640,16 @@
         <v>210</v>
       </c>
       <c r="B212" t="n">
-        <v>93291</v>
+        <v>61610</v>
       </c>
       <c r="C212" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="D212" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="E212" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
     </row>
     <row r="213" spans="1:5">
@@ -4612,16 +4657,16 @@
         <v>211</v>
       </c>
       <c r="B213" t="n">
-        <v>93291</v>
+        <v>61610</v>
       </c>
       <c r="C213" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="D213" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E213" t="s">
-        <v>86</v>
+        <v>50</v>
       </c>
     </row>
     <row r="214" spans="1:5">
@@ -4629,16 +4674,16 @@
         <v>212</v>
       </c>
       <c r="B214" t="n">
-        <v>555577557</v>
+        <v>61610</v>
       </c>
       <c r="C214" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="D214" t="s">
-        <v>37</v>
+        <v>7</v>
       </c>
       <c r="E214" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
     </row>
     <row r="215" spans="1:5">
@@ -4646,16 +4691,16 @@
         <v>213</v>
       </c>
       <c r="B215" t="n">
-        <v>9612</v>
+        <v>61612</v>
       </c>
       <c r="C215" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="D215" t="s">
         <v>33</v>
       </c>
       <c r="E215" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
     </row>
     <row r="216" spans="1:5">
@@ -4663,16 +4708,16 @@
         <v>214</v>
       </c>
       <c r="B216" t="n">
-        <v>9612</v>
+        <v>61612</v>
       </c>
       <c r="C216" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="D216" t="s">
         <v>35</v>
       </c>
       <c r="E216" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
     </row>
     <row r="217" spans="1:5">
@@ -4680,16 +4725,16 @@
         <v>215</v>
       </c>
       <c r="B217" t="n">
-        <v>9612</v>
+        <v>61612</v>
       </c>
       <c r="C217" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="D217" t="s">
         <v>13</v>
       </c>
       <c r="E217" t="s">
-        <v>128</v>
+        <v>149</v>
       </c>
     </row>
     <row r="218" spans="1:5">
@@ -4697,16 +4742,16 @@
         <v>216</v>
       </c>
       <c r="B218" t="n">
-        <v>9612</v>
+        <v>61612</v>
       </c>
       <c r="C218" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="D218" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="E218" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
     </row>
     <row r="219" spans="1:5">
@@ -4714,16 +4759,16 @@
         <v>217</v>
       </c>
       <c r="B219" t="n">
-        <v>16793</v>
+        <v>220296</v>
       </c>
       <c r="C219" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="D219" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="E219" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
     </row>
     <row r="220" spans="1:5">
@@ -4731,16 +4776,16 @@
         <v>218</v>
       </c>
       <c r="B220" t="n">
-        <v>168241</v>
+        <v>145579</v>
       </c>
       <c r="C220" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="D220" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="E220" t="s">
-        <v>132</v>
+        <v>39</v>
       </c>
     </row>
     <row r="221" spans="1:5">
@@ -4748,16 +4793,16 @@
         <v>219</v>
       </c>
       <c r="B221" t="n">
-        <v>168241</v>
+        <v>145579</v>
       </c>
       <c r="C221" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="D221" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="E221" t="s">
-        <v>60</v>
+        <v>39</v>
       </c>
     </row>
     <row r="222" spans="1:5">
@@ -4765,16 +4810,16 @@
         <v>220</v>
       </c>
       <c r="B222" t="n">
-        <v>902479</v>
+        <v>220297</v>
       </c>
       <c r="C222" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="D222" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="E222" t="s">
-        <v>14</v>
+        <v>48</v>
       </c>
     </row>
     <row r="223" spans="1:5">
@@ -4782,16 +4827,16 @@
         <v>221</v>
       </c>
       <c r="B223" t="n">
-        <v>902479</v>
+        <v>198293</v>
       </c>
       <c r="C223" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="D223" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E223" t="s">
-        <v>14</v>
+        <v>89</v>
       </c>
     </row>
     <row r="224" spans="1:5">
@@ -4799,16 +4844,16 @@
         <v>222</v>
       </c>
       <c r="B224" t="n">
-        <v>900008</v>
+        <v>198293</v>
       </c>
       <c r="C224" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="D224" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E224" t="s">
-        <v>62</v>
+        <v>89</v>
       </c>
     </row>
     <row r="225" spans="1:5">
@@ -4816,16 +4861,16 @@
         <v>223</v>
       </c>
       <c r="B225" t="n">
-        <v>900008</v>
+        <v>900881</v>
       </c>
       <c r="C225" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="D225" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="E225" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
     </row>
     <row r="226" spans="1:5">
@@ -4833,16 +4878,16 @@
         <v>224</v>
       </c>
       <c r="B226" t="n">
-        <v>10744</v>
+        <v>900881</v>
       </c>
       <c r="C226" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="D226" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="E226" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
     </row>
     <row r="227" spans="1:5">
@@ -4850,16 +4895,16 @@
         <v>225</v>
       </c>
       <c r="B227" t="n">
-        <v>10744</v>
+        <v>900881</v>
       </c>
       <c r="C227" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="D227" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="E227" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
     </row>
     <row r="228" spans="1:5">
@@ -4867,16 +4912,16 @@
         <v>226</v>
       </c>
       <c r="B228" t="n">
-        <v>903137</v>
+        <v>5000</v>
       </c>
       <c r="C228" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="D228" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="E228" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
     </row>
     <row r="229" spans="1:5">
@@ -4884,16 +4929,16 @@
         <v>227</v>
       </c>
       <c r="B229" t="n">
-        <v>903137</v>
+        <v>5000</v>
       </c>
       <c r="C229" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="D229" t="s">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="E229" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
     </row>
     <row r="230" spans="1:5">
@@ -4901,16 +4946,16 @@
         <v>228</v>
       </c>
       <c r="B230" t="n">
-        <v>903137</v>
+        <v>5000</v>
       </c>
       <c r="C230" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="D230" t="s">
-        <v>37</v>
+        <v>7</v>
       </c>
       <c r="E230" t="s">
-        <v>164</v>
+        <v>102</v>
       </c>
     </row>
     <row r="231" spans="1:5">
@@ -4918,16 +4963,16 @@
         <v>229</v>
       </c>
       <c r="B231" t="n">
-        <v>198299</v>
+        <v>61609</v>
       </c>
       <c r="C231" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="D231" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="E231" t="s">
-        <v>39</v>
+        <v>8</v>
       </c>
     </row>
     <row r="232" spans="1:5">
@@ -4935,16 +4980,16 @@
         <v>230</v>
       </c>
       <c r="B232" t="n">
-        <v>198297</v>
+        <v>61609</v>
       </c>
       <c r="C232" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="D232" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E232" t="s">
-        <v>10</v>
+        <v>40</v>
       </c>
     </row>
     <row r="233" spans="1:5">
@@ -4952,16 +4997,16 @@
         <v>231</v>
       </c>
       <c r="B233" t="n">
-        <v>198297</v>
+        <v>555577556</v>
       </c>
       <c r="C233" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="D233" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E233" t="s">
-        <v>49</v>
+        <v>158</v>
       </c>
     </row>
     <row r="234" spans="1:5">
@@ -4969,16 +5014,16 @@
         <v>232</v>
       </c>
       <c r="B234" t="n">
-        <v>198297</v>
+        <v>26654</v>
       </c>
       <c r="C234" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="D234" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="E234" t="s">
-        <v>167</v>
+        <v>49</v>
       </c>
     </row>
     <row r="235" spans="1:5">
@@ -4986,16 +5031,16 @@
         <v>233</v>
       </c>
       <c r="B235" t="n">
-        <v>67726</v>
+        <v>67731</v>
       </c>
       <c r="C235" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="D235" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="E235" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
     </row>
     <row r="236" spans="1:5">
@@ -5003,16 +5048,16 @@
         <v>234</v>
       </c>
       <c r="B236" t="n">
-        <v>67726</v>
+        <v>67731</v>
       </c>
       <c r="C236" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="D236" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="E236" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="237" spans="1:5">
@@ -5020,16 +5065,16 @@
         <v>235</v>
       </c>
       <c r="B237" t="n">
-        <v>67730</v>
+        <v>67731</v>
       </c>
       <c r="C237" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="D237" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="E237" t="s">
-        <v>14</v>
+        <v>50</v>
       </c>
     </row>
     <row r="238" spans="1:5">
@@ -5037,16 +5082,16 @@
         <v>236</v>
       </c>
       <c r="B238" t="n">
-        <v>555577558</v>
+        <v>67731</v>
       </c>
       <c r="C238" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="D238" t="s">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="E238" t="s">
-        <v>62</v>
+        <v>8</v>
       </c>
     </row>
     <row r="239" spans="1:5">
@@ -5054,16 +5099,16 @@
         <v>237</v>
       </c>
       <c r="B239" t="n">
-        <v>2005</v>
+        <v>900880</v>
       </c>
       <c r="C239" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="D239" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="E239" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
     </row>
     <row r="240" spans="1:5">
@@ -5071,16 +5116,16 @@
         <v>238</v>
       </c>
       <c r="B240" t="n">
-        <v>2005</v>
+        <v>67725</v>
       </c>
       <c r="C240" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="D240" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="E240" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
     </row>
     <row r="241" spans="1:5">
@@ -5088,16 +5133,16 @@
         <v>239</v>
       </c>
       <c r="B241" t="n">
-        <v>191</v>
+        <v>902483</v>
       </c>
       <c r="C241" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="D241" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="E241" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
     </row>
     <row r="242" spans="1:5">
@@ -5105,16 +5150,16 @@
         <v>240</v>
       </c>
       <c r="B242" t="n">
-        <v>2016</v>
+        <v>902483</v>
       </c>
       <c r="C242" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="D242" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E242" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="243" spans="1:5">
@@ -5122,16 +5167,16 @@
         <v>241</v>
       </c>
       <c r="B243" t="n">
-        <v>2016</v>
+        <v>93291</v>
       </c>
       <c r="C243" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="D243" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="E243" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="244" spans="1:5">
@@ -5139,16 +5184,16 @@
         <v>242</v>
       </c>
       <c r="B244" t="n">
-        <v>2016</v>
+        <v>93291</v>
       </c>
       <c r="C244" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="D244" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="E244" t="s">
-        <v>26</v>
+        <v>96</v>
       </c>
     </row>
     <row r="245" spans="1:5">
@@ -5156,16 +5201,16 @@
         <v>243</v>
       </c>
       <c r="B245" t="n">
-        <v>2016</v>
+        <v>555577557</v>
       </c>
       <c r="C245" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="D245" t="s">
         <v>37</v>
       </c>
       <c r="E245" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
     </row>
     <row r="246" spans="1:5">
@@ -5173,16 +5218,16 @@
         <v>244</v>
       </c>
       <c r="B246" t="n">
-        <v>145582</v>
+        <v>9612</v>
       </c>
       <c r="C246" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="D246" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="E246" t="s">
-        <v>128</v>
+        <v>34</v>
       </c>
     </row>
     <row r="247" spans="1:5">
@@ -5190,16 +5235,16 @@
         <v>245</v>
       </c>
       <c r="B247" t="n">
-        <v>145582</v>
+        <v>9612</v>
       </c>
       <c r="C247" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="D247" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E247" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
     </row>
     <row r="248" spans="1:5">
@@ -5207,16 +5252,16 @@
         <v>246</v>
       </c>
       <c r="B248" t="n">
-        <v>145582</v>
+        <v>9612</v>
       </c>
       <c r="C248" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="D248" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="E248" t="s">
-        <v>175</v>
+        <v>138</v>
       </c>
     </row>
     <row r="249" spans="1:5">
@@ -5224,16 +5269,16 @@
         <v>247</v>
       </c>
       <c r="B249" t="n">
-        <v>145582</v>
+        <v>9612</v>
       </c>
       <c r="C249" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="D249" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="E249" t="s">
-        <v>176</v>
+        <v>26</v>
       </c>
     </row>
     <row r="250" spans="1:5">
@@ -5241,16 +5286,16 @@
         <v>248</v>
       </c>
       <c r="B250" t="n">
-        <v>145582</v>
+        <v>16793</v>
       </c>
       <c r="C250" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="D250" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="E250" t="s">
-        <v>167</v>
+        <v>39</v>
       </c>
     </row>
     <row r="251" spans="1:5">
@@ -5258,16 +5303,16 @@
         <v>249</v>
       </c>
       <c r="B251" t="n">
-        <v>900628</v>
+        <v>168241</v>
       </c>
       <c r="C251" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="D251" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="E251" t="s">
-        <v>39</v>
+        <v>126</v>
       </c>
     </row>
     <row r="252" spans="1:5">
@@ -5275,16 +5320,16 @@
         <v>250</v>
       </c>
       <c r="B252" t="n">
-        <v>900628</v>
+        <v>168241</v>
       </c>
       <c r="C252" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="D252" t="s">
-        <v>37</v>
+        <v>7</v>
       </c>
       <c r="E252" t="s">
-        <v>136</v>
+        <v>62</v>
       </c>
     </row>
     <row r="253" spans="1:5">
@@ -5292,16 +5337,16 @@
         <v>251</v>
       </c>
       <c r="B253" t="n">
-        <v>900628</v>
+        <v>902479</v>
       </c>
       <c r="C253" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="D253" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="E253" t="s">
-        <v>102</v>
+        <v>14</v>
       </c>
     </row>
     <row r="254" spans="1:5">
@@ -5309,16 +5354,16 @@
         <v>252</v>
       </c>
       <c r="B254" t="n">
-        <v>900628</v>
+        <v>902479</v>
       </c>
       <c r="C254" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="D254" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="E254" t="s">
-        <v>176</v>
+        <v>14</v>
       </c>
     </row>
     <row r="255" spans="1:5">
@@ -5326,16 +5371,16 @@
         <v>253</v>
       </c>
       <c r="B255" t="n">
-        <v>900628</v>
+        <v>900008</v>
       </c>
       <c r="C255" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="D255" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="E255" t="s">
-        <v>167</v>
+        <v>64</v>
       </c>
     </row>
     <row r="256" spans="1:5">
@@ -5343,16 +5388,16 @@
         <v>254</v>
       </c>
       <c r="B256" t="n">
-        <v>9623</v>
+        <v>900008</v>
       </c>
       <c r="C256" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="D256" t="s">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="E256" t="s">
-        <v>175</v>
+        <v>64</v>
       </c>
     </row>
     <row r="257" spans="1:5">
@@ -5360,16 +5405,16 @@
         <v>255</v>
       </c>
       <c r="B257" t="n">
-        <v>9623</v>
+        <v>10744</v>
       </c>
       <c r="C257" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="D257" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E257" t="s">
-        <v>179</v>
+        <v>28</v>
       </c>
     </row>
     <row r="258" spans="1:5">
@@ -5377,16 +5422,16 @@
         <v>256</v>
       </c>
       <c r="B258" t="n">
-        <v>9623</v>
+        <v>10744</v>
       </c>
       <c r="C258" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="D258" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="E258" t="s">
-        <v>167</v>
+        <v>30</v>
       </c>
     </row>
     <row r="259" spans="1:5">
@@ -5394,16 +5439,16 @@
         <v>257</v>
       </c>
       <c r="B259" t="n">
-        <v>2554</v>
+        <v>903137</v>
       </c>
       <c r="C259" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="D259" t="s">
         <v>33</v>
       </c>
       <c r="E259" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
     </row>
     <row r="260" spans="1:5">
@@ -5411,16 +5456,16 @@
         <v>258</v>
       </c>
       <c r="B260" t="n">
-        <v>2554</v>
+        <v>903137</v>
       </c>
       <c r="C260" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="D260" t="s">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="E260" t="s">
-        <v>91</v>
+        <v>34</v>
       </c>
     </row>
     <row r="261" spans="1:5">
@@ -5428,16 +5473,16 @@
         <v>259</v>
       </c>
       <c r="B261" t="n">
-        <v>2554</v>
+        <v>903137</v>
       </c>
       <c r="C261" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="D261" t="s">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="E261" t="s">
-        <v>46</v>
+        <v>173</v>
       </c>
     </row>
     <row r="262" spans="1:5">
@@ -5445,16 +5490,16 @@
         <v>260</v>
       </c>
       <c r="B262" t="n">
-        <v>555577559</v>
+        <v>198299</v>
       </c>
       <c r="C262" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="D262" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="E262" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
     </row>
     <row r="263" spans="1:5">
@@ -5462,16 +5507,16 @@
         <v>261</v>
       </c>
       <c r="B263" t="n">
-        <v>18337</v>
+        <v>198297</v>
       </c>
       <c r="C263" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="D263" t="s">
-        <v>37</v>
+        <v>5</v>
       </c>
       <c r="E263" t="s">
-        <v>49</v>
+        <v>10</v>
       </c>
     </row>
     <row r="264" spans="1:5">
@@ -5479,16 +5524,16 @@
         <v>262</v>
       </c>
       <c r="B264" t="n">
-        <v>555547990</v>
+        <v>198297</v>
       </c>
       <c r="C264" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="D264" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="E264" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
     </row>
     <row r="265" spans="1:5">
@@ -5496,16 +5541,16 @@
         <v>263</v>
       </c>
       <c r="B265" t="n">
-        <v>68916</v>
+        <v>198297</v>
       </c>
       <c r="C265" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="D265" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="E265" t="s">
-        <v>34</v>
+        <v>176</v>
       </c>
     </row>
     <row r="266" spans="1:5">
@@ -5513,16 +5558,16 @@
         <v>264</v>
       </c>
       <c r="B266" t="n">
-        <v>68916</v>
+        <v>67726</v>
       </c>
       <c r="C266" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="D266" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="E266" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="267" spans="1:5">
@@ -5530,16 +5575,16 @@
         <v>265</v>
       </c>
       <c r="B267" t="n">
-        <v>900632</v>
+        <v>67726</v>
       </c>
       <c r="C267" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="D267" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="E267" t="s">
-        <v>67</v>
+        <v>30</v>
       </c>
     </row>
     <row r="268" spans="1:5">
@@ -5547,16 +5592,16 @@
         <v>266</v>
       </c>
       <c r="B268" t="n">
-        <v>900633</v>
+        <v>67730</v>
       </c>
       <c r="C268" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="D268" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="E268" t="s">
-        <v>62</v>
+        <v>14</v>
       </c>
     </row>
     <row r="269" spans="1:5">
@@ -5564,16 +5609,16 @@
         <v>267</v>
       </c>
       <c r="B269" t="n">
-        <v>900633</v>
+        <v>555577558</v>
       </c>
       <c r="C269" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="D269" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E269" t="s">
-        <v>187</v>
+        <v>64</v>
       </c>
     </row>
     <row r="270" spans="1:5">
@@ -5581,16 +5626,16 @@
         <v>268</v>
       </c>
       <c r="B270" t="n">
-        <v>900633</v>
+        <v>2005</v>
       </c>
       <c r="C270" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="D270" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="E270" t="s">
-        <v>62</v>
+        <v>34</v>
       </c>
     </row>
     <row r="271" spans="1:5">
@@ -5598,16 +5643,16 @@
         <v>269</v>
       </c>
       <c r="B271" t="n">
-        <v>900633</v>
+        <v>2005</v>
       </c>
       <c r="C271" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="D271" t="s">
         <v>21</v>
       </c>
       <c r="E271" t="s">
-        <v>75</v>
+        <v>26</v>
       </c>
     </row>
     <row r="272" spans="1:5">
@@ -5615,16 +5660,16 @@
         <v>270</v>
       </c>
       <c r="B272" t="n">
-        <v>900633</v>
+        <v>2008</v>
       </c>
       <c r="C272" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="D272" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="E272" t="s">
-        <v>10</v>
+        <v>42</v>
       </c>
     </row>
     <row r="273" spans="1:5">
@@ -5632,16 +5677,16 @@
         <v>271</v>
       </c>
       <c r="B273" t="n">
-        <v>900633</v>
+        <v>2008</v>
       </c>
       <c r="C273" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="D273" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="E273" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
     </row>
     <row r="274" spans="1:5">
@@ -5649,16 +5694,16 @@
         <v>272</v>
       </c>
       <c r="B274" t="n">
-        <v>2571</v>
+        <v>2008</v>
       </c>
       <c r="C274" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="D274" t="s">
         <v>35</v>
       </c>
       <c r="E274" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
     </row>
     <row r="275" spans="1:5">
@@ -5666,16 +5711,16 @@
         <v>273</v>
       </c>
       <c r="B275" t="n">
-        <v>2571</v>
+        <v>2008</v>
       </c>
       <c r="C275" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="D275" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="E275" t="s">
-        <v>26</v>
+        <v>90</v>
       </c>
     </row>
     <row r="276" spans="1:5">
@@ -5683,16 +5728,16 @@
         <v>274</v>
       </c>
       <c r="B276" t="n">
-        <v>2572</v>
+        <v>2008</v>
       </c>
       <c r="C276" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="D276" t="s">
         <v>21</v>
       </c>
       <c r="E276" t="s">
-        <v>75</v>
+        <v>26</v>
       </c>
     </row>
     <row r="277" spans="1:5">
@@ -5700,16 +5745,16 @@
         <v>275</v>
       </c>
       <c r="B277" t="n">
-        <v>2572</v>
+        <v>2008</v>
       </c>
       <c r="C277" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="D277" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="E277" t="s">
-        <v>43</v>
+        <v>100</v>
       </c>
     </row>
     <row r="278" spans="1:5">
@@ -5717,16 +5762,16 @@
         <v>276</v>
       </c>
       <c r="B278" t="n">
-        <v>2004</v>
+        <v>2008</v>
       </c>
       <c r="C278" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="D278" t="s">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="E278" t="s">
-        <v>131</v>
+        <v>43</v>
       </c>
     </row>
     <row r="279" spans="1:5">
@@ -5734,16 +5779,16 @@
         <v>277</v>
       </c>
       <c r="B279" t="n">
-        <v>2004</v>
+        <v>191</v>
       </c>
       <c r="C279" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="D279" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="E279" t="s">
-        <v>72</v>
+        <v>89</v>
       </c>
     </row>
     <row r="280" spans="1:5">
@@ -5751,16 +5796,16 @@
         <v>278</v>
       </c>
       <c r="B280" t="n">
-        <v>2004</v>
+        <v>555547987</v>
       </c>
       <c r="C280" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="D280" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="E280" t="s">
-        <v>72</v>
+        <v>133</v>
       </c>
     </row>
     <row r="281" spans="1:5">
@@ -5768,16 +5813,16 @@
         <v>279</v>
       </c>
       <c r="B281" t="n">
-        <v>10746</v>
+        <v>555547987</v>
       </c>
       <c r="C281" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="D281" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="E281" t="s">
-        <v>30</v>
+        <v>71</v>
       </c>
     </row>
     <row r="282" spans="1:5">
@@ -5785,16 +5830,16 @@
         <v>280</v>
       </c>
       <c r="B282" t="n">
-        <v>10746</v>
+        <v>2016</v>
       </c>
       <c r="C282" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="D282" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="E282" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
     </row>
     <row r="283" spans="1:5">
@@ -5802,16 +5847,16 @@
         <v>281</v>
       </c>
       <c r="B283" t="n">
-        <v>10746</v>
+        <v>2016</v>
       </c>
       <c r="C283" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="D283" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="E283" t="s">
-        <v>91</v>
+        <v>34</v>
       </c>
     </row>
     <row r="284" spans="1:5">
@@ -5819,16 +5864,16 @@
         <v>282</v>
       </c>
       <c r="B284" t="n">
-        <v>2013</v>
+        <v>2016</v>
       </c>
       <c r="C284" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="D284" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="E284" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
     </row>
     <row r="285" spans="1:5">
@@ -5836,16 +5881,16 @@
         <v>283</v>
       </c>
       <c r="B285" t="n">
-        <v>2013</v>
+        <v>2016</v>
       </c>
       <c r="C285" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="D285" t="s">
-        <v>5</v>
+        <v>37</v>
       </c>
       <c r="E285" t="s">
-        <v>193</v>
+        <v>43</v>
       </c>
     </row>
     <row r="286" spans="1:5">
@@ -5853,16 +5898,16 @@
         <v>284</v>
       </c>
       <c r="B286" t="n">
-        <v>2013</v>
+        <v>145582</v>
       </c>
       <c r="C286" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="D286" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="E286" t="s">
-        <v>86</v>
+        <v>138</v>
       </c>
     </row>
     <row r="287" spans="1:5">
@@ -5870,16 +5915,16 @@
         <v>285</v>
       </c>
       <c r="B287" t="n">
-        <v>198294</v>
+        <v>145582</v>
       </c>
       <c r="C287" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="D287" t="s">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="E287" t="s">
-        <v>62</v>
+        <v>11</v>
       </c>
     </row>
     <row r="288" spans="1:5">
@@ -5887,16 +5932,16 @@
         <v>286</v>
       </c>
       <c r="B288" t="n">
-        <v>12896</v>
+        <v>145582</v>
       </c>
       <c r="C288" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
       <c r="D288" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="E288" t="s">
-        <v>26</v>
+        <v>186</v>
       </c>
     </row>
     <row r="289" spans="1:5">
@@ -5904,16 +5949,16 @@
         <v>287</v>
       </c>
       <c r="B289" t="n">
-        <v>10902</v>
+        <v>145582</v>
       </c>
       <c r="C289" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
       <c r="D289" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="E289" t="s">
-        <v>42</v>
+        <v>187</v>
       </c>
     </row>
     <row r="290" spans="1:5">
@@ -5921,16 +5966,16 @@
         <v>288</v>
       </c>
       <c r="B290" t="n">
-        <v>10902</v>
+        <v>145582</v>
       </c>
       <c r="C290" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
       <c r="D290" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="E290" t="s">
-        <v>34</v>
+        <v>176</v>
       </c>
     </row>
     <row r="291" spans="1:5">
@@ -5938,16 +5983,16 @@
         <v>289</v>
       </c>
       <c r="B291" t="n">
-        <v>10902</v>
+        <v>124383</v>
       </c>
       <c r="C291" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="D291" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="E291" t="s">
-        <v>34</v>
+        <v>89</v>
       </c>
     </row>
     <row r="292" spans="1:5">
@@ -5955,16 +6000,16 @@
         <v>290</v>
       </c>
       <c r="B292" t="n">
-        <v>10902</v>
+        <v>124383</v>
       </c>
       <c r="C292" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="D292" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="E292" t="s">
-        <v>119</v>
+        <v>89</v>
       </c>
     </row>
     <row r="293" spans="1:5">
@@ -5972,16 +6017,16 @@
         <v>291</v>
       </c>
       <c r="B293" t="n">
-        <v>10902</v>
+        <v>124383</v>
       </c>
       <c r="C293" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="D293" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="E293" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="294" spans="1:5">
@@ -5989,16 +6034,16 @@
         <v>292</v>
       </c>
       <c r="B294" t="n">
-        <v>10902</v>
+        <v>900628</v>
       </c>
       <c r="C294" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="D294" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="E294" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="295" spans="1:5">
@@ -6006,16 +6051,16 @@
         <v>293</v>
       </c>
       <c r="B295" t="n">
-        <v>2577</v>
+        <v>900628</v>
       </c>
       <c r="C295" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="D295" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="E295" t="s">
-        <v>90</v>
+        <v>144</v>
       </c>
     </row>
     <row r="296" spans="1:5">
@@ -6023,16 +6068,16 @@
         <v>294</v>
       </c>
       <c r="B296" t="n">
-        <v>67733</v>
+        <v>900628</v>
       </c>
       <c r="C296" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="D296" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="E296" t="s">
-        <v>26</v>
+        <v>113</v>
       </c>
     </row>
     <row r="297" spans="1:5">
@@ -6040,16 +6085,16 @@
         <v>295</v>
       </c>
       <c r="B297" t="n">
-        <v>198295</v>
+        <v>900628</v>
       </c>
       <c r="C297" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="D297" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="E297" t="s">
-        <v>72</v>
+        <v>187</v>
       </c>
     </row>
     <row r="298" spans="1:5">
@@ -6057,16 +6102,16 @@
         <v>296</v>
       </c>
       <c r="B298" t="n">
-        <v>198291</v>
+        <v>900628</v>
       </c>
       <c r="C298" t="s">
-        <v>200</v>
+        <v>189</v>
       </c>
       <c r="D298" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="E298" t="s">
-        <v>42</v>
+        <v>176</v>
       </c>
     </row>
     <row r="299" spans="1:5">
@@ -6074,16 +6119,16 @@
         <v>297</v>
       </c>
       <c r="B299" t="n">
-        <v>198291</v>
+        <v>9614</v>
       </c>
       <c r="C299" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="D299" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="E299" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="300" spans="1:5">
@@ -6091,16 +6136,16 @@
         <v>298</v>
       </c>
       <c r="B300" t="n">
-        <v>198291</v>
+        <v>9614</v>
       </c>
       <c r="C300" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="D300" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E300" t="s">
-        <v>34</v>
+        <v>191</v>
       </c>
     </row>
     <row r="301" spans="1:5">
@@ -6108,16 +6153,16 @@
         <v>299</v>
       </c>
       <c r="B301" t="n">
-        <v>198291</v>
+        <v>9623</v>
       </c>
       <c r="C301" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="D301" t="s">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="E301" t="s">
-        <v>90</v>
+        <v>186</v>
       </c>
     </row>
     <row r="302" spans="1:5">
@@ -6125,16 +6170,16 @@
         <v>300</v>
       </c>
       <c r="B302" t="n">
-        <v>198291</v>
+        <v>9623</v>
       </c>
       <c r="C302" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="D302" t="s">
-        <v>37</v>
+        <v>7</v>
       </c>
       <c r="E302" t="s">
-        <v>43</v>
+        <v>193</v>
       </c>
     </row>
     <row r="303" spans="1:5">
@@ -6142,16 +6187,16 @@
         <v>301</v>
       </c>
       <c r="B303" t="n">
-        <v>93295</v>
+        <v>9623</v>
       </c>
       <c r="C303" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="D303" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="E303" t="s">
-        <v>6</v>
+        <v>176</v>
       </c>
     </row>
     <row r="304" spans="1:5">
@@ -6159,16 +6204,16 @@
         <v>302</v>
       </c>
       <c r="B304" t="n">
-        <v>93295</v>
+        <v>2554</v>
       </c>
       <c r="C304" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="D304" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="E304" t="s">
-        <v>93</v>
+        <v>14</v>
       </c>
     </row>
     <row r="305" spans="1:5">
@@ -6176,16 +6221,16 @@
         <v>303</v>
       </c>
       <c r="B305" t="n">
-        <v>67728</v>
+        <v>2554</v>
       </c>
       <c r="C305" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="D305" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="E305" t="s">
-        <v>128</v>
+        <v>84</v>
       </c>
     </row>
     <row r="306" spans="1:5">
@@ -6193,16 +6238,16 @@
         <v>304</v>
       </c>
       <c r="B306" t="n">
-        <v>67728</v>
+        <v>2554</v>
       </c>
       <c r="C306" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="D306" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="E306" t="s">
-        <v>132</v>
+        <v>46</v>
       </c>
     </row>
     <row r="307" spans="1:5">
@@ -6210,16 +6255,16 @@
         <v>305</v>
       </c>
       <c r="B307" t="n">
-        <v>67728</v>
+        <v>555577559</v>
       </c>
       <c r="C307" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="D307" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E307" t="s">
-        <v>60</v>
+        <v>34</v>
       </c>
     </row>
     <row r="308" spans="1:5">
@@ -6227,16 +6272,16 @@
         <v>306</v>
       </c>
       <c r="B308" t="n">
-        <v>67728</v>
+        <v>18337</v>
       </c>
       <c r="C308" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="D308" t="s">
-        <v>5</v>
+        <v>37</v>
       </c>
       <c r="E308" t="s">
-        <v>6</v>
+        <v>49</v>
       </c>
     </row>
     <row r="309" spans="1:5">
@@ -6244,16 +6289,16 @@
         <v>307</v>
       </c>
       <c r="B309" t="n">
-        <v>67728</v>
+        <v>555547990</v>
       </c>
       <c r="C309" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="D309" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="E309" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="310" spans="1:5">
@@ -6261,16 +6306,16 @@
         <v>308</v>
       </c>
       <c r="B310" t="n">
-        <v>12207</v>
+        <v>67732</v>
       </c>
       <c r="C310" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="D310" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E310" t="s">
-        <v>204</v>
+        <v>34</v>
       </c>
     </row>
     <row r="311" spans="1:5">
@@ -6278,16 +6323,16 @@
         <v>309</v>
       </c>
       <c r="B311" t="n">
-        <v>900629</v>
+        <v>67732</v>
       </c>
       <c r="C311" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="D311" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="E311" t="s">
-        <v>28</v>
+        <v>105</v>
       </c>
     </row>
     <row r="312" spans="1:5">
@@ -6295,16 +6340,16 @@
         <v>310</v>
       </c>
       <c r="B312" t="n">
-        <v>900629</v>
+        <v>68916</v>
       </c>
       <c r="C312" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="D312" t="s">
         <v>33</v>
       </c>
       <c r="E312" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="313" spans="1:5">
@@ -6312,16 +6357,16 @@
         <v>311</v>
       </c>
       <c r="B313" t="n">
-        <v>900629</v>
+        <v>68916</v>
       </c>
       <c r="C313" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="D313" t="s">
         <v>35</v>
       </c>
       <c r="E313" t="s">
-        <v>79</v>
+        <v>34</v>
       </c>
     </row>
     <row r="314" spans="1:5">
@@ -6329,16 +6374,16 @@
         <v>312</v>
       </c>
       <c r="B314" t="n">
-        <v>900629</v>
+        <v>900632</v>
       </c>
       <c r="C314" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="D314" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="E314" t="s">
-        <v>206</v>
+        <v>69</v>
       </c>
     </row>
     <row r="315" spans="1:5">
@@ -6346,16 +6391,16 @@
         <v>313</v>
       </c>
       <c r="B315" t="n">
-        <v>900629</v>
+        <v>900633</v>
       </c>
       <c r="C315" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="D315" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E315" t="s">
-        <v>30</v>
+        <v>64</v>
       </c>
     </row>
     <row r="316" spans="1:5">
@@ -6363,16 +6408,16 @@
         <v>314</v>
       </c>
       <c r="B316" t="n">
-        <v>900629</v>
+        <v>900633</v>
       </c>
       <c r="C316" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="D316" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E316" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="317" spans="1:5">
@@ -6380,16 +6425,16 @@
         <v>315</v>
       </c>
       <c r="B317" t="n">
-        <v>555556047</v>
+        <v>900633</v>
       </c>
       <c r="C317" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="D317" t="s">
         <v>13</v>
       </c>
       <c r="E317" t="s">
-        <v>208</v>
+        <v>64</v>
       </c>
     </row>
     <row r="318" spans="1:5">
@@ -6397,16 +6442,16 @@
         <v>316</v>
       </c>
       <c r="B318" t="n">
-        <v>555556047</v>
+        <v>900633</v>
       </c>
       <c r="C318" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="D318" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="E318" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
     </row>
     <row r="319" spans="1:5">
@@ -6414,16 +6459,16 @@
         <v>317</v>
       </c>
       <c r="B319" t="n">
-        <v>555556047</v>
+        <v>900633</v>
       </c>
       <c r="C319" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="D319" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E319" t="s">
-        <v>164</v>
+        <v>10</v>
       </c>
     </row>
     <row r="320" spans="1:5">
@@ -6431,16 +6476,16 @@
         <v>318</v>
       </c>
       <c r="B320" t="n">
-        <v>5001</v>
+        <v>900633</v>
       </c>
       <c r="C320" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="D320" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="E320" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
     </row>
     <row r="321" spans="1:5">
@@ -6448,16 +6493,16 @@
         <v>319</v>
       </c>
       <c r="B321" t="n">
-        <v>5001</v>
+        <v>2571</v>
       </c>
       <c r="C321" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="D321" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E321" t="s">
-        <v>49</v>
+        <v>14</v>
       </c>
     </row>
     <row r="322" spans="1:5">
@@ -6465,16 +6510,16 @@
         <v>320</v>
       </c>
       <c r="B322" t="n">
-        <v>198296</v>
+        <v>2572</v>
       </c>
       <c r="C322" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="D322" t="s">
         <v>21</v>
       </c>
       <c r="E322" t="s">
-        <v>26</v>
+        <v>79</v>
       </c>
     </row>
     <row r="323" spans="1:5">
@@ -6482,16 +6527,16 @@
         <v>321</v>
       </c>
       <c r="B323" t="n">
-        <v>17759</v>
+        <v>2572</v>
       </c>
       <c r="C323" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="D323" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="E323" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
     </row>
     <row r="324" spans="1:5">
@@ -6499,15 +6544,831 @@
         <v>322</v>
       </c>
       <c r="B324" t="n">
+        <v>124387</v>
+      </c>
+      <c r="C324" t="s">
+        <v>205</v>
+      </c>
+      <c r="D324" t="s">
+        <v>13</v>
+      </c>
+      <c r="E324" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="325" spans="1:5">
+      <c r="A325" s="1" t="n">
+        <v>323</v>
+      </c>
+      <c r="B325" t="n">
+        <v>124387</v>
+      </c>
+      <c r="C325" t="s">
+        <v>205</v>
+      </c>
+      <c r="D325" t="s">
+        <v>21</v>
+      </c>
+      <c r="E325" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="326" spans="1:5">
+      <c r="A326" s="1" t="n">
+        <v>324</v>
+      </c>
+      <c r="B326" t="n">
+        <v>2004</v>
+      </c>
+      <c r="C326" t="s">
+        <v>206</v>
+      </c>
+      <c r="D326" t="s">
+        <v>13</v>
+      </c>
+      <c r="E326" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="327" spans="1:5">
+      <c r="A327" s="1" t="n">
+        <v>325</v>
+      </c>
+      <c r="B327" t="n">
+        <v>2004</v>
+      </c>
+      <c r="C327" t="s">
+        <v>206</v>
+      </c>
+      <c r="D327" t="s">
+        <v>29</v>
+      </c>
+      <c r="E327" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="328" spans="1:5">
+      <c r="A328" s="1" t="n">
+        <v>326</v>
+      </c>
+      <c r="B328" t="n">
+        <v>2004</v>
+      </c>
+      <c r="C328" t="s">
+        <v>206</v>
+      </c>
+      <c r="D328" t="s">
+        <v>5</v>
+      </c>
+      <c r="E328" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="329" spans="1:5">
+      <c r="A329" s="1" t="n">
+        <v>327</v>
+      </c>
+      <c r="B329" t="n">
+        <v>10746</v>
+      </c>
+      <c r="C329" t="s">
+        <v>207</v>
+      </c>
+      <c r="D329" t="s">
+        <v>29</v>
+      </c>
+      <c r="E329" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="330" spans="1:5">
+      <c r="A330" s="1" t="n">
+        <v>328</v>
+      </c>
+      <c r="B330" t="n">
+        <v>10746</v>
+      </c>
+      <c r="C330" t="s">
+        <v>207</v>
+      </c>
+      <c r="D330" t="s">
+        <v>37</v>
+      </c>
+      <c r="E330" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="331" spans="1:5">
+      <c r="A331" s="1" t="n">
+        <v>329</v>
+      </c>
+      <c r="B331" t="n">
+        <v>10746</v>
+      </c>
+      <c r="C331" t="s">
+        <v>207</v>
+      </c>
+      <c r="D331" t="s">
+        <v>5</v>
+      </c>
+      <c r="E331" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="332" spans="1:5">
+      <c r="A332" s="1" t="n">
+        <v>330</v>
+      </c>
+      <c r="B332" t="n">
+        <v>2013</v>
+      </c>
+      <c r="C332" t="s">
+        <v>208</v>
+      </c>
+      <c r="D332" t="s">
+        <v>13</v>
+      </c>
+      <c r="E332" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="333" spans="1:5">
+      <c r="A333" s="1" t="n">
+        <v>331</v>
+      </c>
+      <c r="B333" t="n">
+        <v>2013</v>
+      </c>
+      <c r="C333" t="s">
+        <v>208</v>
+      </c>
+      <c r="D333" t="s">
+        <v>5</v>
+      </c>
+      <c r="E333" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="334" spans="1:5">
+      <c r="A334" s="1" t="n">
+        <v>332</v>
+      </c>
+      <c r="B334" t="n">
+        <v>2013</v>
+      </c>
+      <c r="C334" t="s">
+        <v>208</v>
+      </c>
+      <c r="D334" t="s">
+        <v>7</v>
+      </c>
+      <c r="E334" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="335" spans="1:5">
+      <c r="A335" s="1" t="n">
+        <v>333</v>
+      </c>
+      <c r="B335" t="n">
+        <v>198294</v>
+      </c>
+      <c r="C335" t="s">
+        <v>210</v>
+      </c>
+      <c r="D335" t="s">
+        <v>13</v>
+      </c>
+      <c r="E335" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="336" spans="1:5">
+      <c r="A336" s="1" t="n">
+        <v>334</v>
+      </c>
+      <c r="B336" t="n">
+        <v>12896</v>
+      </c>
+      <c r="C336" t="s">
+        <v>211</v>
+      </c>
+      <c r="D336" t="s">
+        <v>21</v>
+      </c>
+      <c r="E336" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="337" spans="1:5">
+      <c r="A337" s="1" t="n">
+        <v>335</v>
+      </c>
+      <c r="B337" t="n">
+        <v>10902</v>
+      </c>
+      <c r="C337" t="s">
+        <v>212</v>
+      </c>
+      <c r="D337" t="s">
+        <v>17</v>
+      </c>
+      <c r="E337" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="338" spans="1:5">
+      <c r="A338" s="1" t="n">
+        <v>336</v>
+      </c>
+      <c r="B338" t="n">
+        <v>10902</v>
+      </c>
+      <c r="C338" t="s">
+        <v>212</v>
+      </c>
+      <c r="D338" t="s">
+        <v>33</v>
+      </c>
+      <c r="E338" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="339" spans="1:5">
+      <c r="A339" s="1" t="n">
+        <v>337</v>
+      </c>
+      <c r="B339" t="n">
+        <v>10902</v>
+      </c>
+      <c r="C339" t="s">
+        <v>212</v>
+      </c>
+      <c r="D339" t="s">
+        <v>13</v>
+      </c>
+      <c r="E339" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="340" spans="1:5">
+      <c r="A340" s="1" t="n">
+        <v>338</v>
+      </c>
+      <c r="B340" t="n">
+        <v>10902</v>
+      </c>
+      <c r="C340" t="s">
+        <v>212</v>
+      </c>
+      <c r="D340" t="s">
+        <v>21</v>
+      </c>
+      <c r="E340" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="341" spans="1:5">
+      <c r="A341" s="1" t="n">
+        <v>339</v>
+      </c>
+      <c r="B341" t="n">
+        <v>10902</v>
+      </c>
+      <c r="C341" t="s">
+        <v>212</v>
+      </c>
+      <c r="D341" t="s">
+        <v>29</v>
+      </c>
+      <c r="E341" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="342" spans="1:5">
+      <c r="A342" s="1" t="n">
+        <v>340</v>
+      </c>
+      <c r="B342" t="n">
+        <v>10902</v>
+      </c>
+      <c r="C342" t="s">
+        <v>212</v>
+      </c>
+      <c r="D342" t="s">
+        <v>37</v>
+      </c>
+      <c r="E342" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="343" spans="1:5">
+      <c r="A343" s="1" t="n">
+        <v>341</v>
+      </c>
+      <c r="B343" t="n">
+        <v>2577</v>
+      </c>
+      <c r="C343" t="s">
+        <v>213</v>
+      </c>
+      <c r="D343" t="s">
+        <v>29</v>
+      </c>
+      <c r="E343" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="344" spans="1:5">
+      <c r="A344" s="1" t="n">
+        <v>342</v>
+      </c>
+      <c r="B344" t="n">
+        <v>67733</v>
+      </c>
+      <c r="C344" t="s">
+        <v>214</v>
+      </c>
+      <c r="D344" t="s">
+        <v>21</v>
+      </c>
+      <c r="E344" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="345" spans="1:5">
+      <c r="A345" s="1" t="n">
+        <v>343</v>
+      </c>
+      <c r="B345" t="n">
+        <v>198295</v>
+      </c>
+      <c r="C345" t="s">
+        <v>215</v>
+      </c>
+      <c r="D345" t="s">
+        <v>29</v>
+      </c>
+      <c r="E345" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="346" spans="1:5">
+      <c r="A346" s="1" t="n">
+        <v>344</v>
+      </c>
+      <c r="B346" t="n">
+        <v>198291</v>
+      </c>
+      <c r="C346" t="s">
+        <v>216</v>
+      </c>
+      <c r="D346" t="s">
+        <v>17</v>
+      </c>
+      <c r="E346" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="347" spans="1:5">
+      <c r="A347" s="1" t="n">
+        <v>345</v>
+      </c>
+      <c r="B347" t="n">
+        <v>198291</v>
+      </c>
+      <c r="C347" t="s">
+        <v>216</v>
+      </c>
+      <c r="D347" t="s">
+        <v>33</v>
+      </c>
+      <c r="E347" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="348" spans="1:5">
+      <c r="A348" s="1" t="n">
+        <v>346</v>
+      </c>
+      <c r="B348" t="n">
+        <v>198291</v>
+      </c>
+      <c r="C348" t="s">
+        <v>216</v>
+      </c>
+      <c r="D348" t="s">
+        <v>35</v>
+      </c>
+      <c r="E348" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="349" spans="1:5">
+      <c r="A349" s="1" t="n">
+        <v>347</v>
+      </c>
+      <c r="B349" t="n">
+        <v>198291</v>
+      </c>
+      <c r="C349" t="s">
+        <v>216</v>
+      </c>
+      <c r="D349" t="s">
+        <v>29</v>
+      </c>
+      <c r="E349" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="350" spans="1:5">
+      <c r="A350" s="1" t="n">
+        <v>348</v>
+      </c>
+      <c r="B350" t="n">
+        <v>198291</v>
+      </c>
+      <c r="C350" t="s">
+        <v>216</v>
+      </c>
+      <c r="D350" t="s">
+        <v>37</v>
+      </c>
+      <c r="E350" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="351" spans="1:5">
+      <c r="A351" s="1" t="n">
+        <v>349</v>
+      </c>
+      <c r="B351" t="n">
+        <v>93295</v>
+      </c>
+      <c r="C351" t="s">
+        <v>217</v>
+      </c>
+      <c r="D351" t="s">
+        <v>5</v>
+      </c>
+      <c r="E351" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="352" spans="1:5">
+      <c r="A352" s="1" t="n">
+        <v>350</v>
+      </c>
+      <c r="B352" t="n">
+        <v>93295</v>
+      </c>
+      <c r="C352" t="s">
+        <v>217</v>
+      </c>
+      <c r="D352" t="s">
+        <v>7</v>
+      </c>
+      <c r="E352" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="353" spans="1:5">
+      <c r="A353" s="1" t="n">
+        <v>351</v>
+      </c>
+      <c r="B353" t="n">
+        <v>67728</v>
+      </c>
+      <c r="C353" t="s">
+        <v>218</v>
+      </c>
+      <c r="D353" t="s">
+        <v>13</v>
+      </c>
+      <c r="E353" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="354" spans="1:5">
+      <c r="A354" s="1" t="n">
+        <v>352</v>
+      </c>
+      <c r="B354" t="n">
+        <v>67728</v>
+      </c>
+      <c r="C354" t="s">
+        <v>218</v>
+      </c>
+      <c r="D354" t="s">
+        <v>29</v>
+      </c>
+      <c r="E354" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="355" spans="1:5">
+      <c r="A355" s="1" t="n">
+        <v>353</v>
+      </c>
+      <c r="B355" t="n">
+        <v>67728</v>
+      </c>
+      <c r="C355" t="s">
+        <v>218</v>
+      </c>
+      <c r="D355" t="s">
+        <v>37</v>
+      </c>
+      <c r="E355" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="356" spans="1:5">
+      <c r="A356" s="1" t="n">
+        <v>354</v>
+      </c>
+      <c r="B356" t="n">
+        <v>67728</v>
+      </c>
+      <c r="C356" t="s">
+        <v>218</v>
+      </c>
+      <c r="D356" t="s">
+        <v>5</v>
+      </c>
+      <c r="E356" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="357" spans="1:5">
+      <c r="A357" s="1" t="n">
+        <v>355</v>
+      </c>
+      <c r="B357" t="n">
+        <v>67728</v>
+      </c>
+      <c r="C357" t="s">
+        <v>218</v>
+      </c>
+      <c r="D357" t="s">
+        <v>7</v>
+      </c>
+      <c r="E357" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="358" spans="1:5">
+      <c r="A358" s="1" t="n">
+        <v>356</v>
+      </c>
+      <c r="B358" t="n">
+        <v>12207</v>
+      </c>
+      <c r="C358" t="s">
+        <v>219</v>
+      </c>
+      <c r="D358" t="s">
+        <v>37</v>
+      </c>
+      <c r="E358" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="359" spans="1:5">
+      <c r="A359" s="1" t="n">
+        <v>357</v>
+      </c>
+      <c r="B359" t="n">
+        <v>900629</v>
+      </c>
+      <c r="C359" t="s">
+        <v>220</v>
+      </c>
+      <c r="D359" t="s">
+        <v>17</v>
+      </c>
+      <c r="E359" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="360" spans="1:5">
+      <c r="A360" s="1" t="n">
+        <v>358</v>
+      </c>
+      <c r="B360" t="n">
+        <v>900629</v>
+      </c>
+      <c r="C360" t="s">
+        <v>220</v>
+      </c>
+      <c r="D360" t="s">
+        <v>33</v>
+      </c>
+      <c r="E360" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="361" spans="1:5">
+      <c r="A361" s="1" t="n">
+        <v>359</v>
+      </c>
+      <c r="B361" t="n">
+        <v>900629</v>
+      </c>
+      <c r="C361" t="s">
+        <v>220</v>
+      </c>
+      <c r="D361" t="s">
+        <v>35</v>
+      </c>
+      <c r="E361" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="362" spans="1:5">
+      <c r="A362" s="1" t="n">
+        <v>360</v>
+      </c>
+      <c r="B362" t="n">
+        <v>900629</v>
+      </c>
+      <c r="C362" t="s">
+        <v>220</v>
+      </c>
+      <c r="D362" t="s">
+        <v>21</v>
+      </c>
+      <c r="E362" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="363" spans="1:5">
+      <c r="A363" s="1" t="n">
+        <v>361</v>
+      </c>
+      <c r="B363" t="n">
+        <v>900629</v>
+      </c>
+      <c r="C363" t="s">
+        <v>220</v>
+      </c>
+      <c r="D363" t="s">
+        <v>29</v>
+      </c>
+      <c r="E363" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="364" spans="1:5">
+      <c r="A364" s="1" t="n">
+        <v>362</v>
+      </c>
+      <c r="B364" t="n">
+        <v>900629</v>
+      </c>
+      <c r="C364" t="s">
+        <v>220</v>
+      </c>
+      <c r="D364" t="s">
+        <v>37</v>
+      </c>
+      <c r="E364" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="365" spans="1:5">
+      <c r="A365" s="1" t="n">
+        <v>363</v>
+      </c>
+      <c r="B365" t="n">
+        <v>555556047</v>
+      </c>
+      <c r="C365" t="s">
+        <v>222</v>
+      </c>
+      <c r="D365" t="s">
+        <v>13</v>
+      </c>
+      <c r="E365" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="366" spans="1:5">
+      <c r="A366" s="1" t="n">
+        <v>364</v>
+      </c>
+      <c r="B366" t="n">
+        <v>555556047</v>
+      </c>
+      <c r="C366" t="s">
+        <v>222</v>
+      </c>
+      <c r="D366" t="s">
+        <v>5</v>
+      </c>
+      <c r="E366" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="367" spans="1:5">
+      <c r="A367" s="1" t="n">
+        <v>365</v>
+      </c>
+      <c r="B367" t="n">
+        <v>555556047</v>
+      </c>
+      <c r="C367" t="s">
+        <v>222</v>
+      </c>
+      <c r="D367" t="s">
+        <v>7</v>
+      </c>
+      <c r="E367" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="368" spans="1:5">
+      <c r="A368" s="1" t="n">
+        <v>366</v>
+      </c>
+      <c r="B368" t="n">
+        <v>5001</v>
+      </c>
+      <c r="C368" t="s">
+        <v>224</v>
+      </c>
+      <c r="D368" t="s">
+        <v>13</v>
+      </c>
+      <c r="E368" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="369" spans="1:5">
+      <c r="A369" s="1" t="n">
+        <v>367</v>
+      </c>
+      <c r="B369" t="n">
+        <v>5001</v>
+      </c>
+      <c r="C369" t="s">
+        <v>224</v>
+      </c>
+      <c r="D369" t="s">
+        <v>37</v>
+      </c>
+      <c r="E369" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="370" spans="1:5">
+      <c r="A370" s="1" t="n">
+        <v>368</v>
+      </c>
+      <c r="B370" t="n">
+        <v>198296</v>
+      </c>
+      <c r="C370" t="s">
+        <v>225</v>
+      </c>
+      <c r="D370" t="s">
+        <v>21</v>
+      </c>
+      <c r="E370" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="371" spans="1:5">
+      <c r="A371" s="1" t="n">
+        <v>369</v>
+      </c>
+      <c r="B371" t="n">
         <v>17759</v>
       </c>
-      <c r="C324" t="s">
-        <v>211</v>
-      </c>
-      <c r="D324" t="s">
+      <c r="C371" t="s">
+        <v>226</v>
+      </c>
+      <c r="D371" t="s">
+        <v>21</v>
+      </c>
+      <c r="E371" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="372" spans="1:5">
+      <c r="A372" s="1" t="n">
+        <v>370</v>
+      </c>
+      <c r="B372" t="n">
+        <v>17759</v>
+      </c>
+      <c r="C372" t="s">
+        <v>226</v>
+      </c>
+      <c r="D372" t="s">
         <v>7</v>
       </c>
-      <c r="E324" t="s">
+      <c r="E372" t="s">
         <v>49</v>
       </c>
     </row>

--- a/output_changed_stats.xlsx
+++ b/output_changed_stats.xlsx
@@ -94,6 +94,15 @@
     <t>Rwenzori Mountains National Park</t>
   </si>
   <si>
+    <t>overall_threat</t>
+  </si>
+  <si>
+    <t>Low Threat -&gt; High Threat</t>
+  </si>
+  <si>
+    <t>current_threat</t>
+  </si>
+  <si>
     <t>Effective -&gt; Some Concern</t>
   </si>
   <si>
@@ -115,15 +124,6 @@
     <t>Tsingy de Bemaraha Strict Nature Reserve</t>
   </si>
   <si>
-    <t>overall_threat</t>
-  </si>
-  <si>
-    <t>Low Threat -&gt; High Threat</t>
-  </si>
-  <si>
-    <t>current_threat</t>
-  </si>
-  <si>
     <t>Kahuzi-Biega National Park</t>
   </si>
   <si>
@@ -142,48 +142,48 @@
     <t>Cape Floral Region Protected Areas</t>
   </si>
   <si>
+    <t>Stable -&gt; Deteriorating</t>
+  </si>
+  <si>
+    <t>East Rennell</t>
+  </si>
+  <si>
+    <t>Critical -&gt; Significant Concern</t>
+  </si>
+  <si>
+    <t>Deteriorating -&gt; Data Deficient</t>
+  </si>
+  <si>
+    <t>Lake Malawi National Park</t>
+  </si>
+  <si>
+    <t>Some Concern -&gt; Serious Concern</t>
+  </si>
+  <si>
+    <t>Data Deficient -&gt; Stable</t>
+  </si>
+  <si>
+    <t>nan -&gt; High Concern</t>
+  </si>
+  <si>
+    <t>nan -&gt; Deteriorating</t>
+  </si>
+  <si>
+    <t>Kinabalu Park</t>
+  </si>
+  <si>
+    <t>Papahānaumokuākea</t>
+  </si>
+  <si>
+    <t>Mount Sanqingshan National Park</t>
+  </si>
+  <si>
+    <t>Islands and Protected Areas of the Gulf of California</t>
+  </si>
+  <si>
     <t>Good with some concerns -&gt; Significant Concern</t>
   </si>
   <si>
-    <t>Stable -&gt; Deteriorating</t>
-  </si>
-  <si>
-    <t>East Rennell</t>
-  </si>
-  <si>
-    <t>Critical -&gt; Significant Concern</t>
-  </si>
-  <si>
-    <t>Deteriorating -&gt; Data Deficient</t>
-  </si>
-  <si>
-    <t>Lake Malawi National Park</t>
-  </si>
-  <si>
-    <t>Some Concern -&gt; Serious Concern</t>
-  </si>
-  <si>
-    <t>Data Deficient -&gt; Stable</t>
-  </si>
-  <si>
-    <t>nan -&gt; High Concern</t>
-  </si>
-  <si>
-    <t>nan -&gt; Deteriorating</t>
-  </si>
-  <si>
-    <t>Kinabalu Park</t>
-  </si>
-  <si>
-    <t>Papahānaumokuākea</t>
-  </si>
-  <si>
-    <t>Mount Sanqingshan National Park</t>
-  </si>
-  <si>
-    <t>Islands and Protected Areas of the Gulf of California</t>
-  </si>
-  <si>
     <t>Good -&gt; High Concern</t>
   </si>
   <si>
@@ -316,282 +316,279 @@
     <t>Phong Nha-Ke Bang National Park</t>
   </si>
   <si>
+    <t>Djoudj National Bird Sanctuary</t>
+  </si>
+  <si>
+    <t>nan -&gt; Improving</t>
+  </si>
+  <si>
+    <t>Pitons Management Area</t>
+  </si>
+  <si>
+    <t>Dong Phayayen-Khao Yai Forest Complex</t>
+  </si>
+  <si>
+    <t>Phoenix Islands Protected Area</t>
+  </si>
+  <si>
+    <t>Improving -&gt; Data Deficient</t>
+  </si>
+  <si>
+    <t>Natural and Cultural Heritage of the Ohrid region</t>
+  </si>
+  <si>
+    <t>Pirin National Park</t>
+  </si>
+  <si>
+    <t>Data Deficient -&gt; High Concern</t>
+  </si>
+  <si>
+    <t>Pitons, cirques and remparts of Reunion Island</t>
+  </si>
+  <si>
     <t>Low Concern -&gt; High Concern</t>
   </si>
   <si>
-    <t>Djoudj National Bird Sanctuary</t>
-  </si>
-  <si>
-    <t>nan -&gt; Improving</t>
-  </si>
-  <si>
-    <t>Dong Phayayen-Khao Yai Forest Complex</t>
-  </si>
-  <si>
-    <t>Phoenix Islands Protected Area</t>
-  </si>
-  <si>
-    <t>Improving -&gt; Data Deficient</t>
-  </si>
-  <si>
-    <t>Natural and Cultural Heritage of the Ohrid region</t>
-  </si>
-  <si>
-    <t>Pirin National Park</t>
-  </si>
-  <si>
-    <t>Data Deficient -&gt; High Concern</t>
-  </si>
-  <si>
-    <t>Pitons, cirques and remparts of Reunion Island</t>
-  </si>
-  <si>
-    <t>Good with some concerns -&gt; nan</t>
-  </si>
-  <si>
-    <t>High Threat -&gt; nan</t>
-  </si>
-  <si>
-    <t>Effective -&gt; nan</t>
+    <t>Surtsey</t>
+  </si>
+  <si>
+    <t>The Dolomites</t>
+  </si>
+  <si>
+    <t>Thungyai - Huai Kha Khaeng Wildlife Sanctuaries</t>
+  </si>
+  <si>
+    <t>Škocjan Caves</t>
+  </si>
+  <si>
+    <t>Sangha Trinational</t>
+  </si>
+  <si>
+    <t>Iguazu National Park</t>
+  </si>
+  <si>
+    <t>Lena Pillars Nature Park</t>
+  </si>
+  <si>
+    <t>Ischigualasto / Talampaya Natural Parks</t>
+  </si>
+  <si>
+    <t>Improving -&gt; Deteriorating</t>
+  </si>
+  <si>
+    <t>Great Smoky Mountains National Park</t>
+  </si>
+  <si>
+    <t>Ilulissat Icefjord</t>
+  </si>
+  <si>
+    <t>Río Abiseo National Park</t>
+  </si>
+  <si>
+    <t>Low Concern -&gt; Data Deficient</t>
+  </si>
+  <si>
+    <t>Caves of Aggtelek Karst and Slovak Karst</t>
+  </si>
+  <si>
+    <t>Canadian Rocky Mountain Parks</t>
+  </si>
+  <si>
+    <t>Dja Faunal Reserve</t>
+  </si>
+  <si>
+    <t>Shiretoko</t>
+  </si>
+  <si>
+    <t>Tubbataha Reefs Natural Park</t>
+  </si>
+  <si>
+    <t>Good with some concerns -&gt; Good</t>
+  </si>
+  <si>
+    <t>Brazilian Atlantic Islands: Fernando de Noronha and Atol das Rocas Reserves</t>
+  </si>
+  <si>
+    <t>Primeval Beech Forests of the Carpathians and Other Regions of Europe</t>
+  </si>
+  <si>
+    <t>Monarch Butterfly Biosphere Reserve</t>
+  </si>
+  <si>
+    <t>Tassili n'Ajjer</t>
+  </si>
+  <si>
+    <t>High Threat -&gt; Data Deficient</t>
+  </si>
+  <si>
+    <t>Mount Taishan</t>
+  </si>
+  <si>
+    <t>Ha Long Bay</t>
+  </si>
+  <si>
+    <t>Shirakami-Sanchi</t>
+  </si>
+  <si>
+    <t>Laurisilva of Madeira</t>
+  </si>
+  <si>
+    <t>Tikal National Park</t>
+  </si>
+  <si>
+    <t>New Zealand Sub-Antarctic Islands</t>
+  </si>
+  <si>
+    <t>Improving -&gt; Stable</t>
+  </si>
+  <si>
+    <t>Manú National Park</t>
+  </si>
+  <si>
+    <t>Río Plátano Biosphere Reserve</t>
+  </si>
+  <si>
+    <t>Los Katíos National Park</t>
+  </si>
+  <si>
+    <t>Canaima National Park</t>
+  </si>
+  <si>
+    <t>Very High Threat -&gt; Data Deficient</t>
+  </si>
+  <si>
+    <t>Central Amazon Conservation Complex</t>
+  </si>
+  <si>
+    <t>Macquarie Island</t>
+  </si>
+  <si>
+    <t>Pantanal Conservation Complex</t>
+  </si>
+  <si>
+    <t>Atlantic Forest Southeast Reserves</t>
+  </si>
+  <si>
+    <t>Three Parallel Rivers of Yunnan Protected Areas</t>
+  </si>
+  <si>
+    <t>Tasmanian Wilderness</t>
+  </si>
+  <si>
+    <t>Bwindi Impenetrable National Park</t>
+  </si>
+  <si>
+    <t>Stevns Klint</t>
+  </si>
+  <si>
+    <t>Data Deficient -&gt; Good</t>
+  </si>
+  <si>
+    <t>Mount Huangshan</t>
+  </si>
+  <si>
+    <t>Wulingyuan Scenic and Historic Interest Area</t>
+  </si>
+  <si>
+    <t>Uvs Nuur Basin</t>
+  </si>
+  <si>
+    <t>Komodo National Park</t>
+  </si>
+  <si>
+    <t>Sundarbans National Park</t>
+  </si>
+  <si>
+    <t>Vredefort Dome</t>
+  </si>
+  <si>
+    <t>Carlsbad Caverns National Park</t>
+  </si>
+  <si>
+    <t>Great Himalayan National Park Conservation Area</t>
+  </si>
+  <si>
+    <t>Srebarna Nature Reserve</t>
+  </si>
+  <si>
+    <t>Nanda Devi and Valley of Flowers National Parks</t>
+  </si>
+  <si>
+    <t>Golden Mountains of Altai</t>
+  </si>
+  <si>
+    <t>Coiba National Park and its Special Zone of Marine Protection</t>
+  </si>
+  <si>
+    <t>Isole Eolie (Aeolian Islands)</t>
+  </si>
+  <si>
+    <t>Kaziranga National Park</t>
+  </si>
+  <si>
+    <t>Saryarka – Steppe and Lakes of Northern Kazakhstan</t>
+  </si>
+  <si>
+    <t>Stable -&gt; Improving</t>
+  </si>
+  <si>
+    <t>Puerto-Princesa Subterranean River National Park</t>
+  </si>
+  <si>
+    <t>Desembarco del Granma National Park</t>
+  </si>
+  <si>
+    <t>1 -&gt; 3</t>
+  </si>
+  <si>
+    <t>Ujung Kulon National Park</t>
+  </si>
+  <si>
+    <t>Fraser Island</t>
+  </si>
+  <si>
+    <t>Mount Hamiguitan Range Wildlife Sanctuary</t>
+  </si>
+  <si>
+    <t>Nahanni National Park</t>
+  </si>
+  <si>
+    <t>Białowieża Forest</t>
+  </si>
+  <si>
+    <t>Galápagos Islands</t>
+  </si>
+  <si>
+    <t>Lakes of Ounianga</t>
+  </si>
+  <si>
+    <t>Plitvice Lakes National Park</t>
+  </si>
+  <si>
+    <t>Cocos Island National Park</t>
+  </si>
+  <si>
+    <t>High Concern -&gt; nan</t>
+  </si>
+  <si>
+    <t>Data Deficient -&gt; nan</t>
+  </si>
+  <si>
+    <t>Belize Barrier Reef Reserve System</t>
+  </si>
+  <si>
+    <t>Deteriorating -&gt; Stable</t>
+  </si>
+  <si>
+    <t>Alejandro de Humboldt National Park</t>
   </si>
   <si>
     <t>Low Concern -&gt; nan</t>
   </si>
   <si>
-    <t>Stable -&gt; nan</t>
-  </si>
-  <si>
-    <t>Surtsey</t>
-  </si>
-  <si>
-    <t>The Dolomites</t>
-  </si>
-  <si>
-    <t>Škocjan Caves</t>
-  </si>
-  <si>
-    <t>Sangha Trinational</t>
-  </si>
-  <si>
-    <t>Iguazu National Park</t>
-  </si>
-  <si>
-    <t>Lena Pillars Nature Park</t>
-  </si>
-  <si>
-    <t>Ischigualasto / Talampaya Natural Parks</t>
-  </si>
-  <si>
-    <t>Improving -&gt; Deteriorating</t>
-  </si>
-  <si>
-    <t>Great Smoky Mountains National Park</t>
-  </si>
-  <si>
-    <t>Ilulissat Icefjord</t>
-  </si>
-  <si>
-    <t>Río Abiseo National Park</t>
-  </si>
-  <si>
-    <t>Low Concern -&gt; Data Deficient</t>
-  </si>
-  <si>
-    <t>Caves of Aggtelek Karst and Slovak Karst</t>
-  </si>
-  <si>
-    <t>Canadian Rocky Mountain Parks</t>
-  </si>
-  <si>
-    <t>Effective -&gt; Serious Concern</t>
-  </si>
-  <si>
-    <t>Dja Faunal Reserve</t>
-  </si>
-  <si>
-    <t>Shiretoko</t>
-  </si>
-  <si>
-    <t>Tubbataha Reefs Natural Park</t>
-  </si>
-  <si>
-    <t>Good with some concerns -&gt; Good</t>
-  </si>
-  <si>
-    <t>Brazilian Atlantic Islands: Fernando de Noronha and Atol das Rocas Reserves</t>
-  </si>
-  <si>
-    <t>Primeval Beech Forests of the Carpathians and Other Regions of Europe</t>
-  </si>
-  <si>
-    <t>Monarch Butterfly Biosphere Reserve</t>
-  </si>
-  <si>
-    <t>Tassili n'Ajjer</t>
-  </si>
-  <si>
-    <t>High Threat -&gt; Data Deficient</t>
-  </si>
-  <si>
-    <t>Ha Long Bay</t>
-  </si>
-  <si>
-    <t>Shirakami-Sanchi</t>
-  </si>
-  <si>
-    <t>Laurisilva of Madeira</t>
-  </si>
-  <si>
-    <t>Tikal National Park</t>
-  </si>
-  <si>
-    <t>New Zealand Sub-Antarctic Islands</t>
-  </si>
-  <si>
-    <t>Improving -&gt; Stable</t>
-  </si>
-  <si>
-    <t>Manú National Park</t>
-  </si>
-  <si>
-    <t>Río Plátano Biosphere Reserve</t>
-  </si>
-  <si>
-    <t>Los Katíos National Park</t>
-  </si>
-  <si>
-    <t>Canaima National Park</t>
-  </si>
-  <si>
-    <t>Very High Threat -&gt; Data Deficient</t>
-  </si>
-  <si>
-    <t>Central Amazon Conservation Complex</t>
-  </si>
-  <si>
-    <t>Macquarie Island</t>
-  </si>
-  <si>
-    <t>Pantanal Conservation Complex</t>
-  </si>
-  <si>
-    <t>Atlantic Forest Southeast Reserves</t>
-  </si>
-  <si>
-    <t>Three Parallel Rivers of Yunnan Protected Areas</t>
-  </si>
-  <si>
-    <t>Tasmanian Wilderness</t>
-  </si>
-  <si>
-    <t>Bwindi Impenetrable National Park</t>
-  </si>
-  <si>
-    <t>Stevns Klint</t>
-  </si>
-  <si>
-    <t>Data Deficient -&gt; Good</t>
-  </si>
-  <si>
-    <t>Mount Huangshan</t>
-  </si>
-  <si>
-    <t>Wulingyuan Scenic and Historic Interest Area</t>
-  </si>
-  <si>
-    <t>Uvs Nuur Basin</t>
-  </si>
-  <si>
-    <t>Komodo National Park</t>
-  </si>
-  <si>
-    <t>Vredefort Dome</t>
-  </si>
-  <si>
-    <t>Carlsbad Caverns National Park</t>
-  </si>
-  <si>
-    <t>Great Himalayan National Park Conservation Area</t>
-  </si>
-  <si>
-    <t>Srebarna Nature Reserve</t>
-  </si>
-  <si>
-    <t>Nanda Devi and Valley of Flowers National Parks</t>
-  </si>
-  <si>
-    <t>Golden Mountains of Altai</t>
-  </si>
-  <si>
-    <t>Coiba National Park and its Special Zone of Marine Protection</t>
-  </si>
-  <si>
-    <t>Isole Eolie (Aeolian Islands)</t>
-  </si>
-  <si>
-    <t>Kaziranga National Park</t>
-  </si>
-  <si>
-    <t>Saryarka – Steppe and Lakes of Northern Kazakhstan</t>
-  </si>
-  <si>
-    <t>Stable -&gt; Improving</t>
-  </si>
-  <si>
-    <t>Puerto-Princesa Subterranean River National Park</t>
-  </si>
-  <si>
-    <t>Desembarco del Granma National Park</t>
-  </si>
-  <si>
-    <t>1 -&gt; 3</t>
-  </si>
-  <si>
-    <t>Ujung Kulon National Park</t>
-  </si>
-  <si>
-    <t>Fraser Island</t>
-  </si>
-  <si>
-    <t>Mount Hamiguitan Range Wildlife Sanctuary</t>
-  </si>
-  <si>
-    <t>Nahanni National Park</t>
-  </si>
-  <si>
-    <t>Białowieża Forest</t>
-  </si>
-  <si>
-    <t>Galápagos Islands</t>
-  </si>
-  <si>
-    <t>Lakes of Ounianga</t>
-  </si>
-  <si>
-    <t>Plitvice Lakes National Park</t>
-  </si>
-  <si>
-    <t>Cocos Island National Park</t>
-  </si>
-  <si>
-    <t>High Concern -&gt; nan</t>
-  </si>
-  <si>
-    <t>Data Deficient -&gt; nan</t>
-  </si>
-  <si>
-    <t>Belize Barrier Reef Reserve System</t>
-  </si>
-  <si>
-    <t>Alejandro de Humboldt National Park</t>
-  </si>
-  <si>
     <t>Sangay National Park</t>
   </si>
   <si>
-    <t>Deteriorating -&gt; Stable</t>
-  </si>
-  <si>
     <t>Historic Sanctuary of Machu Picchu</t>
   </si>
   <si>
@@ -605,6 +602,9 @@
   </si>
   <si>
     <t>Hawaii Volcanoes National Park</t>
+  </si>
+  <si>
+    <t>Mount Emei Scenic Area, including Leshan Giant Buddha Scenic Area</t>
   </si>
   <si>
     <t>Western Ghats</t>
@@ -1043,7 +1043,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E372"/>
+  <dimension ref="A1:E373"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1246,10 +1246,10 @@
         <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1257,16 +1257,16 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>4322</v>
+        <v>61608</v>
       </c>
       <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>28</v>
+      </c>
+      <c r="E13" t="s">
         <v>27</v>
-      </c>
-      <c r="D13" t="s">
-        <v>17</v>
-      </c>
-      <c r="E13" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1274,16 +1274,16 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>4322</v>
+        <v>61608</v>
       </c>
       <c r="C14" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D14" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14" t="s">
         <v>29</v>
-      </c>
-      <c r="E14" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1294,10 +1294,10 @@
         <v>4322</v>
       </c>
       <c r="C15" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D15" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="E15" t="s">
         <v>31</v>
@@ -1308,16 +1308,16 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>26653</v>
+        <v>4322</v>
       </c>
       <c r="C16" t="s">
+        <v>30</v>
+      </c>
+      <c r="D16" t="s">
         <v>32</v>
       </c>
-      <c r="D16" t="s">
-        <v>17</v>
-      </c>
       <c r="E16" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1325,13 +1325,13 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>26653</v>
+        <v>4322</v>
       </c>
       <c r="C17" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D17" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="E17" t="s">
         <v>34</v>
@@ -1345,13 +1345,13 @@
         <v>26653</v>
       </c>
       <c r="C18" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D18" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1359,16 +1359,16 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>4328</v>
+        <v>26653</v>
       </c>
       <c r="C19" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D19" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="E19" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1376,16 +1376,16 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>478640</v>
+        <v>26653</v>
       </c>
       <c r="C20" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D20" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="E20" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1393,16 +1393,16 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>478640</v>
+        <v>4328</v>
       </c>
       <c r="C21" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D21" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E21" t="s">
-        <v>39</v>
+        <v>11</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1416,10 +1416,10 @@
         <v>38</v>
       </c>
       <c r="D22" t="s">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="E22" t="s">
-        <v>6</v>
+        <v>39</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1433,10 +1433,10 @@
         <v>38</v>
       </c>
       <c r="D23" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="E23" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1444,16 +1444,16 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>902347</v>
+        <v>478640</v>
       </c>
       <c r="C24" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D24" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="E24" t="s">
-        <v>42</v>
+        <v>6</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1461,16 +1461,16 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>902347</v>
+        <v>478640</v>
       </c>
       <c r="C25" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D25" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="E25" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1487,7 +1487,7 @@
         <v>37</v>
       </c>
       <c r="E26" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1498,13 +1498,13 @@
         <v>168242</v>
       </c>
       <c r="C27" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D27" t="s">
         <v>17</v>
       </c>
       <c r="E27" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1515,13 +1515,13 @@
         <v>168242</v>
       </c>
       <c r="C28" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D28" t="s">
         <v>37</v>
       </c>
       <c r="E28" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1532,10 +1532,10 @@
         <v>10904</v>
       </c>
       <c r="C29" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D29" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="E29" t="s">
         <v>14</v>
@@ -1549,10 +1549,10 @@
         <v>10904</v>
       </c>
       <c r="C30" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D30" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="E30" t="s">
         <v>14</v>
@@ -1566,13 +1566,13 @@
         <v>10904</v>
       </c>
       <c r="C31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D31" t="s">
         <v>21</v>
       </c>
       <c r="E31" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1583,13 +1583,13 @@
         <v>10904</v>
       </c>
       <c r="C32" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D32" t="s">
         <v>37</v>
       </c>
       <c r="E32" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1600,13 +1600,13 @@
         <v>10904</v>
       </c>
       <c r="C33" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D33" t="s">
         <v>5</v>
       </c>
       <c r="E33" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1617,13 +1617,13 @@
         <v>10904</v>
       </c>
       <c r="C34" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D34" t="s">
         <v>7</v>
       </c>
       <c r="E34" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1634,13 +1634,13 @@
         <v>220292</v>
       </c>
       <c r="C35" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D35" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="E35" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1651,13 +1651,13 @@
         <v>220292</v>
       </c>
       <c r="C36" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D36" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="E36" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1668,13 +1668,13 @@
         <v>220292</v>
       </c>
       <c r="C37" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D37" t="s">
         <v>21</v>
       </c>
       <c r="E37" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1685,13 +1685,13 @@
         <v>555512001</v>
       </c>
       <c r="C38" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D38" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="E38" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1702,13 +1702,13 @@
         <v>555512001</v>
       </c>
       <c r="C39" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D39" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="E39" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1719,7 +1719,7 @@
         <v>903136</v>
       </c>
       <c r="C40" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D40" t="s">
         <v>17</v>
@@ -1736,13 +1736,13 @@
         <v>902481</v>
       </c>
       <c r="C41" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D41" t="s">
         <v>17</v>
       </c>
       <c r="E41" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1753,10 +1753,10 @@
         <v>902481</v>
       </c>
       <c r="C42" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D42" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="E42" t="s">
         <v>14</v>
@@ -1770,10 +1770,10 @@
         <v>902481</v>
       </c>
       <c r="C43" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D43" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="E43" t="s">
         <v>14</v>
@@ -1787,10 +1787,10 @@
         <v>902481</v>
       </c>
       <c r="C44" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D44" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E44" t="s">
         <v>56</v>
@@ -1804,7 +1804,7 @@
         <v>902481</v>
       </c>
       <c r="C45" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D45" t="s">
         <v>37</v>
@@ -1827,7 +1827,7 @@
         <v>17</v>
       </c>
       <c r="E46" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1841,10 +1841,10 @@
         <v>57</v>
       </c>
       <c r="D47" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="E47" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1861,7 +1861,7 @@
         <v>21</v>
       </c>
       <c r="E48" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1895,7 +1895,7 @@
         <v>21</v>
       </c>
       <c r="E50" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -2014,7 +2014,7 @@
         <v>13</v>
       </c>
       <c r="E57" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -2048,7 +2048,7 @@
         <v>21</v>
       </c>
       <c r="E59" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -2079,7 +2079,7 @@
         <v>72</v>
       </c>
       <c r="D61" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="E61" t="s">
         <v>73</v>
@@ -2133,7 +2133,7 @@
         <v>21</v>
       </c>
       <c r="E64" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -2147,7 +2147,7 @@
         <v>75</v>
       </c>
       <c r="D65" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E65" t="s">
         <v>76</v>
@@ -2167,7 +2167,7 @@
         <v>37</v>
       </c>
       <c r="E66" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -2184,7 +2184,7 @@
         <v>7</v>
       </c>
       <c r="E67" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -2198,7 +2198,7 @@
         <v>77</v>
       </c>
       <c r="D68" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="E68" t="s">
         <v>64</v>
@@ -2232,10 +2232,10 @@
         <v>80</v>
       </c>
       <c r="D70" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="E70" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -2269,7 +2269,7 @@
         <v>37</v>
       </c>
       <c r="E72" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -2351,10 +2351,10 @@
         <v>82</v>
       </c>
       <c r="D77" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E77" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -2436,7 +2436,7 @@
         <v>86</v>
       </c>
       <c r="D82" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E82" t="s">
         <v>87</v>
@@ -2490,7 +2490,7 @@
         <v>17</v>
       </c>
       <c r="E85" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -2504,7 +2504,7 @@
         <v>88</v>
       </c>
       <c r="D86" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="E86" t="s">
         <v>89</v>
@@ -2521,7 +2521,7 @@
         <v>88</v>
       </c>
       <c r="D87" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="E87" t="s">
         <v>89</v>
@@ -2572,7 +2572,7 @@
         <v>88</v>
       </c>
       <c r="D90" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E90" t="s">
         <v>92</v>
@@ -2626,7 +2626,7 @@
         <v>21</v>
       </c>
       <c r="E93" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -2643,7 +2643,7 @@
         <v>5</v>
       </c>
       <c r="E94" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -2660,7 +2660,7 @@
         <v>7</v>
       </c>
       <c r="E95" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -2694,7 +2694,7 @@
         <v>37</v>
       </c>
       <c r="E97" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -2708,7 +2708,7 @@
         <v>98</v>
       </c>
       <c r="D98" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="E98" t="s">
         <v>14</v>
@@ -2725,10 +2725,10 @@
         <v>99</v>
       </c>
       <c r="D99" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="E99" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -2742,10 +2742,10 @@
         <v>99</v>
       </c>
       <c r="D100" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="E100" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
     </row>
     <row r="101" spans="1:5">
@@ -2759,10 +2759,10 @@
         <v>99</v>
       </c>
       <c r="D101" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="E101" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
     </row>
     <row r="102" spans="1:5">
@@ -2776,10 +2776,10 @@
         <v>99</v>
       </c>
       <c r="D102" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="E102" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
     </row>
     <row r="103" spans="1:5">
@@ -2793,10 +2793,10 @@
         <v>99</v>
       </c>
       <c r="D103" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="E103" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="104" spans="1:5">
@@ -2810,10 +2810,10 @@
         <v>99</v>
       </c>
       <c r="D104" t="s">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="E104" t="s">
-        <v>100</v>
+        <v>84</v>
       </c>
     </row>
     <row r="105" spans="1:5">
@@ -2821,16 +2821,16 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>900883</v>
+        <v>2578</v>
       </c>
       <c r="C105" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D105" t="s">
-        <v>37</v>
+        <v>5</v>
       </c>
       <c r="E105" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
     </row>
     <row r="106" spans="1:5">
@@ -2838,16 +2838,16 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>900883</v>
+        <v>2578</v>
       </c>
       <c r="C106" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D106" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E106" t="s">
-        <v>84</v>
+        <v>101</v>
       </c>
     </row>
     <row r="107" spans="1:5">
@@ -2855,16 +2855,16 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>2578</v>
+        <v>902367</v>
       </c>
       <c r="C107" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D107" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="E107" t="s">
-        <v>50</v>
+        <v>83</v>
       </c>
     </row>
     <row r="108" spans="1:5">
@@ -2872,16 +2872,16 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>2578</v>
+        <v>902480</v>
       </c>
       <c r="C108" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D108" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E108" t="s">
-        <v>102</v>
+        <v>44</v>
       </c>
     </row>
     <row r="109" spans="1:5">
@@ -2895,10 +2895,10 @@
         <v>103</v>
       </c>
       <c r="D109" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="E109" t="s">
-        <v>45</v>
+        <v>89</v>
       </c>
     </row>
     <row r="110" spans="1:5">
@@ -2912,7 +2912,7 @@
         <v>103</v>
       </c>
       <c r="D110" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="E110" t="s">
         <v>89</v>
@@ -2929,10 +2929,10 @@
         <v>103</v>
       </c>
       <c r="D111" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="E111" t="s">
-        <v>89</v>
+        <v>20</v>
       </c>
     </row>
     <row r="112" spans="1:5">
@@ -2946,10 +2946,10 @@
         <v>103</v>
       </c>
       <c r="D112" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="E112" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="113" spans="1:5">
@@ -2963,10 +2963,10 @@
         <v>103</v>
       </c>
       <c r="D113" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="E113" t="s">
-        <v>22</v>
+        <v>92</v>
       </c>
     </row>
     <row r="114" spans="1:5">
@@ -2980,10 +2980,10 @@
         <v>103</v>
       </c>
       <c r="D114" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="E114" t="s">
-        <v>92</v>
+        <v>48</v>
       </c>
     </row>
     <row r="115" spans="1:5">
@@ -2991,16 +2991,16 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>902480</v>
+        <v>555512002</v>
       </c>
       <c r="C115" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D115" t="s">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="E115" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
     </row>
     <row r="116" spans="1:5">
@@ -3014,10 +3014,10 @@
         <v>104</v>
       </c>
       <c r="D116" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="E116" t="s">
-        <v>34</v>
+        <v>61</v>
       </c>
     </row>
     <row r="117" spans="1:5">
@@ -3031,10 +3031,10 @@
         <v>104</v>
       </c>
       <c r="D117" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E117" t="s">
-        <v>61</v>
+        <v>105</v>
       </c>
     </row>
     <row r="118" spans="1:5">
@@ -3042,16 +3042,16 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>555512002</v>
+        <v>2015</v>
       </c>
       <c r="C118" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D118" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E118" t="s">
-        <v>105</v>
+        <v>33</v>
       </c>
     </row>
     <row r="119" spans="1:5">
@@ -3065,10 +3065,10 @@
         <v>106</v>
       </c>
       <c r="D119" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E119" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
     </row>
     <row r="120" spans="1:5">
@@ -3076,16 +3076,16 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>2015</v>
+        <v>9613</v>
       </c>
       <c r="C120" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D120" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="E120" t="s">
-        <v>49</v>
+        <v>14</v>
       </c>
     </row>
     <row r="121" spans="1:5">
@@ -3099,10 +3099,10 @@
         <v>107</v>
       </c>
       <c r="D121" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="E121" t="s">
-        <v>14</v>
+        <v>47</v>
       </c>
     </row>
     <row r="122" spans="1:5">
@@ -3116,10 +3116,10 @@
         <v>107</v>
       </c>
       <c r="D122" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="E122" t="s">
-        <v>48</v>
+        <v>108</v>
       </c>
     </row>
     <row r="123" spans="1:5">
@@ -3133,10 +3133,10 @@
         <v>107</v>
       </c>
       <c r="D123" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E123" t="s">
-        <v>108</v>
+        <v>11</v>
       </c>
     </row>
     <row r="124" spans="1:5">
@@ -3144,16 +3144,16 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>9613</v>
+        <v>555512006</v>
       </c>
       <c r="C124" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D124" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E124" t="s">
-        <v>11</v>
+        <v>55</v>
       </c>
     </row>
     <row r="125" spans="1:5">
@@ -3167,7 +3167,7 @@
         <v>109</v>
       </c>
       <c r="D125" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="E125" t="s">
         <v>110</v>
@@ -3184,10 +3184,10 @@
         <v>109</v>
       </c>
       <c r="D126" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="E126" t="s">
-        <v>111</v>
+        <v>42</v>
       </c>
     </row>
     <row r="127" spans="1:5">
@@ -3201,10 +3201,10 @@
         <v>109</v>
       </c>
       <c r="D127" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="E127" t="s">
-        <v>111</v>
+        <v>24</v>
       </c>
     </row>
     <row r="128" spans="1:5">
@@ -3212,16 +3212,16 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>555512006</v>
+        <v>903139</v>
       </c>
       <c r="C128" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D128" t="s">
         <v>13</v>
       </c>
       <c r="E128" t="s">
-        <v>111</v>
+        <v>64</v>
       </c>
     </row>
     <row r="129" spans="1:5">
@@ -3229,16 +3229,16 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>555512006</v>
+        <v>903139</v>
       </c>
       <c r="C129" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D129" t="s">
         <v>21</v>
       </c>
       <c r="E129" t="s">
-        <v>112</v>
+        <v>79</v>
       </c>
     </row>
     <row r="130" spans="1:5">
@@ -3246,16 +3246,16 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>555512006</v>
+        <v>903139</v>
       </c>
       <c r="C130" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D130" t="s">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="E130" t="s">
-        <v>113</v>
+        <v>65</v>
       </c>
     </row>
     <row r="131" spans="1:5">
@@ -3263,16 +3263,16 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>555512006</v>
+        <v>903139</v>
       </c>
       <c r="C131" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D131" t="s">
-        <v>37</v>
+        <v>7</v>
       </c>
       <c r="E131" t="s">
-        <v>114</v>
+        <v>101</v>
       </c>
     </row>
     <row r="132" spans="1:5">
@@ -3280,16 +3280,16 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>555512006</v>
+        <v>478641</v>
       </c>
       <c r="C132" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="D132" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E132" t="s">
-        <v>24</v>
+        <v>71</v>
       </c>
     </row>
     <row r="133" spans="1:5">
@@ -3297,16 +3297,16 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>903139</v>
+        <v>478641</v>
       </c>
       <c r="C133" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D133" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="E133" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
     </row>
     <row r="134" spans="1:5">
@@ -3314,16 +3314,16 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>903139</v>
+        <v>67729</v>
       </c>
       <c r="C134" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D134" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="E134" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
     </row>
     <row r="135" spans="1:5">
@@ -3331,16 +3331,16 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>903139</v>
+        <v>67729</v>
       </c>
       <c r="C135" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D135" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="E135" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
     </row>
     <row r="136" spans="1:5">
@@ -3348,16 +3348,16 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>903139</v>
+        <v>12209</v>
       </c>
       <c r="C136" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D136" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E136" t="s">
-        <v>102</v>
+        <v>18</v>
       </c>
     </row>
     <row r="137" spans="1:5">
@@ -3365,16 +3365,16 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>478641</v>
+        <v>12209</v>
       </c>
       <c r="C137" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D137" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E137" t="s">
-        <v>71</v>
+        <v>27</v>
       </c>
     </row>
     <row r="138" spans="1:5">
@@ -3382,16 +3382,16 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>478641</v>
+        <v>12209</v>
       </c>
       <c r="C138" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D138" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="E138" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
     </row>
     <row r="139" spans="1:5">
@@ -3402,13 +3402,13 @@
         <v>12209</v>
       </c>
       <c r="C139" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D139" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="E139" t="s">
-        <v>18</v>
+        <v>87</v>
       </c>
     </row>
     <row r="140" spans="1:5">
@@ -3419,13 +3419,13 @@
         <v>12209</v>
       </c>
       <c r="C140" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D140" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="E140" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
     <row r="141" spans="1:5">
@@ -3433,16 +3433,16 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>12209</v>
+        <v>555547988</v>
       </c>
       <c r="C141" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D141" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E141" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
     </row>
     <row r="142" spans="1:5">
@@ -3450,16 +3450,16 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>12209</v>
+        <v>10901</v>
       </c>
       <c r="C142" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D142" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E142" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="143" spans="1:5">
@@ -3467,16 +3467,16 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>12209</v>
+        <v>10901</v>
       </c>
       <c r="C143" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D143" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="E143" t="s">
-        <v>11</v>
+        <v>89</v>
       </c>
     </row>
     <row r="144" spans="1:5">
@@ -3484,16 +3484,16 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>555547988</v>
+        <v>10901</v>
       </c>
       <c r="C144" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D144" t="s">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="E144" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
     </row>
     <row r="145" spans="1:5">
@@ -3501,16 +3501,16 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>10901</v>
+        <v>555547991</v>
       </c>
       <c r="C145" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D145" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="E145" t="s">
-        <v>89</v>
+        <v>64</v>
       </c>
     </row>
     <row r="146" spans="1:5">
@@ -3518,16 +3518,16 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>10901</v>
+        <v>555547991</v>
       </c>
       <c r="C146" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D146" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="E146" t="s">
-        <v>89</v>
+        <v>64</v>
       </c>
     </row>
     <row r="147" spans="1:5">
@@ -3535,16 +3535,16 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>10901</v>
+        <v>220291</v>
       </c>
       <c r="C147" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D147" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E147" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
     </row>
     <row r="148" spans="1:5">
@@ -3552,16 +3552,16 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>555547991</v>
+        <v>220291</v>
       </c>
       <c r="C148" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D148" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="E148" t="s">
-        <v>64</v>
+        <v>83</v>
       </c>
     </row>
     <row r="149" spans="1:5">
@@ -3569,16 +3569,16 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>555547991</v>
+        <v>220291</v>
       </c>
       <c r="C149" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D149" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="E149" t="s">
-        <v>64</v>
+        <v>29</v>
       </c>
     </row>
     <row r="150" spans="1:5">
@@ -3589,13 +3589,13 @@
         <v>220291</v>
       </c>
       <c r="C150" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D150" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="E150" t="s">
-        <v>18</v>
+        <v>119</v>
       </c>
     </row>
     <row r="151" spans="1:5">
@@ -3603,16 +3603,16 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>220291</v>
+        <v>9632</v>
       </c>
       <c r="C151" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D151" t="s">
         <v>13</v>
       </c>
       <c r="E151" t="s">
-        <v>83</v>
+        <v>39</v>
       </c>
     </row>
     <row r="152" spans="1:5">
@@ -3620,16 +3620,16 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>220291</v>
+        <v>902373</v>
       </c>
       <c r="C152" t="s">
         <v>121</v>
       </c>
       <c r="D152" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="E152" t="s">
-        <v>26</v>
+        <v>110</v>
       </c>
     </row>
     <row r="153" spans="1:5">
@@ -3637,16 +3637,16 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>220291</v>
+        <v>26651</v>
       </c>
       <c r="C153" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D153" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E153" t="s">
-        <v>122</v>
+        <v>31</v>
       </c>
     </row>
     <row r="154" spans="1:5">
@@ -3654,13 +3654,13 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>9632</v>
+        <v>26651</v>
       </c>
       <c r="C154" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D154" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="E154" t="s">
         <v>39</v>
@@ -3671,16 +3671,16 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>902373</v>
+        <v>26651</v>
       </c>
       <c r="C155" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D155" t="s">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="E155" t="s">
-        <v>100</v>
+        <v>39</v>
       </c>
     </row>
     <row r="156" spans="1:5">
@@ -3691,13 +3691,13 @@
         <v>26651</v>
       </c>
       <c r="C156" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D156" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E156" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="157" spans="1:5">
@@ -3708,13 +3708,13 @@
         <v>26651</v>
       </c>
       <c r="C157" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D157" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="E157" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
     </row>
     <row r="158" spans="1:5">
@@ -3725,13 +3725,13 @@
         <v>26651</v>
       </c>
       <c r="C158" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D158" t="s">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="E158" t="s">
-        <v>39</v>
+        <v>123</v>
       </c>
     </row>
     <row r="159" spans="1:5">
@@ -3742,13 +3742,13 @@
         <v>26651</v>
       </c>
       <c r="C159" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D159" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="E159" t="s">
-        <v>22</v>
+        <v>45</v>
       </c>
     </row>
     <row r="160" spans="1:5">
@@ -3756,16 +3756,16 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>26651</v>
+        <v>93292</v>
       </c>
       <c r="C160" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D160" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="E160" t="s">
-        <v>46</v>
+        <v>18</v>
       </c>
     </row>
     <row r="161" spans="1:5">
@@ -3773,16 +3773,16 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>26651</v>
+        <v>93292</v>
       </c>
       <c r="C161" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D161" t="s">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="E161" t="s">
-        <v>126</v>
+        <v>64</v>
       </c>
     </row>
     <row r="162" spans="1:5">
@@ -3790,16 +3790,16 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>26651</v>
+        <v>93292</v>
       </c>
       <c r="C162" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D162" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="E162" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
     </row>
     <row r="163" spans="1:5">
@@ -3807,16 +3807,16 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>93292</v>
+        <v>26689</v>
       </c>
       <c r="C163" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D163" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="E163" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
     </row>
     <row r="164" spans="1:5">
@@ -3824,16 +3824,16 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>93292</v>
+        <v>26689</v>
       </c>
       <c r="C164" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D164" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="E164" t="s">
-        <v>64</v>
+        <v>27</v>
       </c>
     </row>
     <row r="165" spans="1:5">
@@ -3841,16 +3841,16 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>93292</v>
+        <v>26689</v>
       </c>
       <c r="C165" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D165" t="s">
         <v>21</v>
       </c>
       <c r="E165" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="166" spans="1:5">
@@ -3861,13 +3861,13 @@
         <v>26689</v>
       </c>
       <c r="C166" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D166" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="E166" t="s">
-        <v>42</v>
+        <v>87</v>
       </c>
     </row>
     <row r="167" spans="1:5">
@@ -3878,13 +3878,13 @@
         <v>26689</v>
       </c>
       <c r="C167" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D167" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="E167" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
     </row>
     <row r="168" spans="1:5">
@@ -3895,13 +3895,13 @@
         <v>26689</v>
       </c>
       <c r="C168" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D168" t="s">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="E168" t="s">
-        <v>34</v>
+        <v>110</v>
       </c>
     </row>
     <row r="169" spans="1:5">
@@ -3912,13 +3912,13 @@
         <v>26689</v>
       </c>
       <c r="C169" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D169" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="E169" t="s">
-        <v>129</v>
+        <v>42</v>
       </c>
     </row>
     <row r="170" spans="1:5">
@@ -3926,16 +3926,16 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>26689</v>
+        <v>17758</v>
       </c>
       <c r="C170" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D170" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E170" t="s">
-        <v>56</v>
+        <v>14</v>
       </c>
     </row>
     <row r="171" spans="1:5">
@@ -3943,16 +3943,16 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>26689</v>
+        <v>17758</v>
       </c>
       <c r="C171" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D171" t="s">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="E171" t="s">
-        <v>43</v>
+        <v>89</v>
       </c>
     </row>
     <row r="172" spans="1:5">
@@ -3960,16 +3960,16 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>26689</v>
+        <v>17758</v>
       </c>
       <c r="C172" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D172" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="E172" t="s">
-        <v>100</v>
+        <v>24</v>
       </c>
     </row>
     <row r="173" spans="1:5">
@@ -3977,16 +3977,16 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>26689</v>
+        <v>902482</v>
       </c>
       <c r="C173" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D173" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="E173" t="s">
-        <v>43</v>
+        <v>20</v>
       </c>
     </row>
     <row r="174" spans="1:5">
@@ -3994,16 +3994,16 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>17758</v>
+        <v>902482</v>
       </c>
       <c r="C174" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D174" t="s">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="E174" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="175" spans="1:5">
@@ -4011,16 +4011,16 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>17758</v>
+        <v>902482</v>
       </c>
       <c r="C175" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D175" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="E175" t="s">
-        <v>89</v>
+        <v>8</v>
       </c>
     </row>
     <row r="176" spans="1:5">
@@ -4028,16 +4028,16 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>17758</v>
+        <v>68917</v>
       </c>
       <c r="C176" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D176" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="E176" t="s">
-        <v>24</v>
+        <v>129</v>
       </c>
     </row>
     <row r="177" spans="1:5">
@@ -4045,16 +4045,16 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>902482</v>
+        <v>900631</v>
       </c>
       <c r="C177" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D177" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="E177" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
     </row>
     <row r="178" spans="1:5">
@@ -4062,16 +4062,16 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>902482</v>
+        <v>900631</v>
       </c>
       <c r="C178" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D178" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="E178" t="s">
-        <v>8</v>
+        <v>39</v>
       </c>
     </row>
     <row r="179" spans="1:5">
@@ -4079,16 +4079,16 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>902482</v>
+        <v>900631</v>
       </c>
       <c r="C179" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D179" t="s">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="E179" t="s">
-        <v>8</v>
+        <v>48</v>
       </c>
     </row>
     <row r="180" spans="1:5">
@@ -4096,16 +4096,16 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>68917</v>
+        <v>903141</v>
       </c>
       <c r="C180" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D180" t="s">
         <v>17</v>
       </c>
       <c r="E180" t="s">
-        <v>133</v>
+        <v>55</v>
       </c>
     </row>
     <row r="181" spans="1:5">
@@ -4113,16 +4113,16 @@
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>900631</v>
+        <v>903141</v>
       </c>
       <c r="C181" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D181" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="E181" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
     </row>
     <row r="182" spans="1:5">
@@ -4130,16 +4130,16 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>900631</v>
+        <v>903141</v>
       </c>
       <c r="C182" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D182" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="E182" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
     </row>
     <row r="183" spans="1:5">
@@ -4147,16 +4147,16 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>900631</v>
+        <v>903141</v>
       </c>
       <c r="C183" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D183" t="s">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="E183" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
     </row>
     <row r="184" spans="1:5">
@@ -4164,16 +4164,16 @@
         <v>182</v>
       </c>
       <c r="B184" t="n">
-        <v>903141</v>
+        <v>903135</v>
       </c>
       <c r="C184" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D184" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="E184" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
     </row>
     <row r="185" spans="1:5">
@@ -4181,16 +4181,16 @@
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>903141</v>
+        <v>903135</v>
       </c>
       <c r="C185" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D185" t="s">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="E185" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="186" spans="1:5">
@@ -4198,16 +4198,16 @@
         <v>184</v>
       </c>
       <c r="B186" t="n">
-        <v>903141</v>
+        <v>4999</v>
       </c>
       <c r="C186" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D186" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="E186" t="s">
-        <v>34</v>
+        <v>134</v>
       </c>
     </row>
     <row r="187" spans="1:5">
@@ -4215,16 +4215,16 @@
         <v>185</v>
       </c>
       <c r="B187" t="n">
-        <v>903141</v>
+        <v>4999</v>
       </c>
       <c r="C187" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D187" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="E187" t="s">
-        <v>39</v>
+        <v>134</v>
       </c>
     </row>
     <row r="188" spans="1:5">
@@ -4232,16 +4232,16 @@
         <v>186</v>
       </c>
       <c r="B188" t="n">
-        <v>903135</v>
+        <v>4999</v>
       </c>
       <c r="C188" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D188" t="s">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="E188" t="s">
-        <v>15</v>
+        <v>76</v>
       </c>
     </row>
     <row r="189" spans="1:5">
@@ -4249,16 +4249,16 @@
         <v>187</v>
       </c>
       <c r="B189" t="n">
-        <v>903135</v>
+        <v>17050</v>
       </c>
       <c r="C189" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D189" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="E189" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
     </row>
     <row r="190" spans="1:5">
@@ -4266,16 +4266,16 @@
         <v>188</v>
       </c>
       <c r="B190" t="n">
-        <v>4999</v>
+        <v>17050</v>
       </c>
       <c r="C190" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D190" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="E190" t="s">
-        <v>138</v>
+        <v>10</v>
       </c>
     </row>
     <row r="191" spans="1:5">
@@ -4283,16 +4283,16 @@
         <v>189</v>
       </c>
       <c r="B191" t="n">
-        <v>4999</v>
+        <v>17050</v>
       </c>
       <c r="C191" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D191" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="E191" t="s">
-        <v>138</v>
+        <v>96</v>
       </c>
     </row>
     <row r="192" spans="1:5">
@@ -4300,16 +4300,16 @@
         <v>190</v>
       </c>
       <c r="B192" t="n">
-        <v>4999</v>
+        <v>900889</v>
       </c>
       <c r="C192" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D192" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E192" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
     </row>
     <row r="193" spans="1:5">
@@ -4317,16 +4317,16 @@
         <v>191</v>
       </c>
       <c r="B193" t="n">
-        <v>900889</v>
+        <v>68915</v>
       </c>
       <c r="C193" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D193" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E193" t="s">
-        <v>87</v>
+        <v>73</v>
       </c>
     </row>
     <row r="194" spans="1:5">
@@ -4337,13 +4337,13 @@
         <v>68915</v>
       </c>
       <c r="C194" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D194" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="E194" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
     </row>
     <row r="195" spans="1:5">
@@ -4354,13 +4354,13 @@
         <v>68915</v>
       </c>
       <c r="C195" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D195" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="E195" t="s">
-        <v>64</v>
+        <v>123</v>
       </c>
     </row>
     <row r="196" spans="1:5">
@@ -4368,16 +4368,16 @@
         <v>194</v>
       </c>
       <c r="B196" t="n">
-        <v>68915</v>
+        <v>198300</v>
       </c>
       <c r="C196" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D196" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="E196" t="s">
-        <v>126</v>
+        <v>55</v>
       </c>
     </row>
     <row r="197" spans="1:5">
@@ -4388,13 +4388,13 @@
         <v>198300</v>
       </c>
       <c r="C197" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D197" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E197" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
     </row>
     <row r="198" spans="1:5">
@@ -4405,13 +4405,13 @@
         <v>198300</v>
       </c>
       <c r="C198" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D198" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="E198" t="s">
-        <v>34</v>
+        <v>110</v>
       </c>
     </row>
     <row r="199" spans="1:5">
@@ -4422,13 +4422,13 @@
         <v>198300</v>
       </c>
       <c r="C199" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D199" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="E199" t="s">
-        <v>100</v>
+        <v>42</v>
       </c>
     </row>
     <row r="200" spans="1:5">
@@ -4439,13 +4439,13 @@
         <v>198300</v>
       </c>
       <c r="C200" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D200" t="s">
-        <v>37</v>
+        <v>5</v>
       </c>
       <c r="E200" t="s">
-        <v>43</v>
+        <v>84</v>
       </c>
     </row>
     <row r="201" spans="1:5">
@@ -4453,16 +4453,16 @@
         <v>199</v>
       </c>
       <c r="B201" t="n">
-        <v>198300</v>
+        <v>197</v>
       </c>
       <c r="C201" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D201" t="s">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="E201" t="s">
-        <v>84</v>
+        <v>27</v>
       </c>
     </row>
     <row r="202" spans="1:5">
@@ -4473,13 +4473,13 @@
         <v>197</v>
       </c>
       <c r="C202" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D202" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="E202" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
     </row>
     <row r="203" spans="1:5">
@@ -4490,13 +4490,13 @@
         <v>197</v>
       </c>
       <c r="C203" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D203" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="E203" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
     </row>
     <row r="204" spans="1:5">
@@ -4507,13 +4507,13 @@
         <v>197</v>
       </c>
       <c r="C204" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D204" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="E204" t="s">
-        <v>34</v>
+        <v>123</v>
       </c>
     </row>
     <row r="205" spans="1:5">
@@ -4524,13 +4524,13 @@
         <v>197</v>
       </c>
       <c r="C205" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D205" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E205" t="s">
-        <v>126</v>
+        <v>45</v>
       </c>
     </row>
     <row r="206" spans="1:5">
@@ -4538,16 +4538,16 @@
         <v>204</v>
       </c>
       <c r="B206" t="n">
-        <v>197</v>
+        <v>168239</v>
       </c>
       <c r="C206" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D206" t="s">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="E206" t="s">
-        <v>46</v>
+        <v>141</v>
       </c>
     </row>
     <row r="207" spans="1:5">
@@ -4555,16 +4555,16 @@
         <v>205</v>
       </c>
       <c r="B207" t="n">
-        <v>168239</v>
+        <v>17760</v>
       </c>
       <c r="C207" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D207" t="s">
-        <v>37</v>
+        <v>5</v>
       </c>
       <c r="E207" t="s">
-        <v>144</v>
+        <v>49</v>
       </c>
     </row>
     <row r="208" spans="1:5">
@@ -4575,10 +4575,10 @@
         <v>17760</v>
       </c>
       <c r="C208" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D208" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E208" t="s">
         <v>50</v>
@@ -4589,16 +4589,16 @@
         <v>207</v>
       </c>
       <c r="B209" t="n">
-        <v>17760</v>
+        <v>5002</v>
       </c>
       <c r="C209" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D209" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E209" t="s">
-        <v>51</v>
+        <v>8</v>
       </c>
     </row>
     <row r="210" spans="1:5">
@@ -4609,10 +4609,10 @@
         <v>5002</v>
       </c>
       <c r="C210" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D210" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E210" t="s">
         <v>8</v>
@@ -4623,16 +4623,16 @@
         <v>209</v>
       </c>
       <c r="B211" t="n">
-        <v>5002</v>
+        <v>61610</v>
       </c>
       <c r="C211" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D211" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="E211" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
     </row>
     <row r="212" spans="1:5">
@@ -4643,13 +4643,13 @@
         <v>61610</v>
       </c>
       <c r="C212" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="D212" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="E212" t="s">
-        <v>22</v>
+        <v>49</v>
       </c>
     </row>
     <row r="213" spans="1:5">
@@ -4660,13 +4660,13 @@
         <v>61610</v>
       </c>
       <c r="C213" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="D213" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E213" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
     </row>
     <row r="214" spans="1:5">
@@ -4674,16 +4674,16 @@
         <v>212</v>
       </c>
       <c r="B214" t="n">
-        <v>61610</v>
+        <v>61612</v>
       </c>
       <c r="C214" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D214" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="E214" t="s">
-        <v>40</v>
+        <v>14</v>
       </c>
     </row>
     <row r="215" spans="1:5">
@@ -4694,10 +4694,10 @@
         <v>61612</v>
       </c>
       <c r="C215" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D215" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="E215" t="s">
         <v>14</v>
@@ -4711,13 +4711,13 @@
         <v>61612</v>
       </c>
       <c r="C216" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D216" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="E216" t="s">
-        <v>14</v>
+        <v>146</v>
       </c>
     </row>
     <row r="217" spans="1:5">
@@ -4728,13 +4728,13 @@
         <v>61612</v>
       </c>
       <c r="C217" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D217" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="E217" t="s">
-        <v>149</v>
+        <v>84</v>
       </c>
     </row>
     <row r="218" spans="1:5">
@@ -4742,16 +4742,16 @@
         <v>216</v>
       </c>
       <c r="B218" t="n">
-        <v>61612</v>
+        <v>220296</v>
       </c>
       <c r="C218" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D218" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="E218" t="s">
-        <v>84</v>
+        <v>29</v>
       </c>
     </row>
     <row r="219" spans="1:5">
@@ -4759,16 +4759,16 @@
         <v>217</v>
       </c>
       <c r="B219" t="n">
-        <v>220296</v>
+        <v>145579</v>
       </c>
       <c r="C219" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D219" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E219" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
     </row>
     <row r="220" spans="1:5">
@@ -4779,10 +4779,10 @@
         <v>145579</v>
       </c>
       <c r="C220" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="D220" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="E220" t="s">
         <v>39</v>
@@ -4793,16 +4793,16 @@
         <v>219</v>
       </c>
       <c r="B221" t="n">
-        <v>145579</v>
+        <v>220297</v>
       </c>
       <c r="C221" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D221" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="E221" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
     </row>
     <row r="222" spans="1:5">
@@ -4810,16 +4810,16 @@
         <v>220</v>
       </c>
       <c r="B222" t="n">
-        <v>220297</v>
+        <v>198293</v>
       </c>
       <c r="C222" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D222" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E222" t="s">
-        <v>48</v>
+        <v>89</v>
       </c>
     </row>
     <row r="223" spans="1:5">
@@ -4830,10 +4830,10 @@
         <v>198293</v>
       </c>
       <c r="C223" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="D223" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="E223" t="s">
         <v>89</v>
@@ -4844,16 +4844,16 @@
         <v>222</v>
       </c>
       <c r="B224" t="n">
-        <v>198293</v>
+        <v>900881</v>
       </c>
       <c r="C224" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D224" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="E224" t="s">
-        <v>89</v>
+        <v>47</v>
       </c>
     </row>
     <row r="225" spans="1:5">
@@ -4864,13 +4864,13 @@
         <v>900881</v>
       </c>
       <c r="C225" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D225" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="E225" t="s">
-        <v>48</v>
+        <v>8</v>
       </c>
     </row>
     <row r="226" spans="1:5">
@@ -4881,10 +4881,10 @@
         <v>900881</v>
       </c>
       <c r="C226" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D226" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E226" t="s">
         <v>8</v>
@@ -4895,16 +4895,16 @@
         <v>225</v>
       </c>
       <c r="B227" t="n">
-        <v>900881</v>
+        <v>5000</v>
       </c>
       <c r="C227" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D227" t="s">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="E227" t="s">
-        <v>8</v>
+        <v>42</v>
       </c>
     </row>
     <row r="228" spans="1:5">
@@ -4915,13 +4915,13 @@
         <v>5000</v>
       </c>
       <c r="C228" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D228" t="s">
-        <v>37</v>
+        <v>5</v>
       </c>
       <c r="E228" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
     </row>
     <row r="229" spans="1:5">
@@ -4932,13 +4932,13 @@
         <v>5000</v>
       </c>
       <c r="C229" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D229" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E229" t="s">
-        <v>50</v>
+        <v>101</v>
       </c>
     </row>
     <row r="230" spans="1:5">
@@ -4946,16 +4946,16 @@
         <v>228</v>
       </c>
       <c r="B230" t="n">
-        <v>5000</v>
+        <v>61609</v>
       </c>
       <c r="C230" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D230" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E230" t="s">
-        <v>102</v>
+        <v>8</v>
       </c>
     </row>
     <row r="231" spans="1:5">
@@ -4966,13 +4966,13 @@
         <v>61609</v>
       </c>
       <c r="C231" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="D231" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E231" t="s">
-        <v>8</v>
+        <v>40</v>
       </c>
     </row>
     <row r="232" spans="1:5">
@@ -4980,16 +4980,16 @@
         <v>230</v>
       </c>
       <c r="B232" t="n">
-        <v>61609</v>
+        <v>555577556</v>
       </c>
       <c r="C232" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D232" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E232" t="s">
-        <v>40</v>
+        <v>155</v>
       </c>
     </row>
     <row r="233" spans="1:5">
@@ -4997,16 +4997,16 @@
         <v>231</v>
       </c>
       <c r="B233" t="n">
-        <v>555577556</v>
+        <v>26654</v>
       </c>
       <c r="C233" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D233" t="s">
-        <v>5</v>
+        <v>37</v>
       </c>
       <c r="E233" t="s">
-        <v>158</v>
+        <v>48</v>
       </c>
     </row>
     <row r="234" spans="1:5">
@@ -5014,16 +5014,16 @@
         <v>232</v>
       </c>
       <c r="B234" t="n">
-        <v>26654</v>
+        <v>67731</v>
       </c>
       <c r="C234" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D234" t="s">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="E234" t="s">
-        <v>49</v>
+        <v>20</v>
       </c>
     </row>
     <row r="235" spans="1:5">
@@ -5034,13 +5034,13 @@
         <v>67731</v>
       </c>
       <c r="C235" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="D235" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="E235" t="s">
-        <v>34</v>
+        <v>96</v>
       </c>
     </row>
     <row r="236" spans="1:5">
@@ -5051,13 +5051,13 @@
         <v>67731</v>
       </c>
       <c r="C236" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="D236" t="s">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="E236" t="s">
-        <v>34</v>
+        <v>8</v>
       </c>
     </row>
     <row r="237" spans="1:5">
@@ -5068,13 +5068,13 @@
         <v>67731</v>
       </c>
       <c r="C237" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="D237" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E237" t="s">
-        <v>50</v>
+        <v>8</v>
       </c>
     </row>
     <row r="238" spans="1:5">
@@ -5082,16 +5082,16 @@
         <v>236</v>
       </c>
       <c r="B238" t="n">
-        <v>67731</v>
+        <v>900880</v>
       </c>
       <c r="C238" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D238" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="E238" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
     </row>
     <row r="239" spans="1:5">
@@ -5099,16 +5099,16 @@
         <v>237</v>
       </c>
       <c r="B239" t="n">
-        <v>900880</v>
+        <v>67725</v>
       </c>
       <c r="C239" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D239" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="E239" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
     </row>
     <row r="240" spans="1:5">
@@ -5116,16 +5116,16 @@
         <v>238</v>
       </c>
       <c r="B240" t="n">
-        <v>67725</v>
+        <v>14177</v>
       </c>
       <c r="C240" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D240" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="E240" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
     </row>
     <row r="241" spans="1:5">
@@ -5136,10 +5136,10 @@
         <v>902483</v>
       </c>
       <c r="C241" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D241" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="E241" t="s">
         <v>39</v>
@@ -5153,7 +5153,7 @@
         <v>902483</v>
       </c>
       <c r="C242" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D242" t="s">
         <v>13</v>
@@ -5170,13 +5170,13 @@
         <v>93291</v>
       </c>
       <c r="C243" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D243" t="s">
         <v>5</v>
       </c>
       <c r="E243" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="244" spans="1:5">
@@ -5187,7 +5187,7 @@
         <v>93291</v>
       </c>
       <c r="C244" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D244" t="s">
         <v>7</v>
@@ -5204,13 +5204,13 @@
         <v>555577557</v>
       </c>
       <c r="C245" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D245" t="s">
         <v>37</v>
       </c>
       <c r="E245" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="246" spans="1:5">
@@ -5221,13 +5221,13 @@
         <v>9612</v>
       </c>
       <c r="C246" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D246" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="E246" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
     </row>
     <row r="247" spans="1:5">
@@ -5238,13 +5238,13 @@
         <v>9612</v>
       </c>
       <c r="C247" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D247" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="E247" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
     </row>
     <row r="248" spans="1:5">
@@ -5255,13 +5255,13 @@
         <v>9612</v>
       </c>
       <c r="C248" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D248" t="s">
         <v>13</v>
       </c>
       <c r="E248" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
     </row>
     <row r="249" spans="1:5">
@@ -5272,13 +5272,13 @@
         <v>9612</v>
       </c>
       <c r="C249" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D249" t="s">
         <v>21</v>
       </c>
       <c r="E249" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="250" spans="1:5">
@@ -5289,10 +5289,10 @@
         <v>16793</v>
       </c>
       <c r="C250" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D250" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="E250" t="s">
         <v>39</v>
@@ -5306,13 +5306,13 @@
         <v>168241</v>
       </c>
       <c r="C251" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D251" t="s">
         <v>5</v>
       </c>
       <c r="E251" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="252" spans="1:5">
@@ -5323,7 +5323,7 @@
         <v>168241</v>
       </c>
       <c r="C252" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D252" t="s">
         <v>7</v>
@@ -5340,10 +5340,10 @@
         <v>902479</v>
       </c>
       <c r="C253" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D253" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="E253" t="s">
         <v>14</v>
@@ -5357,10 +5357,10 @@
         <v>902479</v>
       </c>
       <c r="C254" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D254" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="E254" t="s">
         <v>14</v>
@@ -5374,10 +5374,10 @@
         <v>900008</v>
       </c>
       <c r="C255" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D255" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="E255" t="s">
         <v>64</v>
@@ -5391,10 +5391,10 @@
         <v>900008</v>
       </c>
       <c r="C256" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D256" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="E256" t="s">
         <v>64</v>
@@ -5408,13 +5408,13 @@
         <v>10744</v>
       </c>
       <c r="C257" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D257" t="s">
         <v>17</v>
       </c>
       <c r="E257" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="258" spans="1:5">
@@ -5425,13 +5425,13 @@
         <v>10744</v>
       </c>
       <c r="C258" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D258" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E258" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="259" spans="1:5">
@@ -5442,13 +5442,13 @@
         <v>903137</v>
       </c>
       <c r="C259" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D259" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="E259" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
     </row>
     <row r="260" spans="1:5">
@@ -5459,13 +5459,13 @@
         <v>903137</v>
       </c>
       <c r="C260" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D260" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="E260" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
     </row>
     <row r="261" spans="1:5">
@@ -5476,13 +5476,13 @@
         <v>903137</v>
       </c>
       <c r="C261" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D261" t="s">
         <v>37</v>
       </c>
       <c r="E261" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="262" spans="1:5">
@@ -5493,7 +5493,7 @@
         <v>198299</v>
       </c>
       <c r="C262" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D262" t="s">
         <v>13</v>
@@ -5510,7 +5510,7 @@
         <v>198297</v>
       </c>
       <c r="C263" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D263" t="s">
         <v>5</v>
@@ -5527,13 +5527,13 @@
         <v>198297</v>
       </c>
       <c r="C264" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D264" t="s">
         <v>7</v>
       </c>
       <c r="E264" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="265" spans="1:5">
@@ -5544,13 +5544,13 @@
         <v>198297</v>
       </c>
       <c r="C265" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D265" t="s">
         <v>23</v>
       </c>
       <c r="E265" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="266" spans="1:5">
@@ -5561,13 +5561,13 @@
         <v>67726</v>
       </c>
       <c r="C266" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D266" t="s">
         <v>17</v>
       </c>
       <c r="E266" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="267" spans="1:5">
@@ -5578,13 +5578,13 @@
         <v>67726</v>
       </c>
       <c r="C267" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D267" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E267" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="268" spans="1:5">
@@ -5595,7 +5595,7 @@
         <v>67730</v>
       </c>
       <c r="C268" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D268" t="s">
         <v>13</v>
@@ -5612,10 +5612,10 @@
         <v>555577558</v>
       </c>
       <c r="C269" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D269" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="E269" t="s">
         <v>64</v>
@@ -5629,13 +5629,13 @@
         <v>2005</v>
       </c>
       <c r="C270" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D270" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="E270" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
     </row>
     <row r="271" spans="1:5">
@@ -5646,13 +5646,13 @@
         <v>2005</v>
       </c>
       <c r="C271" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D271" t="s">
         <v>21</v>
       </c>
       <c r="E271" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="272" spans="1:5">
@@ -5663,13 +5663,13 @@
         <v>2008</v>
       </c>
       <c r="C272" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D272" t="s">
         <v>17</v>
       </c>
       <c r="E272" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
     </row>
     <row r="273" spans="1:5">
@@ -5680,13 +5680,13 @@
         <v>2008</v>
       </c>
       <c r="C273" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D273" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="E273" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
     </row>
     <row r="274" spans="1:5">
@@ -5697,13 +5697,13 @@
         <v>2008</v>
       </c>
       <c r="C274" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D274" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="E274" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
     </row>
     <row r="275" spans="1:5">
@@ -5714,7 +5714,7 @@
         <v>2008</v>
       </c>
       <c r="C275" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D275" t="s">
         <v>13</v>
@@ -5731,13 +5731,13 @@
         <v>2008</v>
       </c>
       <c r="C276" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D276" t="s">
         <v>21</v>
       </c>
       <c r="E276" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="277" spans="1:5">
@@ -5748,13 +5748,13 @@
         <v>2008</v>
       </c>
       <c r="C277" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D277" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E277" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
     </row>
     <row r="278" spans="1:5">
@@ -5765,13 +5765,13 @@
         <v>2008</v>
       </c>
       <c r="C278" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D278" t="s">
         <v>37</v>
       </c>
       <c r="E278" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="279" spans="1:5">
@@ -5782,7 +5782,7 @@
         <v>191</v>
       </c>
       <c r="C279" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D279" t="s">
         <v>13</v>
@@ -5799,13 +5799,13 @@
         <v>555547987</v>
       </c>
       <c r="C280" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D280" t="s">
         <v>17</v>
       </c>
       <c r="E280" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
     </row>
     <row r="281" spans="1:5">
@@ -5816,7 +5816,7 @@
         <v>555547987</v>
       </c>
       <c r="C281" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D281" t="s">
         <v>21</v>
@@ -5833,13 +5833,13 @@
         <v>2016</v>
       </c>
       <c r="C282" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D282" t="s">
         <v>17</v>
       </c>
       <c r="E282" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
     </row>
     <row r="283" spans="1:5">
@@ -5850,13 +5850,13 @@
         <v>2016</v>
       </c>
       <c r="C283" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D283" t="s">
         <v>13</v>
       </c>
       <c r="E283" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
     </row>
     <row r="284" spans="1:5">
@@ -5867,13 +5867,13 @@
         <v>2016</v>
       </c>
       <c r="C284" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D284" t="s">
         <v>21</v>
       </c>
       <c r="E284" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="285" spans="1:5">
@@ -5884,13 +5884,13 @@
         <v>2016</v>
       </c>
       <c r="C285" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D285" t="s">
         <v>37</v>
       </c>
       <c r="E285" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="286" spans="1:5">
@@ -5901,13 +5901,13 @@
         <v>145582</v>
       </c>
       <c r="C286" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D286" t="s">
         <v>13</v>
       </c>
       <c r="E286" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
     </row>
     <row r="287" spans="1:5">
@@ -5918,7 +5918,7 @@
         <v>145582</v>
       </c>
       <c r="C287" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D287" t="s">
         <v>37</v>
@@ -5935,13 +5935,13 @@
         <v>145582</v>
       </c>
       <c r="C288" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D288" t="s">
         <v>5</v>
       </c>
       <c r="E288" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="289" spans="1:5">
@@ -5952,13 +5952,13 @@
         <v>145582</v>
       </c>
       <c r="C289" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D289" t="s">
         <v>7</v>
       </c>
       <c r="E289" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="290" spans="1:5">
@@ -5969,13 +5969,13 @@
         <v>145582</v>
       </c>
       <c r="C290" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D290" t="s">
         <v>23</v>
       </c>
       <c r="E290" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="291" spans="1:5">
@@ -5986,10 +5986,10 @@
         <v>124383</v>
       </c>
       <c r="C291" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D291" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="E291" t="s">
         <v>89</v>
@@ -6003,10 +6003,10 @@
         <v>124383</v>
       </c>
       <c r="C292" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D292" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="E292" t="s">
         <v>89</v>
@@ -6020,7 +6020,7 @@
         <v>124383</v>
       </c>
       <c r="C293" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D293" t="s">
         <v>13</v>
@@ -6034,16 +6034,16 @@
         <v>292</v>
       </c>
       <c r="B294" t="n">
-        <v>900628</v>
+        <v>124383</v>
       </c>
       <c r="C294" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="D294" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="E294" t="s">
-        <v>39</v>
+        <v>187</v>
       </c>
     </row>
     <row r="295" spans="1:5">
@@ -6054,13 +6054,13 @@
         <v>900628</v>
       </c>
       <c r="C295" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D295" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="E295" t="s">
-        <v>144</v>
+        <v>39</v>
       </c>
     </row>
     <row r="296" spans="1:5">
@@ -6071,13 +6071,13 @@
         <v>900628</v>
       </c>
       <c r="C296" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D296" t="s">
-        <v>5</v>
+        <v>37</v>
       </c>
       <c r="E296" t="s">
-        <v>113</v>
+        <v>141</v>
       </c>
     </row>
     <row r="297" spans="1:5">
@@ -6088,13 +6088,13 @@
         <v>900628</v>
       </c>
       <c r="C297" t="s">
+        <v>188</v>
+      </c>
+      <c r="D297" t="s">
+        <v>5</v>
+      </c>
+      <c r="E297" t="s">
         <v>189</v>
-      </c>
-      <c r="D297" t="s">
-        <v>7</v>
-      </c>
-      <c r="E297" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="298" spans="1:5">
@@ -6105,13 +6105,13 @@
         <v>900628</v>
       </c>
       <c r="C298" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D298" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="E298" t="s">
-        <v>176</v>
+        <v>185</v>
       </c>
     </row>
     <row r="299" spans="1:5">
@@ -6119,16 +6119,16 @@
         <v>297</v>
       </c>
       <c r="B299" t="n">
-        <v>9614</v>
+        <v>900628</v>
       </c>
       <c r="C299" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D299" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="E299" t="s">
-        <v>28</v>
+        <v>174</v>
       </c>
     </row>
     <row r="300" spans="1:5">
@@ -6142,10 +6142,10 @@
         <v>190</v>
       </c>
       <c r="D300" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="E300" t="s">
-        <v>191</v>
+        <v>31</v>
       </c>
     </row>
     <row r="301" spans="1:5">
@@ -6153,16 +6153,16 @@
         <v>299</v>
       </c>
       <c r="B301" t="n">
-        <v>9623</v>
+        <v>9614</v>
       </c>
       <c r="C301" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D301" t="s">
-        <v>5</v>
+        <v>37</v>
       </c>
       <c r="E301" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="302" spans="1:5">
@@ -6173,13 +6173,13 @@
         <v>9623</v>
       </c>
       <c r="C302" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D302" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E302" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
     </row>
     <row r="303" spans="1:5">
@@ -6190,13 +6190,13 @@
         <v>9623</v>
       </c>
       <c r="C303" t="s">
+        <v>191</v>
+      </c>
+      <c r="D303" t="s">
+        <v>7</v>
+      </c>
+      <c r="E303" t="s">
         <v>192</v>
-      </c>
-      <c r="D303" t="s">
-        <v>23</v>
-      </c>
-      <c r="E303" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="304" spans="1:5">
@@ -6204,16 +6204,16 @@
         <v>302</v>
       </c>
       <c r="B304" t="n">
-        <v>2554</v>
+        <v>9623</v>
       </c>
       <c r="C304" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D304" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="E304" t="s">
-        <v>14</v>
+        <v>174</v>
       </c>
     </row>
     <row r="305" spans="1:5">
@@ -6224,13 +6224,13 @@
         <v>2554</v>
       </c>
       <c r="C305" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D305" t="s">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="E305" t="s">
-        <v>84</v>
+        <v>14</v>
       </c>
     </row>
     <row r="306" spans="1:5">
@@ -6241,13 +6241,13 @@
         <v>2554</v>
       </c>
       <c r="C306" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D306" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E306" t="s">
-        <v>46</v>
+        <v>84</v>
       </c>
     </row>
     <row r="307" spans="1:5">
@@ -6255,16 +6255,16 @@
         <v>305</v>
       </c>
       <c r="B307" t="n">
-        <v>555577559</v>
+        <v>2554</v>
       </c>
       <c r="C307" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D307" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="E307" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="308" spans="1:5">
@@ -6272,16 +6272,16 @@
         <v>306</v>
       </c>
       <c r="B308" t="n">
-        <v>18337</v>
+        <v>555577559</v>
       </c>
       <c r="C308" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D308" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="E308" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
     </row>
     <row r="309" spans="1:5">
@@ -6289,16 +6289,16 @@
         <v>307</v>
       </c>
       <c r="B309" t="n">
-        <v>555547990</v>
+        <v>18337</v>
       </c>
       <c r="C309" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D309" t="s">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="E309" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
     </row>
     <row r="310" spans="1:5">
@@ -6306,16 +6306,16 @@
         <v>308</v>
       </c>
       <c r="B310" t="n">
-        <v>67732</v>
+        <v>124384</v>
       </c>
       <c r="C310" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D310" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="E310" t="s">
-        <v>34</v>
+        <v>64</v>
       </c>
     </row>
     <row r="311" spans="1:5">
@@ -6323,16 +6323,16 @@
         <v>309</v>
       </c>
       <c r="B311" t="n">
-        <v>67732</v>
+        <v>555547990</v>
       </c>
       <c r="C311" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D311" t="s">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="E311" t="s">
-        <v>105</v>
+        <v>27</v>
       </c>
     </row>
     <row r="312" spans="1:5">
@@ -6340,16 +6340,16 @@
         <v>310</v>
       </c>
       <c r="B312" t="n">
-        <v>68916</v>
+        <v>67732</v>
       </c>
       <c r="C312" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D312" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="E312" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
     </row>
     <row r="313" spans="1:5">
@@ -6357,16 +6357,16 @@
         <v>311</v>
       </c>
       <c r="B313" t="n">
-        <v>68916</v>
+        <v>67732</v>
       </c>
       <c r="C313" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D313" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E313" t="s">
-        <v>34</v>
+        <v>105</v>
       </c>
     </row>
     <row r="314" spans="1:5">
@@ -6374,16 +6374,16 @@
         <v>312</v>
       </c>
       <c r="B314" t="n">
-        <v>900632</v>
+        <v>68916</v>
       </c>
       <c r="C314" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D314" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="E314" t="s">
-        <v>69</v>
+        <v>27</v>
       </c>
     </row>
     <row r="315" spans="1:5">
@@ -6391,16 +6391,16 @@
         <v>313</v>
       </c>
       <c r="B315" t="n">
-        <v>900633</v>
+        <v>68916</v>
       </c>
       <c r="C315" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D315" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="E315" t="s">
-        <v>64</v>
+        <v>27</v>
       </c>
     </row>
     <row r="316" spans="1:5">
@@ -6408,16 +6408,16 @@
         <v>314</v>
       </c>
       <c r="B316" t="n">
-        <v>900633</v>
+        <v>900632</v>
       </c>
       <c r="C316" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D316" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="E316" t="s">
-        <v>202</v>
+        <v>69</v>
       </c>
     </row>
     <row r="317" spans="1:5">
@@ -6431,7 +6431,7 @@
         <v>201</v>
       </c>
       <c r="D317" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="E317" t="s">
         <v>64</v>
@@ -6448,10 +6448,10 @@
         <v>201</v>
       </c>
       <c r="D318" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="E318" t="s">
-        <v>79</v>
+        <v>202</v>
       </c>
     </row>
     <row r="319" spans="1:5">
@@ -6465,10 +6465,10 @@
         <v>201</v>
       </c>
       <c r="D319" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="E319" t="s">
-        <v>10</v>
+        <v>64</v>
       </c>
     </row>
     <row r="320" spans="1:5">
@@ -6482,10 +6482,10 @@
         <v>201</v>
       </c>
       <c r="D320" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E320" t="s">
-        <v>49</v>
+        <v>10</v>
       </c>
     </row>
     <row r="321" spans="1:5">
@@ -6493,16 +6493,16 @@
         <v>319</v>
       </c>
       <c r="B321" t="n">
-        <v>2571</v>
+        <v>900633</v>
       </c>
       <c r="C321" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D321" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="E321" t="s">
-        <v>14</v>
+        <v>48</v>
       </c>
     </row>
     <row r="322" spans="1:5">
@@ -6510,16 +6510,16 @@
         <v>320</v>
       </c>
       <c r="B322" t="n">
-        <v>2572</v>
+        <v>2571</v>
       </c>
       <c r="C322" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D322" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="E322" t="s">
-        <v>79</v>
+        <v>14</v>
       </c>
     </row>
     <row r="323" spans="1:5">
@@ -6533,10 +6533,10 @@
         <v>204</v>
       </c>
       <c r="D323" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="E323" t="s">
-        <v>43</v>
+        <v>79</v>
       </c>
     </row>
     <row r="324" spans="1:5">
@@ -6544,16 +6544,16 @@
         <v>322</v>
       </c>
       <c r="B324" t="n">
-        <v>124387</v>
+        <v>2572</v>
       </c>
       <c r="C324" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D324" t="s">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="E324" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
     </row>
     <row r="325" spans="1:5">
@@ -6567,10 +6567,10 @@
         <v>205</v>
       </c>
       <c r="D325" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="E325" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="326" spans="1:5">
@@ -6578,16 +6578,16 @@
         <v>324</v>
       </c>
       <c r="B326" t="n">
-        <v>2004</v>
+        <v>124387</v>
       </c>
       <c r="C326" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D326" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="E326" t="s">
-        <v>73</v>
+        <v>22</v>
       </c>
     </row>
     <row r="327" spans="1:5">
@@ -6601,10 +6601,10 @@
         <v>206</v>
       </c>
       <c r="D327" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="E327" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="328" spans="1:5">
@@ -6618,7 +6618,7 @@
         <v>206</v>
       </c>
       <c r="D328" t="s">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="E328" t="s">
         <v>76</v>
@@ -6629,16 +6629,16 @@
         <v>327</v>
       </c>
       <c r="B329" t="n">
-        <v>10746</v>
+        <v>2004</v>
       </c>
       <c r="C329" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D329" t="s">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="E329" t="s">
-        <v>30</v>
+        <v>76</v>
       </c>
     </row>
     <row r="330" spans="1:5">
@@ -6652,10 +6652,10 @@
         <v>207</v>
       </c>
       <c r="D330" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="E330" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
     </row>
     <row r="331" spans="1:5">
@@ -6669,10 +6669,10 @@
         <v>207</v>
       </c>
       <c r="D331" t="s">
-        <v>5</v>
+        <v>37</v>
       </c>
       <c r="E331" t="s">
-        <v>84</v>
+        <v>48</v>
       </c>
     </row>
     <row r="332" spans="1:5">
@@ -6680,16 +6680,16 @@
         <v>330</v>
       </c>
       <c r="B332" t="n">
-        <v>2013</v>
+        <v>10746</v>
       </c>
       <c r="C332" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D332" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="E332" t="s">
-        <v>39</v>
+        <v>84</v>
       </c>
     </row>
     <row r="333" spans="1:5">
@@ -6703,10 +6703,10 @@
         <v>208</v>
       </c>
       <c r="D333" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="E333" t="s">
-        <v>209</v>
+        <v>39</v>
       </c>
     </row>
     <row r="334" spans="1:5">
@@ -6720,10 +6720,10 @@
         <v>208</v>
       </c>
       <c r="D334" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E334" t="s">
-        <v>96</v>
+        <v>209</v>
       </c>
     </row>
     <row r="335" spans="1:5">
@@ -6731,16 +6731,16 @@
         <v>333</v>
       </c>
       <c r="B335" t="n">
-        <v>198294</v>
+        <v>2013</v>
       </c>
       <c r="C335" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D335" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="E335" t="s">
-        <v>64</v>
+        <v>96</v>
       </c>
     </row>
     <row r="336" spans="1:5">
@@ -6748,16 +6748,16 @@
         <v>334</v>
       </c>
       <c r="B336" t="n">
-        <v>12896</v>
+        <v>198294</v>
       </c>
       <c r="C336" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D336" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="E336" t="s">
-        <v>26</v>
+        <v>64</v>
       </c>
     </row>
     <row r="337" spans="1:5">
@@ -6765,16 +6765,16 @@
         <v>335</v>
       </c>
       <c r="B337" t="n">
-        <v>10902</v>
+        <v>12896</v>
       </c>
       <c r="C337" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D337" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E337" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
     </row>
     <row r="338" spans="1:5">
@@ -6788,10 +6788,10 @@
         <v>212</v>
       </c>
       <c r="D338" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="E338" t="s">
-        <v>34</v>
+        <v>55</v>
       </c>
     </row>
     <row r="339" spans="1:5">
@@ -6805,10 +6805,10 @@
         <v>212</v>
       </c>
       <c r="D339" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="E339" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
     </row>
     <row r="340" spans="1:5">
@@ -6822,10 +6822,10 @@
         <v>212</v>
       </c>
       <c r="D340" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="E340" t="s">
-        <v>129</v>
+        <v>27</v>
       </c>
     </row>
     <row r="341" spans="1:5">
@@ -6839,10 +6839,10 @@
         <v>212</v>
       </c>
       <c r="D341" t="s">
+        <v>21</v>
+      </c>
+      <c r="E341" t="s">
         <v>29</v>
-      </c>
-      <c r="E341" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="342" spans="1:5">
@@ -6856,10 +6856,10 @@
         <v>212</v>
       </c>
       <c r="D342" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="E342" t="s">
-        <v>43</v>
+        <v>110</v>
       </c>
     </row>
     <row r="343" spans="1:5">
@@ -6867,16 +6867,16 @@
         <v>341</v>
       </c>
       <c r="B343" t="n">
-        <v>2577</v>
+        <v>10902</v>
       </c>
       <c r="C343" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D343" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="E343" t="s">
-        <v>100</v>
+        <v>42</v>
       </c>
     </row>
     <row r="344" spans="1:5">
@@ -6884,16 +6884,16 @@
         <v>342</v>
       </c>
       <c r="B344" t="n">
-        <v>67733</v>
+        <v>2577</v>
       </c>
       <c r="C344" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D344" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="E344" t="s">
-        <v>26</v>
+        <v>110</v>
       </c>
     </row>
     <row r="345" spans="1:5">
@@ -6901,16 +6901,16 @@
         <v>343</v>
       </c>
       <c r="B345" t="n">
-        <v>198295</v>
+        <v>67733</v>
       </c>
       <c r="C345" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D345" t="s">
+        <v>21</v>
+      </c>
+      <c r="E345" t="s">
         <v>29</v>
-      </c>
-      <c r="E345" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="346" spans="1:5">
@@ -6918,16 +6918,16 @@
         <v>344</v>
       </c>
       <c r="B346" t="n">
-        <v>198291</v>
+        <v>198295</v>
       </c>
       <c r="C346" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D346" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="E346" t="s">
-        <v>42</v>
+        <v>76</v>
       </c>
     </row>
     <row r="347" spans="1:5">
@@ -6941,10 +6941,10 @@
         <v>216</v>
       </c>
       <c r="D347" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="E347" t="s">
-        <v>34</v>
+        <v>55</v>
       </c>
     </row>
     <row r="348" spans="1:5">
@@ -6958,10 +6958,10 @@
         <v>216</v>
       </c>
       <c r="D348" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="E348" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
     </row>
     <row r="349" spans="1:5">
@@ -6975,10 +6975,10 @@
         <v>216</v>
       </c>
       <c r="D349" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E349" t="s">
-        <v>100</v>
+        <v>27</v>
       </c>
     </row>
     <row r="350" spans="1:5">
@@ -6992,10 +6992,10 @@
         <v>216</v>
       </c>
       <c r="D350" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="E350" t="s">
-        <v>43</v>
+        <v>110</v>
       </c>
     </row>
     <row r="351" spans="1:5">
@@ -7003,16 +7003,16 @@
         <v>349</v>
       </c>
       <c r="B351" t="n">
-        <v>93295</v>
+        <v>198291</v>
       </c>
       <c r="C351" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D351" t="s">
-        <v>5</v>
+        <v>37</v>
       </c>
       <c r="E351" t="s">
-        <v>6</v>
+        <v>42</v>
       </c>
     </row>
     <row r="352" spans="1:5">
@@ -7026,10 +7026,10 @@
         <v>217</v>
       </c>
       <c r="D352" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E352" t="s">
-        <v>102</v>
+        <v>6</v>
       </c>
     </row>
     <row r="353" spans="1:5">
@@ -7037,16 +7037,16 @@
         <v>351</v>
       </c>
       <c r="B353" t="n">
-        <v>67728</v>
+        <v>93295</v>
       </c>
       <c r="C353" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D353" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="E353" t="s">
-        <v>138</v>
+        <v>101</v>
       </c>
     </row>
     <row r="354" spans="1:5">
@@ -7060,10 +7060,10 @@
         <v>218</v>
       </c>
       <c r="D354" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="E354" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
     </row>
     <row r="355" spans="1:5">
@@ -7077,10 +7077,10 @@
         <v>218</v>
       </c>
       <c r="D355" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="E355" t="s">
-        <v>62</v>
+        <v>123</v>
       </c>
     </row>
     <row r="356" spans="1:5">
@@ -7094,10 +7094,10 @@
         <v>218</v>
       </c>
       <c r="D356" t="s">
-        <v>5</v>
+        <v>37</v>
       </c>
       <c r="E356" t="s">
-        <v>6</v>
+        <v>62</v>
       </c>
     </row>
     <row r="357" spans="1:5">
@@ -7111,10 +7111,10 @@
         <v>218</v>
       </c>
       <c r="D357" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E357" t="s">
-        <v>40</v>
+        <v>6</v>
       </c>
     </row>
     <row r="358" spans="1:5">
@@ -7122,16 +7122,16 @@
         <v>356</v>
       </c>
       <c r="B358" t="n">
-        <v>12207</v>
+        <v>67728</v>
       </c>
       <c r="C358" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D358" t="s">
-        <v>37</v>
+        <v>7</v>
       </c>
       <c r="E358" t="s">
-        <v>191</v>
+        <v>40</v>
       </c>
     </row>
     <row r="359" spans="1:5">
@@ -7139,16 +7139,16 @@
         <v>357</v>
       </c>
       <c r="B359" t="n">
-        <v>900629</v>
+        <v>12207</v>
       </c>
       <c r="C359" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D359" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="E359" t="s">
-        <v>28</v>
+        <v>187</v>
       </c>
     </row>
     <row r="360" spans="1:5">
@@ -7162,10 +7162,10 @@
         <v>220</v>
       </c>
       <c r="D360" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="E360" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
     </row>
     <row r="361" spans="1:5">
@@ -7179,10 +7179,10 @@
         <v>220</v>
       </c>
       <c r="D361" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="E361" t="s">
-        <v>89</v>
+        <v>39</v>
       </c>
     </row>
     <row r="362" spans="1:5">
@@ -7196,10 +7196,10 @@
         <v>220</v>
       </c>
       <c r="D362" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="E362" t="s">
-        <v>221</v>
+        <v>89</v>
       </c>
     </row>
     <row r="363" spans="1:5">
@@ -7213,10 +7213,10 @@
         <v>220</v>
       </c>
       <c r="D363" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="E363" t="s">
-        <v>30</v>
+        <v>221</v>
       </c>
     </row>
     <row r="364" spans="1:5">
@@ -7230,10 +7230,10 @@
         <v>220</v>
       </c>
       <c r="D364" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="E364" t="s">
-        <v>191</v>
+        <v>33</v>
       </c>
     </row>
     <row r="365" spans="1:5">
@@ -7241,16 +7241,16 @@
         <v>363</v>
       </c>
       <c r="B365" t="n">
-        <v>555556047</v>
+        <v>900629</v>
       </c>
       <c r="C365" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D365" t="s">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="E365" t="s">
-        <v>223</v>
+        <v>187</v>
       </c>
     </row>
     <row r="366" spans="1:5">
@@ -7264,10 +7264,10 @@
         <v>222</v>
       </c>
       <c r="D366" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="E366" t="s">
-        <v>76</v>
+        <v>223</v>
       </c>
     </row>
     <row r="367" spans="1:5">
@@ -7281,10 +7281,10 @@
         <v>222</v>
       </c>
       <c r="D367" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E367" t="s">
-        <v>173</v>
+        <v>76</v>
       </c>
     </row>
     <row r="368" spans="1:5">
@@ -7292,16 +7292,16 @@
         <v>366</v>
       </c>
       <c r="B368" t="n">
-        <v>5001</v>
+        <v>555556047</v>
       </c>
       <c r="C368" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D368" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="E368" t="s">
-        <v>34</v>
+        <v>171</v>
       </c>
     </row>
     <row r="369" spans="1:5">
@@ -7315,10 +7315,10 @@
         <v>224</v>
       </c>
       <c r="D369" t="s">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="E369" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
     </row>
     <row r="370" spans="1:5">
@@ -7326,16 +7326,16 @@
         <v>368</v>
       </c>
       <c r="B370" t="n">
-        <v>198296</v>
+        <v>5001</v>
       </c>
       <c r="C370" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D370" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="E370" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
     </row>
     <row r="371" spans="1:5">
@@ -7343,16 +7343,16 @@
         <v>369</v>
       </c>
       <c r="B371" t="n">
-        <v>17759</v>
+        <v>198296</v>
       </c>
       <c r="C371" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D371" t="s">
         <v>21</v>
       </c>
       <c r="E371" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="372" spans="1:5">
@@ -7366,10 +7366,27 @@
         <v>226</v>
       </c>
       <c r="D372" t="s">
+        <v>21</v>
+      </c>
+      <c r="E372" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="373" spans="1:5">
+      <c r="A373" s="1" t="n">
+        <v>371</v>
+      </c>
+      <c r="B373" t="n">
+        <v>17759</v>
+      </c>
+      <c r="C373" t="s">
+        <v>226</v>
+      </c>
+      <c r="D373" t="s">
         <v>7</v>
       </c>
-      <c r="E372" t="s">
-        <v>49</v>
+      <c r="E373" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
